--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="participantes" sheetId="1" state="visible" r:id="rId3"/>
@@ -353,7 +353,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1180,9 +1180,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="7" t="n">
         <f aca="false">G2*H2</f>
         <v>0</v>
@@ -1204,9 +1202,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H3" s="10"/>
       <c r="I3" s="7" t="n">
         <f aca="false">G3*H3</f>
         <v>0</v>
@@ -1228,9 +1224,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H4" s="10"/>
       <c r="I4" s="7" t="n">
         <f aca="false">G4*H4</f>
         <v>0</v>
@@ -1252,9 +1246,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="7" t="n">
         <f aca="false">G5*H5</f>
         <v>0</v>
@@ -1276,9 +1268,7 @@
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="7" t="n">
         <f aca="false">G6*H6</f>
         <v>0</v>
@@ -1300,9 +1290,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="7" t="n">
         <f aca="false">G7*H7</f>
         <v>0</v>
@@ -1324,9 +1312,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="7" t="n">
         <f aca="false">G8*H8</f>
         <v>0</v>
@@ -1348,9 +1334,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="7" t="n">
         <f aca="false">G9*H9</f>
         <v>0</v>
@@ -1372,9 +1356,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="7" t="n">
         <f aca="false">G10*H10</f>
         <v>0</v>
@@ -1396,9 +1378,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="7" t="n">
         <f aca="false">G11*H11</f>
         <v>0</v>
@@ -1420,9 +1400,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="7" t="n">
         <f aca="false">G12*H12</f>
         <v>0</v>
@@ -1444,9 +1422,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="7" t="n">
         <f aca="false">G13*H13</f>
         <v>0</v>
@@ -1468,9 +1444,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H14" s="10"/>
       <c r="I14" s="7" t="n">
         <f aca="false">G14*H14</f>
         <v>0</v>
@@ -1492,9 +1466,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="7" t="n">
-        <v>5</v>
-      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="7" t="n">
         <f aca="false">G15*H15</f>
         <v>0</v>
@@ -1516,7 +1488,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="7" t="n">
         <f aca="false">G16*H16</f>
         <v>0</v>
@@ -1538,7 +1510,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="7" t="n">
         <f aca="false">G17*H17</f>
         <v>0</v>
@@ -1560,7 +1532,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="7" t="n">
         <f aca="false">G18*H18</f>
         <v>0</v>
@@ -1582,7 +1554,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="7" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
@@ -1604,7 +1576,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="7" t="n">
         <f aca="false">G20*H20</f>
         <v>0</v>
@@ -1626,7 +1598,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="7" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
@@ -1648,7 +1620,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="7" t="n">
         <f aca="false">G22*H22</f>
         <v>0</v>
@@ -1670,7 +1642,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="7" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
@@ -1692,7 +1664,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="7" t="n">
         <f aca="false">G24*H24</f>
         <v>0</v>
@@ -1714,7 +1686,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="7" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
@@ -1736,7 +1708,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="7" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
@@ -1758,7 +1730,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="7" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
@@ -1780,7 +1752,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="7" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
@@ -1802,7 +1774,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="7" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
@@ -1824,7 +1796,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="7" t="n">
         <f aca="false">G30*H30</f>
         <v>0</v>
@@ -1846,7 +1818,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="7" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
@@ -1868,7 +1840,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="7" t="n">
         <f aca="false">G32*H32</f>
         <v>0</v>
@@ -1890,7 +1862,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="7" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
@@ -1914,7 +1886,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="7" t="n">
         <f aca="false">G34*H34</f>
         <v>0</v>
@@ -1936,7 +1908,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="7" t="n">
         <f aca="false">G35*H35</f>
         <v>0</v>
@@ -1958,7 +1930,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="7" t="n">
         <f aca="false">G36*H36</f>
         <v>0</v>
@@ -1980,7 +1952,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="7" t="n">
         <f aca="false">G37*H37</f>
         <v>0</v>
@@ -2002,7 +1974,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="7" t="n">
         <f aca="false">G38*H38</f>
         <v>0</v>
@@ -2024,7 +1996,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="7" t="n">
         <f aca="false">G39*H39</f>
         <v>0</v>
@@ -2046,7 +2018,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="7" t="n">
         <f aca="false">G40*H40</f>
         <v>0</v>
@@ -2068,7 +2040,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="7" t="n">
         <f aca="false">G41*H41</f>
         <v>0</v>
@@ -2090,7 +2062,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="7" t="n">
         <f aca="false">G42*H42</f>
         <v>0</v>
@@ -2112,7 +2084,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="7" t="n">
         <f aca="false">G43*H43</f>
         <v>0</v>
@@ -2134,7 +2106,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="7" t="n">
         <f aca="false">G44*H44</f>
         <v>0</v>
@@ -2156,7 +2128,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="7" t="n">
         <f aca="false">G45*H45</f>
         <v>0</v>
@@ -2178,7 +2150,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="7" t="n">
         <f aca="false">G46*H46</f>
         <v>0</v>
@@ -2200,7 +2172,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="7" t="n">
         <f aca="false">G47*H47</f>
         <v>0</v>
@@ -2222,7 +2194,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="7" t="n">
         <f aca="false">G48*H48</f>
         <v>0</v>
@@ -2244,7 +2216,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="7" t="n">
         <f aca="false">G49*H49</f>
         <v>0</v>
@@ -2266,7 +2238,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="7" t="n">
         <f aca="false">G50*H50</f>
         <v>0</v>
@@ -2288,7 +2260,7 @@
       <c r="E51" s="12"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="7" t="n">
         <f aca="false">G51*H51</f>
         <v>0</v>
@@ -2310,7 +2282,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="7" t="n">
         <f aca="false">G52*H52</f>
         <v>0</v>
@@ -2332,7 +2304,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="7" t="n">
         <f aca="false">G53*H53</f>
         <v>0</v>
@@ -2354,7 +2326,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="7" t="n">
         <f aca="false">G54*H54</f>
         <v>0</v>
@@ -2376,7 +2348,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="7" t="n">
         <f aca="false">G55*H55</f>
         <v>0</v>
@@ -2398,7 +2370,7 @@
       <c r="E56" s="12"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="7" t="n">
         <f aca="false">G56*H56</f>
         <v>0</v>
@@ -2420,7 +2392,7 @@
       <c r="E57" s="12"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="7" t="n">
         <f aca="false">G57*H57</f>
         <v>0</v>
@@ -2442,7 +2414,7 @@
       <c r="E58" s="12"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="7" t="n">
         <f aca="false">G58*H58</f>
         <v>0</v>
@@ -2464,7 +2436,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="7" t="n">
         <f aca="false">G59*H59</f>
         <v>0</v>
@@ -2486,7 +2458,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="7" t="n">
         <f aca="false">G60*H60</f>
         <v>0</v>
@@ -2508,7 +2480,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="7" t="n">
         <f aca="false">G61*H61</f>
         <v>0</v>
@@ -2530,7 +2502,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="7" t="n">
         <f aca="false">G62*H62</f>
         <v>0</v>
@@ -2552,7 +2524,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="7" t="n">
         <f aca="false">G63*H63</f>
         <v>0</v>
@@ -2576,7 +2548,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="7" t="n">
         <f aca="false">G64*H64</f>
         <v>0</v>
@@ -2598,7 +2570,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="7" t="n">
         <f aca="false">G65*H65</f>
         <v>0</v>
@@ -2620,7 +2592,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="7" t="n">
         <f aca="false">G66*H66</f>
         <v>0</v>
@@ -2642,7 +2614,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="7" t="n">
         <f aca="false">G67*H67</f>
         <v>0</v>
@@ -2666,7 +2638,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="7" t="n">
         <f aca="false">G68*H68</f>
         <v>0</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t xml:space="preserve">1ºSPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIAGO ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRINQUEDO</t>
   </si>
   <si>
     <t xml:space="preserve">2ºSPRINT</t>
@@ -863,7 +872,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,8 +1123,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,20 +1228,32 @@
         <v>65</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="I4" s="7" t="n">
         <f aca="false">G4*H4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="n">
         <f aca="false">I4+J4</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="7"/>
     </row>
@@ -1876,7 +1897,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" s="8" t="n">
         <v>45976</v>
@@ -1900,7 +1921,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -1922,7 +1943,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -1944,7 +1965,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1966,7 +1987,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -1988,7 +2009,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -2010,7 +2031,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -2032,7 +2053,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -2054,7 +2075,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -2076,7 +2097,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -2098,7 +2119,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -2120,7 +2141,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -2142,7 +2163,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -2164,7 +2185,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -2186,7 +2207,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -2208,7 +2229,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -2538,7 +2559,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64" s="8" t="n">
         <v>46006</v>
@@ -2562,7 +2583,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -2584,7 +2605,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -2606,7 +2627,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -2628,7 +2649,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68" s="8" t="n">
         <v>46010</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -224,15 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">1ºSPRINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIAGO ALVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRINQUEDO</t>
   </si>
   <si>
     <t xml:space="preserve">2ºSPRINT</t>
@@ -626,7 +617,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -872,7 +863,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1124,7 +1115,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1229,16 +1220,16 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G4" s="10" t="n">
         <v>2</v>
@@ -1897,7 +1888,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B34" s="8" t="n">
         <v>45976</v>
@@ -1921,7 +1912,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -1943,7 +1934,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -1965,7 +1956,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -1987,7 +1978,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -2009,7 +2000,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -2031,7 +2022,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -2053,7 +2044,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -2075,7 +2066,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -2097,7 +2088,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -2119,7 +2110,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -2141,7 +2132,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -2163,7 +2154,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -2185,7 +2176,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -2207,7 +2198,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -2229,7 +2220,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -2559,7 +2550,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64" s="8" t="n">
         <v>46006</v>
@@ -2583,7 +2574,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -2605,7 +2596,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -2627,7 +2618,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -2649,7 +2640,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B68" s="8" t="n">
         <v>46010</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -616,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1192,25 +1192,37 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="I3" s="7" t="n">
         <f aca="false">G3*H3</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="n">
         <f aca="false">I3+J3</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L3" s="7"/>
     </row>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1192,18 +1192,20 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="8" t="n">
+        <v>45951</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1230,7 +1232,9 @@
       <c r="A4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="n">
+        <v>45951</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>29</v>
       </c>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -617,7 +617,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="C3:H4 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,7 +863,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C3:H4 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1199,32 +1199,20 @@
       <c r="B3" s="8" t="n">
         <v>45951</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>5</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="7" t="n">
         <f aca="false">G3*H3</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="n">
         <f aca="false">I3+J3</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7"/>
     </row>
@@ -1235,32 +1223,20 @@
       <c r="B4" s="8" t="n">
         <v>45951</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>5</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="7" t="n">
         <f aca="false">G4*H4</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="n">
         <f aca="false">I4+J4</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7"/>
     </row>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -223,7 +223,13 @@
     <t xml:space="preserve">INÍCIO</t>
   </si>
   <si>
+    <t xml:space="preserve">brinquedos novos</t>
+  </si>
+  <si>
     <t xml:space="preserve">1ºSPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escovas de dentes infantil</t>
   </si>
   <si>
     <t xml:space="preserve">2ºSPRINT</t>
@@ -239,11 +245,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +277,13 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -336,7 +350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,6 +396,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -617,7 +647,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="C3:H4 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,7 +893,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C3:H4 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1190,59 +1220,87 @@
         <f aca="false">I2+J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>45951</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="7" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="13" t="n">
+        <v>44</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14" t="n">
         <f aca="false">G3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="n">
+        <v>220</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="n">
         <f aca="false">I3+J3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>45951</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="14" t="n">
         <f aca="false">G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="n">
+        <v>96</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="n">
         <f aca="false">I4+J4</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1264,7 +1322,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -1286,7 +1344,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1308,7 +1366,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1330,7 +1388,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1352,7 +1410,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1374,7 +1432,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1396,7 +1454,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1418,7 +1476,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1440,7 +1498,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1462,7 +1520,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1484,7 +1542,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1506,12 +1564,12 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1528,12 +1586,12 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -1550,12 +1608,12 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1577,7 +1635,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -1599,7 +1657,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -1621,7 +1679,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -1643,7 +1701,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1665,7 +1723,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1687,7 +1745,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -1709,7 +1767,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1731,7 +1789,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
@@ -1753,7 +1811,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1775,7 +1833,7 @@
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1797,7 +1855,7 @@
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -1819,7 +1877,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -1841,7 +1899,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -1863,7 +1921,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1880,14 +1938,14 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="8" t="n">
         <v>45976</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="16"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -1904,12 +1962,12 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1926,12 +1984,12 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -1948,12 +2006,12 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1970,12 +2028,12 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
@@ -1992,12 +2050,12 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -2014,12 +2072,12 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="16"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
@@ -2036,12 +2094,12 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2058,12 +2116,12 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -2080,12 +2138,12 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="16"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2102,12 +2160,12 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -2124,12 +2182,12 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2146,12 +2204,12 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -2168,12 +2226,12 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2190,12 +2248,12 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="12"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2212,12 +2270,12 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="12"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2239,7 +2297,7 @@
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="12"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -2261,7 +2319,7 @@
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="12"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2283,7 +2341,7 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="12"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -2305,7 +2363,7 @@
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -2327,7 +2385,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="12"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -2349,7 +2407,7 @@
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="12"/>
+      <c r="E55" s="16"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -2371,7 +2429,7 @@
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -2393,7 +2451,7 @@
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -2415,7 +2473,7 @@
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="12"/>
+      <c r="E58" s="16"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -2437,7 +2495,7 @@
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="12"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -2459,7 +2517,7 @@
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="12"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -2481,7 +2539,7 @@
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -2503,7 +2561,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="12"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -2525,7 +2583,7 @@
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="12"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -2542,14 +2600,14 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" s="8" t="n">
         <v>46006</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="12"/>
+      <c r="E64" s="16"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -2566,12 +2624,12 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="12"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -2588,12 +2646,12 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="12"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -2610,12 +2668,12 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="12"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -2632,14 +2690,14 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B68" s="8" t="n">
         <v>46010</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="12"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -223,10 +223,10 @@
     <t xml:space="preserve">INÍCIO</t>
   </si>
   <si>
+    <t xml:space="preserve">1ºSPRINT</t>
+  </si>
+  <si>
     <t xml:space="preserve">brinquedos novos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1ºSPRINT</t>
   </si>
   <si>
     <t xml:space="preserve">escovas de dentes infantil</t>
@@ -1144,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1220,13 +1220,11 @@
         <f aca="false">I2+J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>45957</v>
@@ -1259,12 +1257,12 @@
         <v>220</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>45957</v>
@@ -1296,11 +1294,13 @@
         <f aca="false">I4+J4</f>
         <v>96</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -245,10 +245,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -297,7 +296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFE6E905"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -350,7 +349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,11 +378,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,12 +390,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -407,16 +410,44 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -447,12 +478,72 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FFE6E905"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFE6E905"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -641,13 +732,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -664,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -672,7 +763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -680,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -696,7 +787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -728,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -744,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -760,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -768,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -776,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -792,7 +883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -816,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -824,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -832,7 +923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -856,7 +947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -864,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -873,7 +964,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B27"/>
+  <autoFilter ref="A1:B27">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PACE DO BEM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1142,10 +1239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1198,7 +1295,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>64</v>
       </c>
@@ -1206,11 +1303,11 @@
         <v>45944</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="n">
         <f aca="false">G2*H2</f>
         <v>0</v>
@@ -1221,30 +1318,43 @@
         <v>0</v>
       </c>
       <c r="L2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>45957</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="14" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="14" t="n">
@@ -1259,30 +1369,43 @@
       <c r="L3" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+    </row>
+    <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>45957</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="14" t="n">
@@ -1297,1420 +1420,1665 @@
       <c r="L4" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+    </row>
+    <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I5" s="7" t="n">
         <f aca="false">G5*H5</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="n">
         <f aca="false">I5+J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I6" s="7" t="n">
         <f aca="false">G6*H6</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="n">
         <f aca="false">I6+J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I7" s="7" t="n">
         <f aca="false">G7*H7</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7" t="n">
         <f aca="false">I7+J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7" t="n">
+      <c r="B8" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="16" t="n">
         <f aca="false">G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="n">
         <f aca="false">I8+J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I9" s="7" t="n">
         <f aca="false">G9*H9</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="n">
         <f aca="false">I9+J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I10" s="7" t="n">
         <f aca="false">G10*H10</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7" t="n">
         <f aca="false">I10+J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I11" s="7" t="n">
         <f aca="false">G11*H11</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="n">
         <f aca="false">I11+J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="8" t="n">
+        <v>45958</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <v>5</v>
+      </c>
       <c r="I12" s="7" t="n">
         <f aca="false">G12*H12</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7" t="n">
         <f aca="false">I12+J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7" t="n">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="n">
         <f aca="false">G13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="n">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="n">
         <f aca="false">I13+J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7" t="n">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="n">
         <f aca="false">G14*H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="n">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16" t="n">
         <f aca="false">I14+J14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="7" t="n">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="n">
         <f aca="false">G15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="n">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="n">
         <f aca="false">I15+J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="7" t="n">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="n">
         <f aca="false">G16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7" t="n">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="n">
         <f aca="false">I16+J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="7" t="n">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="n">
         <f aca="false">G17*H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7" t="n">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="n">
         <f aca="false">I17+J17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7" t="n">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="n">
         <f aca="false">G18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="n">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="n">
         <f aca="false">I18+J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="7" t="n">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7" t="n">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16" t="n">
         <f aca="false">I19+J19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="7" t="n">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="n">
         <f aca="false">G20*H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7" t="n">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16" t="n">
         <f aca="false">I20+J20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="7" t="n">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7" t="n">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16" t="n">
         <f aca="false">I21+J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="7" t="n">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16" t="n">
         <f aca="false">G22*H22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="n">
+      <c r="J22" s="16"/>
+      <c r="K22" s="16" t="n">
         <f aca="false">I22+J22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="7" t="n">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="n">
+      <c r="J23" s="16"/>
+      <c r="K23" s="16" t="n">
         <f aca="false">I23+J23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="7" t="n">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16" t="n">
         <f aca="false">G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="n">
+      <c r="J24" s="16"/>
+      <c r="K24" s="16" t="n">
         <f aca="false">I24+J24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="7" t="n">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="n">
+      <c r="J25" s="16"/>
+      <c r="K25" s="16" t="n">
         <f aca="false">I25+J25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="7" t="n">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="n">
+      <c r="J26" s="16"/>
+      <c r="K26" s="16" t="n">
         <f aca="false">I26+J26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="7" t="n">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="n">
+      <c r="J27" s="16"/>
+      <c r="K27" s="16" t="n">
         <f aca="false">I27+J27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="7" t="n">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="n">
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="n">
         <f aca="false">I28+J28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="7" t="n">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7" t="n">
+      <c r="J29" s="16"/>
+      <c r="K29" s="16" t="n">
         <f aca="false">I29+J29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="7" t="n">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="n">
         <f aca="false">G30*H30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="n">
+      <c r="J30" s="16"/>
+      <c r="K30" s="16" t="n">
         <f aca="false">I30+J30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="7" t="n">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7" t="n">
+      <c r="J31" s="16"/>
+      <c r="K31" s="16" t="n">
         <f aca="false">I31+J31</f>
         <v>0</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="7" t="n">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16" t="n">
         <f aca="false">G32*H32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="n">
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="n">
         <f aca="false">I32+J32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="7" t="n">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="n">
+      <c r="J33" s="16"/>
+      <c r="K33" s="16" t="n">
         <f aca="false">I33+J33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="23" t="n">
         <v>45976</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="7" t="n">
+      <c r="C34" s="24"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16" t="n">
         <f aca="false">G34*H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7" t="n">
+      <c r="J34" s="16"/>
+      <c r="K34" s="16" t="n">
         <f aca="false">I34+J34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="7" t="n">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16" t="n">
         <f aca="false">G35*H35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7" t="n">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16" t="n">
         <f aca="false">I35+J35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="7" t="n">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16" t="n">
         <f aca="false">G36*H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7" t="n">
+      <c r="J36" s="16"/>
+      <c r="K36" s="16" t="n">
         <f aca="false">I36+J36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="7" t="n">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16" t="n">
         <f aca="false">G37*H37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7" t="n">
+      <c r="J37" s="16"/>
+      <c r="K37" s="16" t="n">
         <f aca="false">I37+J37</f>
         <v>0</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="7" t="n">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16" t="n">
         <f aca="false">G38*H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7" t="n">
+      <c r="J38" s="16"/>
+      <c r="K38" s="16" t="n">
         <f aca="false">I38+J38</f>
         <v>0</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="7" t="n">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16" t="n">
         <f aca="false">G39*H39</f>
         <v>0</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7" t="n">
+      <c r="J39" s="16"/>
+      <c r="K39" s="16" t="n">
         <f aca="false">I39+J39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="7" t="n">
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16" t="n">
         <f aca="false">G40*H40</f>
         <v>0</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7" t="n">
+      <c r="J40" s="16"/>
+      <c r="K40" s="16" t="n">
         <f aca="false">I40+J40</f>
         <v>0</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="7" t="n">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16" t="n">
         <f aca="false">G41*H41</f>
         <v>0</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7" t="n">
+      <c r="J41" s="16"/>
+      <c r="K41" s="16" t="n">
         <f aca="false">I41+J41</f>
         <v>0</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="7" t="n">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16" t="n">
         <f aca="false">G42*H42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7" t="n">
+      <c r="J42" s="16"/>
+      <c r="K42" s="16" t="n">
         <f aca="false">I42+J42</f>
         <v>0</v>
       </c>
-      <c r="L42" s="7"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="7" t="n">
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16" t="n">
         <f aca="false">G43*H43</f>
         <v>0</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7" t="n">
+      <c r="J43" s="16"/>
+      <c r="K43" s="16" t="n">
         <f aca="false">I43+J43</f>
         <v>0</v>
       </c>
-      <c r="L43" s="7"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="7" t="n">
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16" t="n">
         <f aca="false">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7" t="n">
+      <c r="J44" s="16"/>
+      <c r="K44" s="16" t="n">
         <f aca="false">I44+J44</f>
         <v>0</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="7" t="n">
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16" t="n">
         <f aca="false">G45*H45</f>
         <v>0</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7" t="n">
+      <c r="J45" s="16"/>
+      <c r="K45" s="16" t="n">
         <f aca="false">I45+J45</f>
         <v>0</v>
       </c>
-      <c r="L45" s="7"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="7" t="n">
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16" t="n">
         <f aca="false">G46*H46</f>
         <v>0</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7" t="n">
+      <c r="J46" s="16"/>
+      <c r="K46" s="16" t="n">
         <f aca="false">I46+J46</f>
         <v>0</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="7" t="n">
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16" t="n">
         <f aca="false">G47*H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7" t="n">
+      <c r="J47" s="16"/>
+      <c r="K47" s="16" t="n">
         <f aca="false">I47+J47</f>
         <v>0</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="7" t="n">
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16" t="n">
         <f aca="false">G48*H48</f>
         <v>0</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7" t="n">
+      <c r="J48" s="16"/>
+      <c r="K48" s="16" t="n">
         <f aca="false">I48+J48</f>
         <v>0</v>
       </c>
-      <c r="L48" s="7"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="7" t="n">
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16" t="n">
         <f aca="false">G49*H49</f>
         <v>0</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7" t="n">
+      <c r="J49" s="16"/>
+      <c r="K49" s="16" t="n">
         <f aca="false">I49+J49</f>
         <v>0</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="7" t="n">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16" t="n">
         <f aca="false">G50*H50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7" t="n">
+      <c r="J50" s="16"/>
+      <c r="K50" s="16" t="n">
         <f aca="false">I50+J50</f>
         <v>0</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="7" t="n">
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16" t="n">
         <f aca="false">G51*H51</f>
         <v>0</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7" t="n">
+      <c r="J51" s="16"/>
+      <c r="K51" s="16" t="n">
         <f aca="false">I51+J51</f>
         <v>0</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="7" t="n">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16" t="n">
         <f aca="false">G52*H52</f>
         <v>0</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7" t="n">
+      <c r="J52" s="16"/>
+      <c r="K52" s="16" t="n">
         <f aca="false">I52+J52</f>
         <v>0</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="7" t="n">
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16" t="n">
         <f aca="false">G53*H53</f>
         <v>0</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7" t="n">
+      <c r="J53" s="16"/>
+      <c r="K53" s="16" t="n">
         <f aca="false">I53+J53</f>
         <v>0</v>
       </c>
-      <c r="L53" s="7"/>
+      <c r="L53" s="16"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="7" t="n">
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16" t="n">
         <f aca="false">G54*H54</f>
         <v>0</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7" t="n">
+      <c r="J54" s="16"/>
+      <c r="K54" s="16" t="n">
         <f aca="false">I54+J54</f>
         <v>0</v>
       </c>
-      <c r="L54" s="7"/>
+      <c r="L54" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="7" t="n">
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16" t="n">
         <f aca="false">G55*H55</f>
         <v>0</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7" t="n">
+      <c r="J55" s="16"/>
+      <c r="K55" s="16" t="n">
         <f aca="false">I55+J55</f>
         <v>0</v>
       </c>
-      <c r="L55" s="7"/>
+      <c r="L55" s="16"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="7" t="n">
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16" t="n">
         <f aca="false">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7" t="n">
+      <c r="J56" s="16"/>
+      <c r="K56" s="16" t="n">
         <f aca="false">I56+J56</f>
         <v>0</v>
       </c>
-      <c r="L56" s="7"/>
+      <c r="L56" s="16"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="7" t="n">
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16" t="n">
         <f aca="false">G57*H57</f>
         <v>0</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7" t="n">
+      <c r="J57" s="16"/>
+      <c r="K57" s="16" t="n">
         <f aca="false">I57+J57</f>
         <v>0</v>
       </c>
-      <c r="L57" s="7"/>
+      <c r="L57" s="16"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="7" t="n">
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16" t="n">
         <f aca="false">G58*H58</f>
         <v>0</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7" t="n">
+      <c r="J58" s="16"/>
+      <c r="K58" s="16" t="n">
         <f aca="false">I58+J58</f>
         <v>0</v>
       </c>
-      <c r="L58" s="7"/>
+      <c r="L58" s="16"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="7" t="n">
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16" t="n">
         <f aca="false">G59*H59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7" t="n">
+      <c r="J59" s="16"/>
+      <c r="K59" s="16" t="n">
         <f aca="false">I59+J59</f>
         <v>0</v>
       </c>
-      <c r="L59" s="7"/>
+      <c r="L59" s="16"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="7" t="n">
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16" t="n">
         <f aca="false">G60*H60</f>
         <v>0</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7" t="n">
+      <c r="J60" s="16"/>
+      <c r="K60" s="16" t="n">
         <f aca="false">I60+J60</f>
         <v>0</v>
       </c>
-      <c r="L60" s="7"/>
+      <c r="L60" s="16"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="7" t="n">
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16" t="n">
         <f aca="false">G61*H61</f>
         <v>0</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7" t="n">
+      <c r="J61" s="16"/>
+      <c r="K61" s="16" t="n">
         <f aca="false">I61+J61</f>
         <v>0</v>
       </c>
-      <c r="L61" s="7"/>
+      <c r="L61" s="16"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="7" t="n">
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16" t="n">
         <f aca="false">G62*H62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7" t="n">
+      <c r="J62" s="16"/>
+      <c r="K62" s="16" t="n">
         <f aca="false">I62+J62</f>
         <v>0</v>
       </c>
-      <c r="L62" s="7"/>
+      <c r="L62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="7" t="n">
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16" t="n">
         <f aca="false">G63*H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7" t="n">
+      <c r="J63" s="16"/>
+      <c r="K63" s="16" t="n">
         <f aca="false">I63+J63</f>
         <v>0</v>
       </c>
-      <c r="L63" s="7"/>
+      <c r="L63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="8" t="n">
+      <c r="B64" s="23" t="n">
         <v>46006</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="7" t="n">
+      <c r="C64" s="24"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16" t="n">
         <f aca="false">G64*H64</f>
         <v>0</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7" t="n">
+      <c r="J64" s="16"/>
+      <c r="K64" s="16" t="n">
         <f aca="false">I64+J64</f>
         <v>0</v>
       </c>
-      <c r="L64" s="7"/>
+      <c r="L64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="7" t="n">
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16" t="n">
         <f aca="false">G65*H65</f>
         <v>0</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7" t="n">
+      <c r="J65" s="16"/>
+      <c r="K65" s="16" t="n">
         <f aca="false">I65+J65</f>
         <v>0</v>
       </c>
-      <c r="L65" s="7"/>
+      <c r="L65" s="16"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="7" t="n">
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16" t="n">
         <f aca="false">G66*H66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7" t="n">
+      <c r="J66" s="16"/>
+      <c r="K66" s="16" t="n">
         <f aca="false">I66+J66</f>
         <v>0</v>
       </c>
-      <c r="L66" s="7"/>
+      <c r="L66" s="16"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="7" t="n">
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16" t="n">
         <f aca="false">G67*H67</f>
         <v>0</v>
       </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7" t="n">
+      <c r="J67" s="16"/>
+      <c r="K67" s="16" t="n">
         <f aca="false">I67+J67</f>
         <v>0</v>
       </c>
-      <c r="L67" s="7"/>
+      <c r="L67" s="16"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="8" t="n">
+      <c r="B68" s="23" t="n">
         <v>46010</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="7" t="n">
+      <c r="C68" s="24"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16" t="n">
         <f aca="false">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7" t="n">
+      <c r="J68" s="16"/>
+      <c r="K68" s="16" t="n">
         <f aca="false">I68+J68</f>
         <v>0</v>
       </c>
-      <c r="L68" s="7"/>
+      <c r="L68" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C15"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lucas Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Rodrigues</t>
   </si>
   <si>
     <t xml:space="preserve">Matheus Lima</t>
@@ -287,7 +284,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +295,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E905"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE6E905"/>
       </patternFill>
     </fill>
   </fills>
@@ -349,7 +352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,27 +417,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -450,6 +457,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +478,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -483,6 +502,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -491,7 +518,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFE6E905"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -512,7 +539,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFE6E905"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -738,7 +765,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,7 +904,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -885,7 +912,7 @@
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -893,7 +920,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -901,7 +928,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -909,7 +936,7 @@
     </row>
     <row r="21" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -917,7 +944,7 @@
     </row>
     <row r="22" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -925,7 +952,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -933,7 +960,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -941,7 +968,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -949,7 +976,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -957,7 +984,7 @@
     </row>
     <row r="27" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -1005,30 +1032,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5</v>
@@ -1037,7 +1064,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>50</v>
@@ -1045,10 +1072,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3</v>
@@ -1057,7 +1084,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>50</v>
@@ -1065,10 +1092,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3</v>
@@ -1077,7 +1104,7 @@
         <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>40</v>
@@ -1085,10 +1112,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -1097,7 +1124,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>40</v>
@@ -1105,10 +1132,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
@@ -1117,7 +1144,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>60</v>
@@ -1125,10 +1152,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>10</v>
@@ -1137,7 +1164,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>60</v>
@@ -1145,10 +1172,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -1157,7 +1184,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>20</v>
@@ -1165,10 +1192,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
@@ -1177,7 +1204,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>20</v>
@@ -1185,10 +1212,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4</v>
@@ -1197,7 +1224,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>30</v>
@@ -1205,10 +1232,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6</v>
@@ -1217,7 +1244,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>30</v>
@@ -1241,8 +1268,8 @@
   </sheetPr>
   <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1259,10 +1286,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1271,33 +1298,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>45944</v>
@@ -1334,22 +1361,22 @@
     </row>
     <row r="3" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>45957</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>44</v>
@@ -1367,7 +1394,7 @@
         <v>220</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1385,22 +1412,22 @@
     </row>
     <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>45957</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="G4" s="14" t="n">
         <v>24</v>
@@ -1418,7 +1445,7 @@
         <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1436,7 +1463,7 @@
     </row>
     <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>45958</v>
@@ -1448,10 +1475,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>9</v>
@@ -1469,7 +1496,7 @@
         <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -1487,7 +1514,7 @@
     </row>
     <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>45958</v>
@@ -1499,10 +1526,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>9</v>
@@ -1520,7 +1547,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1538,7 +1565,7 @@
     </row>
     <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>45958</v>
@@ -1550,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>9</v>
@@ -1571,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -1587,24 +1614,24 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
     </row>
-    <row r="8" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="B8" s="17" t="n">
         <v>45958</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="G8" s="16" t="n">
         <v>9</v>
@@ -1622,40 +1649,40 @@
         <v>45</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
     </row>
     <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>45958</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>9</v>
@@ -1673,7 +1700,7 @@
         <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1691,22 +1718,22 @@
     </row>
     <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>45958</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>9</v>
@@ -1724,7 +1751,7 @@
         <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1742,22 +1769,22 @@
     </row>
     <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>45958</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>7</v>
@@ -1775,7 +1802,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1793,7 +1820,7 @@
     </row>
     <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>45958</v>
@@ -1805,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>9</v>
@@ -1826,7 +1853,7 @@
         <v>45</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1843,1242 +1870,1242 @@
       <c r="Y12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="n">
+      <c r="A13" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26" t="n">
         <f aca="false">G13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="n">
+      <c r="J13" s="26"/>
+      <c r="K13" s="26" t="n">
         <f aca="false">I13+J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="n">
+      <c r="A14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26" t="n">
         <f aca="false">G14*H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16" t="n">
+      <c r="J14" s="26"/>
+      <c r="K14" s="26" t="n">
         <f aca="false">I14+J14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="n">
+      <c r="A15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26" t="n">
         <f aca="false">G15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16" t="n">
+      <c r="J15" s="26"/>
+      <c r="K15" s="26" t="n">
         <f aca="false">I15+J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="n">
+      <c r="A16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="n">
         <f aca="false">G16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="n">
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="n">
         <f aca="false">I16+J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16" t="n">
+      <c r="A17" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26" t="n">
         <f aca="false">G17*H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="n">
+      <c r="J17" s="26"/>
+      <c r="K17" s="26" t="n">
         <f aca="false">I17+J17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16" t="n">
+      <c r="A18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26" t="n">
         <f aca="false">G18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="n">
+      <c r="J18" s="26"/>
+      <c r="K18" s="26" t="n">
         <f aca="false">I18+J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="n">
+      <c r="A19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16" t="n">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26" t="n">
         <f aca="false">I19+J19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="16"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16" t="n">
+      <c r="A20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26" t="n">
         <f aca="false">G20*H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="n">
+      <c r="J20" s="26"/>
+      <c r="K20" s="26" t="n">
         <f aca="false">I20+J20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16" t="n">
+      <c r="A21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16" t="n">
+      <c r="J21" s="26"/>
+      <c r="K21" s="26" t="n">
         <f aca="false">I21+J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16" t="n">
+      <c r="A22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26" t="n">
         <f aca="false">G22*H22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16" t="n">
+      <c r="J22" s="26"/>
+      <c r="K22" s="26" t="n">
         <f aca="false">I22+J22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16" t="n">
+      <c r="A23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16" t="n">
+      <c r="J23" s="26"/>
+      <c r="K23" s="26" t="n">
         <f aca="false">I23+J23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16" t="n">
+      <c r="A24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26" t="n">
         <f aca="false">G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16" t="n">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26" t="n">
         <f aca="false">I24+J24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="16"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16" t="n">
+      <c r="A25" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16" t="n">
+      <c r="J25" s="26"/>
+      <c r="K25" s="26" t="n">
         <f aca="false">I25+J25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16" t="n">
+      <c r="A26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16" t="n">
+      <c r="J26" s="26"/>
+      <c r="K26" s="26" t="n">
         <f aca="false">I26+J26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16" t="n">
+      <c r="A27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16" t="n">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26" t="n">
         <f aca="false">I27+J27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16" t="n">
+      <c r="A28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="n">
+      <c r="J28" s="26"/>
+      <c r="K28" s="26" t="n">
         <f aca="false">I28+J28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16" t="n">
+      <c r="A29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16" t="n">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26" t="n">
         <f aca="false">I29+J29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16" t="n">
+      <c r="A30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26" t="n">
         <f aca="false">G30*H30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16" t="n">
+      <c r="J30" s="26"/>
+      <c r="K30" s="26" t="n">
         <f aca="false">I30+J30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16" t="n">
+      <c r="A31" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16" t="n">
+      <c r="J31" s="26"/>
+      <c r="K31" s="26" t="n">
         <f aca="false">I31+J31</f>
         <v>0</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16" t="n">
+      <c r="A32" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26" t="n">
         <f aca="false">G32*H32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16" t="n">
+      <c r="J32" s="26"/>
+      <c r="K32" s="26" t="n">
         <f aca="false">I32+J32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16" t="n">
+      <c r="A33" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16" t="n">
+      <c r="J33" s="26"/>
+      <c r="K33" s="26" t="n">
         <f aca="false">I33+J33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="24" t="n">
+        <v>45976</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26" t="n">
+        <f aca="false">G34*H34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26" t="n">
+        <f aca="false">I34+J34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26" t="n">
+        <f aca="false">G35*H35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26" t="n">
+        <f aca="false">I35+J35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26" t="n">
+        <f aca="false">G36*H36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26" t="n">
+        <f aca="false">I36+J36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26" t="n">
+        <f aca="false">G37*H37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26" t="n">
+        <f aca="false">I37+J37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26" t="n">
+        <f aca="false">G38*H38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26" t="n">
+        <f aca="false">I38+J38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26" t="n">
+        <f aca="false">G39*H39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26" t="n">
+        <f aca="false">I39+J39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26" t="n">
+        <f aca="false">G40*H40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26" t="n">
+        <f aca="false">I40+J40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26" t="n">
+        <f aca="false">G41*H41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26" t="n">
+        <f aca="false">I41+J41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26" t="n">
+        <f aca="false">G42*H42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26" t="n">
+        <f aca="false">I42+J42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26" t="n">
+        <f aca="false">G43*H43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26" t="n">
+        <f aca="false">I43+J43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26" t="n">
+        <f aca="false">G44*H44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26" t="n">
+        <f aca="false">I44+J44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26" t="n">
+        <f aca="false">G45*H45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26" t="n">
+        <f aca="false">I45+J45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26" t="n">
+        <f aca="false">G46*H46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26" t="n">
+        <f aca="false">I46+J46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26" t="n">
+        <f aca="false">G47*H47</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26" t="n">
+        <f aca="false">I47+J47</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26" t="n">
+        <f aca="false">G48*H48</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26" t="n">
+        <f aca="false">I48+J48</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26" t="n">
+        <f aca="false">G49*H49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26" t="n">
+        <f aca="false">I49+J49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26" t="n">
+        <f aca="false">G50*H50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26" t="n">
+        <f aca="false">I50+J50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26" t="n">
+        <f aca="false">G51*H51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26" t="n">
+        <f aca="false">I51+J51</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26" t="n">
+        <f aca="false">G52*H52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26" t="n">
+        <f aca="false">I52+J52</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26" t="n">
+        <f aca="false">G53*H53</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26" t="n">
+        <f aca="false">I53+J53</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26" t="n">
+        <f aca="false">G54*H54</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26" t="n">
+        <f aca="false">I54+J54</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="26"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26" t="n">
+        <f aca="false">G55*H55</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26" t="n">
+        <f aca="false">I55+J55</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="26"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26" t="n">
+        <f aca="false">G56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26" t="n">
+        <f aca="false">I56+J56</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="26"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26" t="n">
+        <f aca="false">G57*H57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26" t="n">
+        <f aca="false">I57+J57</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26" t="n">
+        <f aca="false">G58*H58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26" t="n">
+        <f aca="false">I58+J58</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="26"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26" t="n">
+        <f aca="false">G59*H59</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26" t="n">
+        <f aca="false">I59+J59</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="26"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26" t="n">
+        <f aca="false">G60*H60</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26" t="n">
+        <f aca="false">I60+J60</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="26"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26" t="n">
+        <f aca="false">G61*H61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26" t="n">
+        <f aca="false">I61+J61</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="26"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26" t="n">
+        <f aca="false">G62*H62</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26" t="n">
+        <f aca="false">I62+J62</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="26"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26" t="n">
+        <f aca="false">G63*H63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26" t="n">
+        <f aca="false">I63+J63</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="23" t="n">
-        <v>45976</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16" t="n">
-        <f aca="false">G34*H34</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16" t="n">
-        <f aca="false">I34+J34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="B64" s="24" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26" t="n">
+        <f aca="false">G64*H64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26" t="n">
+        <f aca="false">I64+J64</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16" t="n">
-        <f aca="false">G35*H35</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16" t="n">
-        <f aca="false">I35+J35</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26" t="n">
+        <f aca="false">G65*H65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26" t="n">
+        <f aca="false">I65+J65</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="26"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16" t="n">
-        <f aca="false">G36*H36</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16" t="n">
-        <f aca="false">I36+J36</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="16"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26" t="n">
+        <f aca="false">G66*H66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26" t="n">
+        <f aca="false">I66+J66</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="26"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="n">
-        <f aca="false">G37*H37</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16" t="n">
-        <f aca="false">I37+J37</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16" t="n">
-        <f aca="false">G38*H38</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16" t="n">
-        <f aca="false">I38+J38</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16" t="n">
-        <f aca="false">G39*H39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16" t="n">
-        <f aca="false">I39+J39</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16" t="n">
-        <f aca="false">G40*H40</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16" t="n">
-        <f aca="false">I40+J40</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16" t="n">
-        <f aca="false">G41*H41</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16" t="n">
-        <f aca="false">I41+J41</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16" t="n">
-        <f aca="false">G42*H42</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16" t="n">
-        <f aca="false">I42+J42</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="16"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16" t="n">
-        <f aca="false">G43*H43</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16" t="n">
-        <f aca="false">I43+J43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16" t="n">
-        <f aca="false">G44*H44</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16" t="n">
-        <f aca="false">I44+J44</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="16"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16" t="n">
-        <f aca="false">G45*H45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16" t="n">
-        <f aca="false">I45+J45</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="16"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16" t="n">
-        <f aca="false">G46*H46</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16" t="n">
-        <f aca="false">I46+J46</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16" t="n">
-        <f aca="false">G47*H47</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16" t="n">
-        <f aca="false">I47+J47</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="16"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16" t="n">
-        <f aca="false">G48*H48</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16" t="n">
-        <f aca="false">I48+J48</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="16"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16" t="n">
-        <f aca="false">G49*H49</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16" t="n">
-        <f aca="false">I49+J49</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="16"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16" t="n">
-        <f aca="false">G50*H50</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16" t="n">
-        <f aca="false">I50+J50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="16"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16" t="n">
-        <f aca="false">G51*H51</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16" t="n">
-        <f aca="false">I51+J51</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16" t="n">
-        <f aca="false">G52*H52</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16" t="n">
-        <f aca="false">I52+J52</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16" t="n">
-        <f aca="false">G53*H53</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16" t="n">
-        <f aca="false">I53+J53</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16" t="n">
-        <f aca="false">G54*H54</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16" t="n">
-        <f aca="false">I54+J54</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="16"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16" t="n">
-        <f aca="false">G55*H55</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16" t="n">
-        <f aca="false">I55+J55</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16" t="n">
-        <f aca="false">G56*H56</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16" t="n">
-        <f aca="false">I56+J56</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16" t="n">
-        <f aca="false">G57*H57</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16" t="n">
-        <f aca="false">I57+J57</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16" t="n">
-        <f aca="false">G58*H58</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16" t="n">
-        <f aca="false">I58+J58</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="16"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16" t="n">
-        <f aca="false">G59*H59</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16" t="n">
-        <f aca="false">I59+J59</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16" t="n">
-        <f aca="false">G60*H60</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16" t="n">
-        <f aca="false">I60+J60</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16" t="n">
-        <f aca="false">G61*H61</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16" t="n">
-        <f aca="false">I61+J61</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="16"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16" t="n">
-        <f aca="false">G62*H62</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16" t="n">
-        <f aca="false">I62+J62</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16" t="n">
-        <f aca="false">G63*H63</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16" t="n">
-        <f aca="false">I63+J63</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26" t="n">
+        <f aca="false">G67*H67</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26" t="n">
+        <f aca="false">I67+J67</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="26"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="23" t="n">
-        <v>46006</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16" t="n">
-        <f aca="false">G64*H64</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16" t="n">
-        <f aca="false">I64+J64</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16" t="n">
-        <f aca="false">G65*H65</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16" t="n">
-        <f aca="false">I65+J65</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16" t="n">
-        <f aca="false">G66*H66</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16" t="n">
-        <f aca="false">I66+J66</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="16"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16" t="n">
-        <f aca="false">G67*H67</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16" t="n">
-        <f aca="false">I67+J67</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="16"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="23" t="n">
+      <c r="B68" s="24" t="n">
         <v>46010</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16" t="n">
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26" t="n">
         <f aca="false">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16" t="n">
+      <c r="J68" s="26"/>
+      <c r="K68" s="26" t="n">
         <f aca="false">I68+J68</f>
         <v>0</v>
       </c>
-      <c r="L68" s="16"/>
+      <c r="L68" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C15"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="participantes" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kamila Nascimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Rodrigues</t>
   </si>
   <si>
     <t xml:space="preserve">Lucas Dias</t>
@@ -352,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,7 +404,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,7 +444,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,14 +458,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -759,13 +754,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -782,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -790,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -846,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -862,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -878,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -886,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -894,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -904,15 +899,15 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -920,7 +915,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -928,31 +923,31 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -960,7 +955,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
@@ -968,36 +963,30 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B27">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PACE DO BEM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1032,30 +1021,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5</v>
@@ -1064,7 +1053,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>50</v>
@@ -1072,10 +1061,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3</v>
@@ -1084,7 +1073,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>50</v>
@@ -1092,10 +1081,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3</v>
@@ -1104,7 +1093,7 @@
         <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>40</v>
@@ -1112,10 +1101,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -1124,7 +1113,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>40</v>
@@ -1132,10 +1121,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
@@ -1144,7 +1133,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>60</v>
@@ -1152,10 +1141,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>10</v>
@@ -1164,7 +1153,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>60</v>
@@ -1172,10 +1161,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -1184,7 +1173,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>20</v>
@@ -1192,10 +1181,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
@@ -1204,7 +1193,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>20</v>
@@ -1212,10 +1201,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4</v>
@@ -1224,7 +1213,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>30</v>
@@ -1232,10 +1221,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6</v>
@@ -1244,7 +1233,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>30</v>
@@ -1268,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1286,10 +1275,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1298,33 +1287,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>45944</v>
@@ -1361,22 +1350,22 @@
     </row>
     <row r="3" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>45957</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>44</v>
@@ -1394,7 +1383,7 @@
         <v>220</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1412,22 +1401,22 @@
     </row>
     <row r="4" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>45957</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G4" s="14" t="n">
         <v>24</v>
@@ -1445,7 +1434,7 @@
         <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1463,7 +1452,7 @@
     </row>
     <row r="5" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>45958</v>
@@ -1475,10 +1464,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>9</v>
@@ -1496,7 +1485,7 @@
         <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -1514,7 +1503,7 @@
     </row>
     <row r="6" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>45958</v>
@@ -1526,10 +1515,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>9</v>
@@ -1547,7 +1536,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1565,7 +1554,7 @@
     </row>
     <row r="7" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>45958</v>
@@ -1577,10 +1566,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>9</v>
@@ -1598,7 +1587,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -1616,22 +1605,22 @@
     </row>
     <row r="8" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="17" t="n">
         <v>45958</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="16" t="n">
         <v>9</v>
@@ -1649,7 +1638,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -1667,22 +1656,22 @@
     </row>
     <row r="9" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>45958</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>9</v>
@@ -1700,7 +1689,7 @@
         <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1718,22 +1707,22 @@
     </row>
     <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>45958</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>9</v>
@@ -1751,7 +1740,7 @@
         <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1769,22 +1758,22 @@
     </row>
     <row r="11" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>45958</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>7</v>
@@ -1802,7 +1791,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1820,7 +1809,7 @@
     </row>
     <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>45958</v>
@@ -1832,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>9</v>
@@ -1853,7 +1842,7 @@
         <v>45</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1871,1241 +1860,1237 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26" t="n">
+      <c r="D13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="n">
         <f aca="false">G13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26" t="n">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23" t="n">
         <f aca="false">I13+J13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26" t="n">
+      <c r="D14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="n">
         <f aca="false">G14*H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26" t="n">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="n">
         <f aca="false">I14+J14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26" t="n">
+      <c r="D15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="n">
         <f aca="false">G15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26" t="n">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23" t="n">
         <f aca="false">I15+J15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26" t="n">
+      <c r="D16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23" t="n">
         <f aca="false">G16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26" t="n">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="n">
         <f aca="false">I16+J16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="26"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26" t="n">
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23" t="n">
         <f aca="false">G17*H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26" t="n">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23" t="n">
         <f aca="false">I17+J17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="26"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26" t="n">
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23" t="n">
         <f aca="false">G18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26" t="n">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23" t="n">
         <f aca="false">I18+J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26" t="n">
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23" t="n">
         <f aca="false">G19*H19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26" t="n">
+      <c r="J19" s="23"/>
+      <c r="K19" s="23" t="n">
         <f aca="false">I19+J19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26" t="n">
+      <c r="D20" s="23"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23" t="n">
         <f aca="false">G20*H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26" t="n">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23" t="n">
         <f aca="false">I20+J20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26" t="n">
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23" t="n">
         <f aca="false">G21*H21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26" t="n">
+      <c r="J21" s="23"/>
+      <c r="K21" s="23" t="n">
         <f aca="false">I21+J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="26"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26" t="n">
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23" t="n">
         <f aca="false">G22*H22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26" t="n">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23" t="n">
         <f aca="false">I22+J22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="26"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26" t="n">
+      <c r="D23" s="23"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23" t="n">
         <f aca="false">G23*H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26" t="n">
+      <c r="J23" s="23"/>
+      <c r="K23" s="23" t="n">
         <f aca="false">I23+J23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="26"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26" t="n">
+      <c r="D24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23" t="n">
         <f aca="false">G24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26" t="n">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23" t="n">
         <f aca="false">I24+J24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="26"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26" t="n">
+      <c r="D25" s="23"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23" t="n">
         <f aca="false">G25*H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26" t="n">
+      <c r="J25" s="23"/>
+      <c r="K25" s="23" t="n">
         <f aca="false">I25+J25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="26"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26" t="n">
+      <c r="D26" s="23"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23" t="n">
         <f aca="false">G26*H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26" t="n">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23" t="n">
         <f aca="false">I26+J26</f>
         <v>0</v>
       </c>
-      <c r="L26" s="26"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26" t="n">
+      <c r="D27" s="23"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="n">
         <f aca="false">G27*H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26" t="n">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23" t="n">
         <f aca="false">I27+J27</f>
         <v>0</v>
       </c>
-      <c r="L27" s="26"/>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26" t="n">
+      <c r="D28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23" t="n">
         <f aca="false">G28*H28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26" t="n">
+      <c r="J28" s="23"/>
+      <c r="K28" s="23" t="n">
         <f aca="false">I28+J28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="26"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26" t="n">
+      <c r="D29" s="23"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23" t="n">
         <f aca="false">G29*H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26" t="n">
+      <c r="J29" s="23"/>
+      <c r="K29" s="23" t="n">
         <f aca="false">I29+J29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="26"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26" t="n">
+      <c r="D30" s="23"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23" t="n">
         <f aca="false">G30*H30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26" t="n">
+      <c r="J30" s="23"/>
+      <c r="K30" s="23" t="n">
         <f aca="false">I30+J30</f>
         <v>0</v>
       </c>
-      <c r="L30" s="26"/>
+      <c r="L30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26" t="n">
+      <c r="D31" s="23"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23" t="n">
         <f aca="false">G31*H31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26" t="n">
+      <c r="J31" s="23"/>
+      <c r="K31" s="23" t="n">
         <f aca="false">I31+J31</f>
         <v>0</v>
       </c>
-      <c r="L31" s="26"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26" t="n">
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23" t="n">
         <f aca="false">G32*H32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26" t="n">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23" t="n">
         <f aca="false">I32+J32</f>
         <v>0</v>
       </c>
-      <c r="L32" s="26"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26" t="n">
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23" t="n">
         <f aca="false">G33*H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26" t="n">
+      <c r="J33" s="23"/>
+      <c r="K33" s="23" t="n">
         <f aca="false">I33+J33</f>
         <v>0</v>
       </c>
-      <c r="L33" s="26"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="24" t="n">
         <v>45976</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="n">
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23" t="n">
         <f aca="false">G34*H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26" t="n">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23" t="n">
         <f aca="false">I34+J34</f>
         <v>0</v>
       </c>
-      <c r="L34" s="26"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26" t="n">
+      <c r="D35" s="23"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23" t="n">
         <f aca="false">G35*H35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26" t="n">
+      <c r="J35" s="23"/>
+      <c r="K35" s="23" t="n">
         <f aca="false">I35+J35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="26"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26" t="n">
+      <c r="D36" s="23"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23" t="n">
         <f aca="false">G36*H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26" t="n">
+      <c r="J36" s="23"/>
+      <c r="K36" s="23" t="n">
         <f aca="false">I36+J36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="26"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26" t="n">
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23" t="n">
         <f aca="false">G37*H37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26" t="n">
+      <c r="J37" s="23"/>
+      <c r="K37" s="23" t="n">
         <f aca="false">I37+J37</f>
         <v>0</v>
       </c>
-      <c r="L37" s="26"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26" t="n">
+      <c r="D38" s="23"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23" t="n">
         <f aca="false">G38*H38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26" t="n">
+      <c r="J38" s="23"/>
+      <c r="K38" s="23" t="n">
         <f aca="false">I38+J38</f>
         <v>0</v>
       </c>
-      <c r="L38" s="26"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26" t="n">
+      <c r="D39" s="23"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23" t="n">
         <f aca="false">G39*H39</f>
         <v>0</v>
       </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26" t="n">
+      <c r="J39" s="23"/>
+      <c r="K39" s="23" t="n">
         <f aca="false">I39+J39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="26"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26" t="n">
+      <c r="D40" s="23"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23" t="n">
         <f aca="false">G40*H40</f>
         <v>0</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26" t="n">
+      <c r="J40" s="23"/>
+      <c r="K40" s="23" t="n">
         <f aca="false">I40+J40</f>
         <v>0</v>
       </c>
-      <c r="L40" s="26"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26" t="n">
+      <c r="D41" s="23"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23" t="n">
         <f aca="false">G41*H41</f>
         <v>0</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26" t="n">
+      <c r="J41" s="23"/>
+      <c r="K41" s="23" t="n">
         <f aca="false">I41+J41</f>
         <v>0</v>
       </c>
-      <c r="L41" s="26"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26" t="n">
+      <c r="D42" s="23"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23" t="n">
         <f aca="false">G42*H42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26" t="n">
+      <c r="J42" s="23"/>
+      <c r="K42" s="23" t="n">
         <f aca="false">I42+J42</f>
         <v>0</v>
       </c>
-      <c r="L42" s="26"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26" t="n">
+      <c r="D43" s="23"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23" t="n">
         <f aca="false">G43*H43</f>
         <v>0</v>
       </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26" t="n">
+      <c r="J43" s="23"/>
+      <c r="K43" s="23" t="n">
         <f aca="false">I43+J43</f>
         <v>0</v>
       </c>
-      <c r="L43" s="26"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26" t="n">
+      <c r="D44" s="23"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23" t="n">
         <f aca="false">G44*H44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26" t="n">
+      <c r="J44" s="23"/>
+      <c r="K44" s="23" t="n">
         <f aca="false">I44+J44</f>
         <v>0</v>
       </c>
-      <c r="L44" s="26"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26" t="n">
+      <c r="D45" s="23"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23" t="n">
         <f aca="false">G45*H45</f>
         <v>0</v>
       </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26" t="n">
+      <c r="J45" s="23"/>
+      <c r="K45" s="23" t="n">
         <f aca="false">I45+J45</f>
         <v>0</v>
       </c>
-      <c r="L45" s="26"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26" t="n">
+      <c r="D46" s="23"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23" t="n">
         <f aca="false">G46*H46</f>
         <v>0</v>
       </c>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26" t="n">
+      <c r="J46" s="23"/>
+      <c r="K46" s="23" t="n">
         <f aca="false">I46+J46</f>
         <v>0</v>
       </c>
-      <c r="L46" s="26"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26" t="n">
+      <c r="D47" s="23"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23" t="n">
         <f aca="false">G47*H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26" t="n">
+      <c r="J47" s="23"/>
+      <c r="K47" s="23" t="n">
         <f aca="false">I47+J47</f>
         <v>0</v>
       </c>
-      <c r="L47" s="26"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26" t="n">
+      <c r="D48" s="23"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23" t="n">
         <f aca="false">G48*H48</f>
         <v>0</v>
       </c>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26" t="n">
+      <c r="J48" s="23"/>
+      <c r="K48" s="23" t="n">
         <f aca="false">I48+J48</f>
         <v>0</v>
       </c>
-      <c r="L48" s="26"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26" t="n">
+      <c r="D49" s="23"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23" t="n">
         <f aca="false">G49*H49</f>
         <v>0</v>
       </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26" t="n">
+      <c r="J49" s="23"/>
+      <c r="K49" s="23" t="n">
         <f aca="false">I49+J49</f>
         <v>0</v>
       </c>
-      <c r="L49" s="26"/>
+      <c r="L49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26" t="n">
+      <c r="D50" s="23"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23" t="n">
         <f aca="false">G50*H50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26" t="n">
+      <c r="J50" s="23"/>
+      <c r="K50" s="23" t="n">
         <f aca="false">I50+J50</f>
         <v>0</v>
       </c>
-      <c r="L50" s="26"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26" t="n">
+      <c r="D51" s="23"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23" t="n">
         <f aca="false">G51*H51</f>
         <v>0</v>
       </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26" t="n">
+      <c r="J51" s="23"/>
+      <c r="K51" s="23" t="n">
         <f aca="false">I51+J51</f>
         <v>0</v>
       </c>
-      <c r="L51" s="26"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26" t="n">
+      <c r="D52" s="23"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23" t="n">
         <f aca="false">G52*H52</f>
         <v>0</v>
       </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26" t="n">
+      <c r="J52" s="23"/>
+      <c r="K52" s="23" t="n">
         <f aca="false">I52+J52</f>
         <v>0</v>
       </c>
-      <c r="L52" s="26"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26" t="n">
+      <c r="D53" s="23"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23" t="n">
         <f aca="false">G53*H53</f>
         <v>0</v>
       </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26" t="n">
+      <c r="J53" s="23"/>
+      <c r="K53" s="23" t="n">
         <f aca="false">I53+J53</f>
         <v>0</v>
       </c>
-      <c r="L53" s="26"/>
+      <c r="L53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26" t="n">
+      <c r="D54" s="23"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23" t="n">
         <f aca="false">G54*H54</f>
         <v>0</v>
       </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26" t="n">
+      <c r="J54" s="23"/>
+      <c r="K54" s="23" t="n">
         <f aca="false">I54+J54</f>
         <v>0</v>
       </c>
-      <c r="L54" s="26"/>
+      <c r="L54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26" t="n">
+      <c r="D55" s="23"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23" t="n">
         <f aca="false">G55*H55</f>
         <v>0</v>
       </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26" t="n">
+      <c r="J55" s="23"/>
+      <c r="K55" s="23" t="n">
         <f aca="false">I55+J55</f>
         <v>0</v>
       </c>
-      <c r="L55" s="26"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26" t="n">
+      <c r="D56" s="23"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23" t="n">
         <f aca="false">G56*H56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26" t="n">
+      <c r="J56" s="23"/>
+      <c r="K56" s="23" t="n">
         <f aca="false">I56+J56</f>
         <v>0</v>
       </c>
-      <c r="L56" s="26"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26" t="n">
+      <c r="D57" s="23"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23" t="n">
         <f aca="false">G57*H57</f>
         <v>0</v>
       </c>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26" t="n">
+      <c r="J57" s="23"/>
+      <c r="K57" s="23" t="n">
         <f aca="false">I57+J57</f>
         <v>0</v>
       </c>
-      <c r="L57" s="26"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26" t="n">
+      <c r="D58" s="23"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23" t="n">
         <f aca="false">G58*H58</f>
         <v>0</v>
       </c>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26" t="n">
+      <c r="J58" s="23"/>
+      <c r="K58" s="23" t="n">
         <f aca="false">I58+J58</f>
         <v>0</v>
       </c>
-      <c r="L58" s="26"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26" t="n">
+      <c r="D59" s="23"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23" t="n">
         <f aca="false">G59*H59</f>
         <v>0</v>
       </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26" t="n">
+      <c r="J59" s="23"/>
+      <c r="K59" s="23" t="n">
         <f aca="false">I59+J59</f>
         <v>0</v>
       </c>
-      <c r="L59" s="26"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26" t="n">
+      <c r="D60" s="23"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23" t="n">
         <f aca="false">G60*H60</f>
         <v>0</v>
       </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26" t="n">
+      <c r="J60" s="23"/>
+      <c r="K60" s="23" t="n">
         <f aca="false">I60+J60</f>
         <v>0</v>
       </c>
-      <c r="L60" s="26"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26" t="n">
+      <c r="D61" s="23"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23" t="n">
         <f aca="false">G61*H61</f>
         <v>0</v>
       </c>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26" t="n">
+      <c r="J61" s="23"/>
+      <c r="K61" s="23" t="n">
         <f aca="false">I61+J61</f>
         <v>0</v>
       </c>
-      <c r="L61" s="26"/>
+      <c r="L61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26" t="n">
+      <c r="D62" s="23"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23" t="n">
         <f aca="false">G62*H62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26" t="n">
+      <c r="J62" s="23"/>
+      <c r="K62" s="23" t="n">
         <f aca="false">I62+J62</f>
         <v>0</v>
       </c>
-      <c r="L62" s="26"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26" t="n">
+      <c r="D63" s="23"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23" t="n">
         <f aca="false">G63*H63</f>
         <v>0</v>
       </c>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26" t="n">
+      <c r="J63" s="23"/>
+      <c r="K63" s="23" t="n">
         <f aca="false">I63+J63</f>
         <v>0</v>
       </c>
-      <c r="L63" s="26"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="24" t="n">
         <v>46006</v>
       </c>
       <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26" t="n">
+      <c r="D64" s="23"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23" t="n">
         <f aca="false">G64*H64</f>
         <v>0</v>
       </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26" t="n">
+      <c r="J64" s="23"/>
+      <c r="K64" s="23" t="n">
         <f aca="false">I64+J64</f>
         <v>0</v>
       </c>
-      <c r="L64" s="26"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26" t="n">
+      <c r="D65" s="23"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23" t="n">
         <f aca="false">G65*H65</f>
         <v>0</v>
       </c>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26" t="n">
+      <c r="J65" s="23"/>
+      <c r="K65" s="23" t="n">
         <f aca="false">I65+J65</f>
         <v>0</v>
       </c>
-      <c r="L65" s="26"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26" t="n">
+      <c r="D66" s="23"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23" t="n">
         <f aca="false">G66*H66</f>
         <v>0</v>
       </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26" t="n">
+      <c r="J66" s="23"/>
+      <c r="K66" s="23" t="n">
         <f aca="false">I66+J66</f>
         <v>0</v>
       </c>
-      <c r="L66" s="26"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26" t="n">
+      <c r="D67" s="23"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23" t="n">
         <f aca="false">G67*H67</f>
         <v>0</v>
       </c>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26" t="n">
+      <c r="J67" s="23"/>
+      <c r="K67" s="23" t="n">
         <f aca="false">I67+J67</f>
         <v>0</v>
       </c>
-      <c r="L67" s="26"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="24" t="n">
         <v>46010</v>
       </c>
       <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26" t="n">
+      <c r="D68" s="23"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23" t="n">
         <f aca="false">G68*H68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26" t="n">
+      <c r="J68" s="23"/>
+      <c r="K68" s="23" t="n">
         <f aca="false">I68+J68</f>
         <v>0</v>
       </c>
-      <c r="L68" s="26"/>
+      <c r="L68" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C15"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -1143,8 +1143,8 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1546,19 +1546,19 @@
         <v>38</v>
       </c>
       <c r="G11" s="9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="9" t="n">
         <v>5</v>
       </c>
       <c r="I11" s="9" t="n">
         <f aca="false">G11*H11</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="n">
         <f aca="false">I11+J11</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>66</v>
@@ -1584,19 +1584,19 @@
         <v>38</v>
       </c>
       <c r="G12" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>5</v>
       </c>
       <c r="I12" s="9" t="n">
         <f aca="false">G12*H12</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="n">
         <f aca="false">I12+J12</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>66</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -13,7 +13,7 @@
     <sheet name="doacoes_registros" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">doacoes_registros!$C$1:$C$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">doacoes_registros!$C$1:$C$43</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">participantes!$A$1:$B$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="73">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -646,7 +646,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1141,10 +1141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1989,7 +1989,7 @@
       <c r="B23" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -2024,200 +2024,354 @@
       <c r="A24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I24" s="9" t="n">
         <f aca="false">G24*H24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9" t="n">
         <f aca="false">I24+J24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I25" s="9" t="n">
         <f aca="false">G25*H25</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9" t="n">
         <f aca="false">I25+J25</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I26" s="9" t="n">
         <f aca="false">G26*H26</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9" t="n">
         <f aca="false">I26+J26</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I27" s="9" t="n">
         <f aca="false">G27*H27</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9" t="n">
         <f aca="false">I27+J27</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I28" s="9" t="n">
         <f aca="false">G28*H28</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9" t="n">
         <f aca="false">I28+J28</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I29" s="9" t="n">
         <f aca="false">G29*H29</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9" t="n">
         <f aca="false">I29+J29</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="B30" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I30" s="9" t="n">
         <f aca="false">G30*H30</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9" t="n">
         <f aca="false">I30+J30</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I31" s="9" t="n">
         <f aca="false">G31*H31</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="n">
         <f aca="false">I31+J31</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="B32" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I32" s="9" t="n">
         <f aca="false">G32*H32</f>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9" t="n">
         <f aca="false">I32+J32</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9" t="n">
@@ -2235,11 +2389,12 @@
       <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="12"/>
+      <c r="B34" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="n">
@@ -2257,11 +2412,12 @@
       <c r="A35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="12"/>
+      <c r="B35" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="n">
@@ -2277,13 +2433,14 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9" t="n">
@@ -2299,13 +2456,14 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9" t="n">
@@ -2321,13 +2479,14 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9" t="n">
@@ -2343,13 +2502,14 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="n">
@@ -2365,13 +2525,14 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9" t="n">
@@ -2387,12 +2548,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="17"/>
       <c r="F41" s="12"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2409,12 +2571,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="17"/>
       <c r="F42" s="12"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2431,12 +2594,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45960</v>
+      </c>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="17"/>
       <c r="F43" s="12"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2453,12 +2617,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45960</v>
+      </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="17"/>
       <c r="F44" s="12"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -2475,9 +2640,11 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45960</v>
+      </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="17"/>
@@ -2497,7 +2664,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -2519,7 +2686,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -2585,11 +2752,9 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="10" t="n">
-        <v>45976</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
@@ -2609,7 +2774,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -2631,7 +2796,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -2653,7 +2818,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -2675,7 +2840,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -2697,7 +2862,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -2719,7 +2884,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -2741,7 +2906,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -2763,7 +2928,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -2785,7 +2950,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -2807,7 +2972,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -2829,7 +2994,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -2853,7 +3018,9 @@
       <c r="A62" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="10" t="n">
+        <v>45976</v>
+      </c>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
@@ -2939,7 +3106,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
@@ -2961,7 +3128,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
@@ -2983,7 +3150,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
@@ -3005,7 +3172,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
@@ -3027,7 +3194,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
@@ -3049,7 +3216,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
@@ -3071,7 +3238,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
@@ -3093,7 +3260,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -3115,7 +3282,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
@@ -3137,7 +3304,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
@@ -3159,7 +3326,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
@@ -3181,7 +3348,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
@@ -3247,11 +3414,9 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="10" t="n">
-        <v>46006</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="12"/>
       <c r="E80" s="17"/>
@@ -3271,7 +3436,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
@@ -3293,7 +3458,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
@@ -3315,7 +3480,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
@@ -3337,11 +3502,9 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="10" t="n">
-        <v>46010</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B84" s="10"/>
       <c r="C84" s="11"/>
       <c r="D84" s="12"/>
       <c r="E84" s="17"/>
@@ -3359,8 +3522,276 @@
       </c>
       <c r="L84" s="9"/>
     </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="n">
+        <f aca="false">G85*H85</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9" t="n">
+        <f aca="false">I85+J85</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9" t="n">
+        <f aca="false">G86*H86</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9" t="n">
+        <f aca="false">I86+J86</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="n">
+        <f aca="false">G87*H87</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9" t="n">
+        <f aca="false">I87+J87</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="n">
+        <f aca="false">G88*H88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9" t="n">
+        <f aca="false">I88+J88</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="n">
+        <f aca="false">G89*H89</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9" t="n">
+        <f aca="false">I89+J89</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9" t="n">
+        <f aca="false">G90*H90</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9" t="n">
+        <f aca="false">I90+J90</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="n">
+        <f aca="false">G91*H91</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9" t="n">
+        <f aca="false">I91+J91</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="n">
+        <f aca="false">G92*H92</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9" t="n">
+        <f aca="false">I92+J92</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="n">
+        <f aca="false">G93*H93</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9" t="n">
+        <f aca="false">I93+J93</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9" t="n">
+        <f aca="false">G94*H94</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9" t="n">
+        <f aca="false">I94+J94</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9" t="n">
+        <f aca="false">G95*H95</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9" t="n">
+        <f aca="false">I95+J95</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="n">
+        <f aca="false">G96*H96</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9" t="n">
+        <f aca="false">I96+J96</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C31"/>
+  <autoFilter ref="C1:C43"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="75">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -160,6 +160,9 @@
     <t xml:space="preserve">Itens lavados/organizados</t>
   </si>
   <si>
+    <t xml:space="preserve">Calçados</t>
+  </si>
+  <si>
     <t xml:space="preserve">Par de calçados</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">brinquedos usados –10 kits de brinquedos pequenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brinquedos usados – triciclo</t>
   </si>
   <si>
     <t xml:space="preserve">2ºSPRINT</t>
@@ -349,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +430,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -645,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,7 +902,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -987,10 +997,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -1007,10 +1017,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
@@ -1019,7 +1029,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>60</v>
@@ -1027,10 +1037,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>10</v>
@@ -1039,7 +1049,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>60</v>
@@ -1047,10 +1057,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -1059,7 +1069,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>20</v>
@@ -1067,10 +1077,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
@@ -1079,7 +1089,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>20</v>
@@ -1087,10 +1097,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4</v>
@@ -1099,7 +1109,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>30</v>
@@ -1107,10 +1117,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6</v>
@@ -1119,7 +1129,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>30</v>
@@ -1143,8 +1153,8 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1163,10 +1173,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1181,27 +1191,27 @@
         <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>45944</v>
@@ -1224,7 +1234,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>45957</v>
@@ -1257,12 +1267,12 @@
         <v>220</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>45957</v>
@@ -1274,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>24</v>
@@ -1295,12 +1305,12 @@
         <v>96</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>45958</v>
@@ -1333,12 +1343,12 @@
         <v>45</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>45958</v>
@@ -1371,12 +1381,12 @@
         <v>45</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>45958</v>
@@ -1409,12 +1419,12 @@
         <v>45</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>45958</v>
@@ -1447,12 +1457,12 @@
         <v>45</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>45958</v>
@@ -1485,12 +1495,12 @@
         <v>45</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>45958</v>
@@ -1523,12 +1533,12 @@
         <v>45</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>45958</v>
@@ -1561,12 +1571,12 @@
         <v>35</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>45958</v>
@@ -1599,12 +1609,12 @@
         <v>45</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>45958</v>
@@ -1637,12 +1647,12 @@
         <v>45</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>45959</v>
@@ -1675,12 +1685,12 @@
         <v>165</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>45959</v>
@@ -1713,12 +1723,12 @@
         <v>30</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>45959</v>
@@ -1751,12 +1761,12 @@
         <v>50</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>45959</v>
@@ -1789,12 +1799,12 @@
         <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>45959</v>
@@ -1827,12 +1837,12 @@
         <v>15</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>45959</v>
@@ -1865,12 +1875,12 @@
         <v>57</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>45959</v>
@@ -1903,12 +1913,12 @@
         <v>5</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>45959</v>
@@ -1941,12 +1951,12 @@
         <v>33</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>45959</v>
@@ -1979,12 +1989,12 @@
         <v>50</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>45959</v>
@@ -2017,12 +2027,12 @@
         <v>50</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>45960</v>
@@ -2055,12 +2065,12 @@
         <v>3</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>45960</v>
@@ -2093,12 +2103,12 @@
         <v>114</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>45960</v>
@@ -2131,12 +2141,12 @@
         <v>24</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>45960</v>
@@ -2169,12 +2179,12 @@
         <v>30</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>45960</v>
@@ -2207,12 +2217,12 @@
         <v>45</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>45960</v>
@@ -2245,12 +2255,12 @@
         <v>24</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>45960</v>
@@ -2283,12 +2293,12 @@
         <v>40</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>45960</v>
@@ -2321,17 +2331,17 @@
         <v>40</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2359,223 +2369,356 @@
         <v>135</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I33" s="9" t="n">
         <f aca="false">G33*H33</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9" t="n">
         <f aca="false">I33+J33</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I34" s="9" t="n">
         <f aca="false">G34*H34</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="n">
         <f aca="false">I34+J34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I35" s="9" t="n">
         <f aca="false">G35*H35</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9" t="n">
         <f aca="false">I35+J35</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I36" s="9" t="n">
         <f aca="false">G36*H36</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="n">
         <f aca="false">I36+J36</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I37" s="9" t="n">
         <f aca="false">G37*H37</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9" t="n">
         <f aca="false">I37+J37</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I38" s="9" t="n">
         <f aca="false">G38*H38</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9" t="n">
         <f aca="false">I38+J38</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I39" s="9" t="n">
         <f aca="false">G39*H39</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9" t="n">
         <f aca="false">I39+J39</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I40" s="9" t="n">
         <f aca="false">G40*H40</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9" t="n">
         <f aca="false">I40+J40</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" s="10" t="n">
-        <v>45960</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+        <v>45961</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I41" s="9" t="n">
         <f aca="false">G41*H41</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9" t="n">
         <f aca="false">I41+J41</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="10" t="n">
-        <v>45960</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
       <c r="F42" s="12"/>
@@ -2594,11 +2737,9 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="10" t="n">
-        <v>45960</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="F43" s="12"/>
@@ -2617,11 +2758,9 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="10" t="n">
-        <v>45960</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="F44" s="12"/>
@@ -2640,11 +2779,9 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="10" t="n">
-        <v>45960</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="17"/>
@@ -2664,7 +2801,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -2686,7 +2823,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -2708,7 +2845,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -2730,7 +2867,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -2752,7 +2889,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
@@ -2774,7 +2911,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -2796,7 +2933,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -2818,7 +2955,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -2840,7 +2977,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -2862,7 +2999,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -2884,7 +3021,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -2906,7 +3043,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -2928,7 +3065,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -2950,7 +3087,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -2972,7 +3109,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -2994,7 +3131,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -3016,7 +3153,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>45976</v>
@@ -3040,7 +3177,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
@@ -3062,7 +3199,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -3084,7 +3221,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -3106,7 +3243,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
@@ -3128,7 +3265,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
@@ -3150,7 +3287,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
@@ -3172,7 +3309,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
@@ -3194,7 +3331,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
@@ -3216,7 +3353,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
@@ -3238,7 +3375,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
@@ -3260,7 +3397,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -3282,7 +3419,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
@@ -3304,7 +3441,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
@@ -3326,7 +3463,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
@@ -3348,7 +3485,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
@@ -3370,7 +3507,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
@@ -3392,7 +3529,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
@@ -3414,7 +3551,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
@@ -3436,7 +3573,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
@@ -3458,7 +3595,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
@@ -3480,7 +3617,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
@@ -3502,7 +3639,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
@@ -3524,7 +3661,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
@@ -3546,7 +3683,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
@@ -3568,7 +3705,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
@@ -3590,7 +3727,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -3612,7 +3749,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -3634,7 +3771,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -3656,7 +3793,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -3678,7 +3815,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B92" s="10" t="n">
         <v>46006</v>
@@ -3702,7 +3839,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -3724,7 +3861,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -3746,7 +3883,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -3768,7 +3905,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B96" s="10" t="n">
         <v>46010</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -13,7 +13,7 @@
     <sheet name="doacoes_registros" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">doacoes_registros!$C$1:$C$43</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">doacoes_registros!$C$1:$C$71</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">participantes!$A$1:$B$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="80">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -202,6 +202,12 @@
     <t xml:space="preserve">Pacote de fraldas</t>
   </si>
   <si>
+    <t xml:space="preserve">Desafio surpresa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontos Extras-Foto Oficial na FIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPRINT</t>
   </si>
   <si>
@@ -242,6 +248,15 @@
   </si>
   <si>
     <t xml:space="preserve">brinquedos usados – triciclo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brinquedos usados – cavalinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brinquedos usados – velocípede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foto na ExpoFecomercio – FIC</t>
   </si>
   <si>
     <t xml:space="preserve">2ºSPRINT</t>
@@ -355,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,10 +445,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -655,8 +666,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,16 +910,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.35"/>
@@ -1133,6 +1144,20 @@
       </c>
       <c r="F11" s="2" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1151,10 +1176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,7 +1189,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="23.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="2" width="23.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="69.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="13" style="2" width="8.59"/>
@@ -1173,10 +1198,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1191,27 +1216,27 @@
         <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>45944</v>
@@ -1234,7 +1259,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>45957</v>
@@ -1267,12 +1292,12 @@
         <v>220</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>45957</v>
@@ -1305,12 +1330,12 @@
         <v>96</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>45958</v>
@@ -1343,12 +1368,12 @@
         <v>45</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>45958</v>
@@ -1381,12 +1406,12 @@
         <v>45</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>45958</v>
@@ -1419,12 +1444,12 @@
         <v>45</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>45958</v>
@@ -1457,12 +1482,12 @@
         <v>45</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>45958</v>
@@ -1495,12 +1520,12 @@
         <v>45</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>45958</v>
@@ -1533,12 +1558,12 @@
         <v>45</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>45958</v>
@@ -1571,12 +1596,12 @@
         <v>35</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>45958</v>
@@ -1609,12 +1634,12 @@
         <v>45</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>45958</v>
@@ -1647,12 +1672,12 @@
         <v>45</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>45959</v>
@@ -1685,12 +1710,12 @@
         <v>165</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>45959</v>
@@ -1723,12 +1748,12 @@
         <v>30</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>45959</v>
@@ -1761,12 +1786,12 @@
         <v>50</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>45959</v>
@@ -1799,12 +1824,12 @@
         <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>45959</v>
@@ -1837,12 +1862,12 @@
         <v>15</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>45959</v>
@@ -1875,12 +1900,12 @@
         <v>57</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>45959</v>
@@ -1913,12 +1938,12 @@
         <v>5</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>45959</v>
@@ -1951,12 +1976,12 @@
         <v>33</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>45959</v>
@@ -1989,12 +2014,12 @@
         <v>50</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>45959</v>
@@ -2027,12 +2052,12 @@
         <v>50</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>45960</v>
@@ -2065,12 +2090,12 @@
         <v>3</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>45960</v>
@@ -2103,12 +2128,12 @@
         <v>114</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>45960</v>
@@ -2141,12 +2166,12 @@
         <v>24</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>45960</v>
@@ -2179,12 +2204,12 @@
         <v>30</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>45960</v>
@@ -2217,12 +2242,12 @@
         <v>45</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>45960</v>
@@ -2255,12 +2280,12 @@
         <v>24</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>45960</v>
@@ -2293,12 +2318,12 @@
         <v>40</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>45960</v>
@@ -2331,12 +2356,12 @@
         <v>40</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>45960</v>
@@ -2369,12 +2394,12 @@
         <v>135</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>45961</v>
@@ -2407,12 +2432,12 @@
         <v>15</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>45961</v>
@@ -2445,12 +2470,12 @@
         <v>27</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>45961</v>
@@ -2483,12 +2508,12 @@
         <v>60</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>45961</v>
@@ -2521,12 +2546,12 @@
         <v>60</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>45961</v>
@@ -2559,12 +2584,12 @@
         <v>12</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>45961</v>
@@ -2597,12 +2622,12 @@
         <v>60</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>45961</v>
@@ -2640,7 +2665,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>45961</v>
@@ -2676,9 +2701,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>45961</v>
@@ -2686,7 +2711,7 @@
       <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
@@ -2711,671 +2736,1152 @@
         <v>63</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H42" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I42" s="9" t="n">
         <f aca="false">G42*H42</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="n">
         <f aca="false">I42+J42</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I43" s="9" t="n">
         <f aca="false">G43*H43</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9" t="n">
         <f aca="false">I43+J43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I44" s="9" t="n">
         <f aca="false">G44*H44</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9" t="n">
         <f aca="false">I44+J44</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I45" s="9" t="n">
         <f aca="false">G45*H45</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9" t="n">
         <f aca="false">I45+J45</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I46" s="9" t="n">
         <f aca="false">G46*H46</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9" t="n">
         <f aca="false">I46+J46</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I47" s="9" t="n">
         <f aca="false">G47*H47</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9" t="n">
         <f aca="false">I47+J47</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I48" s="9" t="n">
         <f aca="false">G48*H48</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9" t="n">
         <f aca="false">I48+J48</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I49" s="9" t="n">
         <f aca="false">G49*H49</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9" t="n">
         <f aca="false">I49+J49</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I50" s="9" t="n">
         <f aca="false">G50*H50</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9" t="n">
         <f aca="false">I50+J50</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I51" s="9" t="n">
         <f aca="false">G51*H51</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9" t="n">
         <f aca="false">I51+J51</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I52" s="9" t="n">
         <f aca="false">G52*H52</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9" t="n">
         <f aca="false">I52+J52</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I53" s="9" t="n">
         <f aca="false">G53*H53</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="n">
         <f aca="false">I53+J53</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I54" s="9" t="n">
         <f aca="false">G54*H54</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="n">
         <f aca="false">I54+J54</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I55" s="9" t="n">
         <f aca="false">G55*H55</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9" t="n">
         <f aca="false">I55+J55</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I56" s="9" t="n">
         <f aca="false">G56*H56</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="9" t="n">
         <f aca="false">I56+J56</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I57" s="9" t="n">
         <f aca="false">G57*H57</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9" t="n">
         <f aca="false">I57+J57</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I58" s="9" t="n">
         <f aca="false">G58*H58</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9" t="n">
         <f aca="false">I58+J58</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I59" s="9" t="n">
         <f aca="false">G59*H59</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="9" t="n">
         <f aca="false">I59+J59</f>
-        <v>0</v>
-      </c>
-      <c r="L59" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I60" s="9" t="n">
         <f aca="false">G60*H60</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="9" t="n">
         <f aca="false">I60+J60</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I61" s="9" t="n">
         <f aca="false">G61*H61</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="9" t="n">
         <f aca="false">I61+J61</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B62" s="10" t="n">
-        <v>45976</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+        <v>45964</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I62" s="9" t="n">
         <f aca="false">G62*H62</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9" t="n">
         <f aca="false">I62+J62</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I63" s="9" t="n">
         <f aca="false">G63*H63</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="9" t="n">
         <f aca="false">I63+J63</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I64" s="9" t="n">
         <f aca="false">G64*H64</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9" t="n">
         <f aca="false">I64+J64</f>
-        <v>0</v>
-      </c>
-      <c r="L64" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I65" s="9" t="n">
         <f aca="false">G65*H65</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9" t="n">
         <f aca="false">I65+J65</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I66" s="9" t="n">
         <f aca="false">G66*H66</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="9" t="n">
         <f aca="false">I66+J66</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I67" s="9" t="n">
         <f aca="false">G67*H67</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9" t="n">
         <f aca="false">I67+J67</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I68" s="9" t="n">
         <f aca="false">G68*H68</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9" t="n">
         <f aca="false">I68+J68</f>
-        <v>0</v>
-      </c>
-      <c r="L68" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I69" s="9" t="n">
         <f aca="false">G69*H69</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9" t="n">
         <f aca="false">I69+J69</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I70" s="9" t="n">
         <f aca="false">G70*H70</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="9" t="n">
         <f aca="false">I70+J70</f>
-        <v>0</v>
-      </c>
-      <c r="L70" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I71" s="9" t="n">
         <f aca="false">G71*H71</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="9" t="n">
         <f aca="false">I71+J71</f>
-        <v>0</v>
-      </c>
-      <c r="L71" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
@@ -3397,7 +3903,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
@@ -3419,7 +3925,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
@@ -3441,7 +3947,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="11"/>
@@ -3463,7 +3969,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
@@ -3485,7 +3991,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
@@ -3683,9 +4189,11 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45976</v>
+      </c>
       <c r="C86" s="11"/>
       <c r="D86" s="12"/>
       <c r="E86" s="17"/>
@@ -3705,7 +4213,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
@@ -3727,7 +4235,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -3749,7 +4257,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -3771,7 +4279,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -3793,7 +4301,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -3815,11 +4323,9 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="10" t="n">
-        <v>46006</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="17"/>
@@ -3839,7 +4345,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -3861,7 +4367,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -3883,7 +4389,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -3905,11 +4411,9 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="10" t="n">
-        <v>46010</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B96" s="10"/>
       <c r="C96" s="11"/>
       <c r="D96" s="12"/>
       <c r="E96" s="17"/>
@@ -3927,8 +4431,540 @@
       </c>
       <c r="L96" s="9"/>
     </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="n">
+        <f aca="false">G97*H97</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9" t="n">
+        <f aca="false">I97+J97</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="n">
+        <f aca="false">G98*H98</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9" t="n">
+        <f aca="false">I98+J98</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="n">
+        <f aca="false">G99*H99</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9" t="n">
+        <f aca="false">I99+J99</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="n">
+        <f aca="false">G100*H100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9" t="n">
+        <f aca="false">I100+J100</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="n">
+        <f aca="false">G101*H101</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9" t="n">
+        <f aca="false">I101+J101</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="n">
+        <f aca="false">G102*H102</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9" t="n">
+        <f aca="false">I102+J102</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="n">
+        <f aca="false">G103*H103</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9" t="n">
+        <f aca="false">I103+J103</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="n">
+        <f aca="false">G104*H104</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9" t="n">
+        <f aca="false">I104+J104</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="n">
+        <f aca="false">G105*H105</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9" t="n">
+        <f aca="false">I105+J105</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="n">
+        <f aca="false">G106*H106</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9" t="n">
+        <f aca="false">I106+J106</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="n">
+        <f aca="false">G107*H107</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9" t="n">
+        <f aca="false">I107+J107</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="n">
+        <f aca="false">G108*H108</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9" t="n">
+        <f aca="false">I108+J108</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9" t="n">
+        <f aca="false">G109*H109</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9" t="n">
+        <f aca="false">I109+J109</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="n">
+        <f aca="false">G110*H110</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9" t="n">
+        <f aca="false">I110+J110</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="n">
+        <f aca="false">G111*H111</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9" t="n">
+        <f aca="false">I111+J111</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9" t="n">
+        <f aca="false">G112*H112</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9" t="n">
+        <f aca="false">I112+J112</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="n">
+        <f aca="false">G113*H113</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9" t="n">
+        <f aca="false">I113+J113</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="n">
+        <f aca="false">G114*H114</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9" t="n">
+        <f aca="false">I114+J114</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9" t="n">
+        <f aca="false">G115*H115</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9" t="n">
+        <f aca="false">I115+J115</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9" t="n">
+        <f aca="false">G116*H116</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9" t="n">
+        <f aca="false">I116+J116</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="n">
+        <f aca="false">G117*H117</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9" t="n">
+        <f aca="false">I117+J117</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9" t="n">
+        <f aca="false">G118*H118</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9" t="n">
+        <f aca="false">I118+J118</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="n">
+        <f aca="false">G119*H119</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9" t="n">
+        <f aca="false">I119+J119</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="n">
+        <f aca="false">G120*H120</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9" t="n">
+        <f aca="false">I120+J120</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C1:C43"/>
+  <autoFilter ref="C1:C71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="80">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -667,7 +667,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1176,10 +1176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3881,25 +3881,41 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>45964</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="I72" s="9" t="n">
         <f aca="false">G72*H72</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="9" t="n">
         <f aca="false">I72+J72</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
@@ -4189,11 +4205,9 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="10" t="n">
-        <v>45976</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B86" s="10"/>
       <c r="C86" s="11"/>
       <c r="D86" s="12"/>
       <c r="E86" s="17"/>
@@ -4215,7 +4229,9 @@
       <c r="A87" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="10"/>
+      <c r="B87" s="10" t="n">
+        <v>45976</v>
+      </c>
       <c r="C87" s="11"/>
       <c r="D87" s="12"/>
       <c r="E87" s="17"/>
@@ -4543,7 +4559,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
@@ -4851,11 +4867,9 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="10" t="n">
-        <v>46006</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="12"/>
       <c r="E116" s="17"/>
@@ -4877,7 +4891,9 @@
       <c r="A117" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="10"/>
+      <c r="B117" s="10" t="n">
+        <v>46006</v>
+      </c>
       <c r="C117" s="11"/>
       <c r="D117" s="12"/>
       <c r="E117" s="17"/>
@@ -4941,11 +4957,9 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B120" s="10" t="n">
-        <v>46010</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="12"/>
       <c r="E120" s="17"/>
@@ -4962,6 +4976,30 @@
         <v>0</v>
       </c>
       <c r="L120" s="9"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9" t="n">
+        <f aca="false">G121*H121</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9" t="n">
+        <f aca="false">I121+J121</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C71"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="82">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t xml:space="preserve">Foto na ExpoFecomercio – FIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calçados – chinelos infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas – infantil</t>
   </si>
   <si>
     <t xml:space="preserve">2ºSPRINT</t>
@@ -913,7 +919,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2642,7 +2648,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>5</v>
@@ -2679,8 +2685,8 @@
       <c r="E40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>40</v>
+      <c r="F40" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>2</v>
@@ -3135,8 +3141,8 @@
       <c r="E52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>40</v>
+      <c r="F52" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G52" s="9" t="n">
         <v>3</v>
@@ -3921,67 +3927,115 @@
       <c r="A73" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+      <c r="B73" s="10" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I73" s="9" t="n">
         <f aca="false">G73*H73</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="9" t="n">
         <f aca="false">I73+J73</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="B74" s="10" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I74" s="9" t="n">
         <f aca="false">G74*H74</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J74" s="9"/>
       <c r="K74" s="9" t="n">
         <f aca="false">I74+J74</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="B75" s="10" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H75" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I75" s="9" t="n">
         <f aca="false">G75*H75</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="9" t="n">
         <f aca="false">I75+J75</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
@@ -3990,8 +4044,8 @@
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="12"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9" t="n">
@@ -4227,7 +4281,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" s="10" t="n">
         <v>45976</v>
@@ -4251,7 +4305,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -4273,7 +4327,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -4295,7 +4349,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -4317,7 +4371,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -4339,7 +4393,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
@@ -4361,7 +4415,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -4383,7 +4437,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -4405,7 +4459,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -4427,7 +4481,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
@@ -4449,7 +4503,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
@@ -4471,7 +4525,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
@@ -4493,7 +4547,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
@@ -4515,7 +4569,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
@@ -4537,7 +4591,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
@@ -4559,7 +4613,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
@@ -4889,7 +4943,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B117" s="10" t="n">
         <v>46006</v>
@@ -4913,7 +4967,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
@@ -4935,7 +4989,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
@@ -4957,7 +5011,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
@@ -4979,7 +5033,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B121" s="10" t="n">
         <v>46010</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -208,6 +208,9 @@
     <t xml:space="preserve">Pontos Extras-Foto Oficial na FIC</t>
   </si>
   <si>
+    <t xml:space="preserve">Outras doações</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPRINT</t>
   </si>
   <si>
@@ -265,7 +268,28 @@
     <t xml:space="preserve">Roupas – infantil</t>
   </si>
   <si>
+    <t xml:space="preserve">Roupas </t>
+  </si>
+  <si>
     <t xml:space="preserve">2ºSPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calçados – infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros – Berços Moises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros – bolsas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros – toalhas diversas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros – Decoração quarto de criança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros – travesseiros de criança</t>
   </si>
   <si>
     <t xml:space="preserve">3ºSPRINT</t>
@@ -328,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -347,6 +371,20 @@
       <left/>
       <right/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -376,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,6 +488,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,7 +718,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -916,10 +962,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,6 +1210,17 @@
       </c>
       <c r="D12" s="2" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1182,10 +1239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,10 +1261,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1222,27 +1279,27 @@
         <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>45944</v>
@@ -1265,7 +1322,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>45957</v>
@@ -1298,12 +1355,12 @@
         <v>220</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>45957</v>
@@ -1336,12 +1393,12 @@
         <v>96</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>45958</v>
@@ -1374,12 +1431,12 @@
         <v>45</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>45958</v>
@@ -1412,12 +1469,12 @@
         <v>45</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>45958</v>
@@ -1450,12 +1507,12 @@
         <v>45</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>45958</v>
@@ -1488,12 +1545,12 @@
         <v>45</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>45958</v>
@@ -1526,12 +1583,12 @@
         <v>45</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>45958</v>
@@ -1564,12 +1621,12 @@
         <v>45</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>45958</v>
@@ -1602,12 +1659,12 @@
         <v>35</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>45958</v>
@@ -1640,12 +1697,12 @@
         <v>45</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>45958</v>
@@ -1678,12 +1735,12 @@
         <v>45</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>45959</v>
@@ -1716,12 +1773,12 @@
         <v>165</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>45959</v>
@@ -1754,12 +1811,12 @@
         <v>30</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>45959</v>
@@ -1792,12 +1849,12 @@
         <v>50</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>45959</v>
@@ -1830,12 +1887,12 @@
         <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>45959</v>
@@ -1868,12 +1925,12 @@
         <v>15</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>45959</v>
@@ -1906,12 +1963,12 @@
         <v>57</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>45959</v>
@@ -1944,12 +2001,12 @@
         <v>5</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>45959</v>
@@ -1982,12 +2039,12 @@
         <v>33</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>45959</v>
@@ -2020,12 +2077,12 @@
         <v>50</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>45959</v>
@@ -2058,12 +2115,12 @@
         <v>50</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>45960</v>
@@ -2096,12 +2153,12 @@
         <v>3</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>45960</v>
@@ -2134,12 +2191,12 @@
         <v>114</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>45960</v>
@@ -2172,12 +2229,12 @@
         <v>24</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>45960</v>
@@ -2210,12 +2267,12 @@
         <v>30</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>45960</v>
@@ -2248,12 +2305,12 @@
         <v>45</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>45960</v>
@@ -2286,12 +2343,12 @@
         <v>24</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>45960</v>
@@ -2324,12 +2381,12 @@
         <v>40</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>45960</v>
@@ -2362,12 +2419,12 @@
         <v>40</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>45960</v>
@@ -2400,12 +2457,12 @@
         <v>135</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>45961</v>
@@ -2438,12 +2495,12 @@
         <v>15</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>45961</v>
@@ -2476,12 +2533,12 @@
         <v>27</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>45961</v>
@@ -2514,12 +2571,12 @@
         <v>60</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>45961</v>
@@ -2552,12 +2609,12 @@
         <v>60</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>45961</v>
@@ -2590,12 +2647,12 @@
         <v>12</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>45961</v>
@@ -2628,12 +2685,12 @@
         <v>60</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>45961</v>
@@ -2671,7 +2728,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>45961</v>
@@ -2709,7 +2766,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>45961</v>
@@ -2742,12 +2799,12 @@
         <v>63</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>45964</v>
@@ -2780,12 +2837,12 @@
         <v>63</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="10" t="n">
         <v>45964</v>
@@ -2818,12 +2875,12 @@
         <v>60</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="10" t="n">
         <v>45964</v>
@@ -2856,12 +2913,12 @@
         <v>60</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="10" t="n">
         <v>45964</v>
@@ -2894,12 +2951,12 @@
         <v>60</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>45964</v>
@@ -2932,12 +2989,12 @@
         <v>60</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>45964</v>
@@ -2970,12 +3027,12 @@
         <v>150</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>45964</v>
@@ -3008,12 +3065,12 @@
         <v>60</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="10" t="n">
         <v>45964</v>
@@ -3046,12 +3103,12 @@
         <v>60</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>45964</v>
@@ -3084,12 +3141,12 @@
         <v>60</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="10" t="n">
         <v>45964</v>
@@ -3122,12 +3179,12 @@
         <v>36</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="10" t="n">
         <v>45964</v>
@@ -3160,12 +3217,12 @@
         <v>15</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>45964</v>
@@ -3198,12 +3255,12 @@
         <v>20</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="10" t="n">
         <v>45964</v>
@@ -3236,12 +3293,12 @@
         <v>20</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>45964</v>
@@ -3274,12 +3331,12 @@
         <v>20</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>45964</v>
@@ -3312,12 +3369,12 @@
         <v>20</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="10" t="n">
         <v>45964</v>
@@ -3350,12 +3407,12 @@
         <v>20</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" s="10" t="n">
         <v>45964</v>
@@ -3388,12 +3445,12 @@
         <v>20</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="10" t="n">
         <v>45964</v>
@@ -3426,12 +3483,12 @@
         <v>20</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>45964</v>
@@ -3464,12 +3521,12 @@
         <v>20</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>45964</v>
@@ -3502,12 +3559,12 @@
         <v>20</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>45964</v>
@@ -3540,12 +3597,12 @@
         <v>20</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="10" t="n">
         <v>45964</v>
@@ -3578,12 +3635,12 @@
         <v>20</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="10" t="n">
         <v>45964</v>
@@ -3616,12 +3673,12 @@
         <v>20</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="10" t="n">
         <v>45964</v>
@@ -3654,12 +3711,12 @@
         <v>20</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" s="10" t="n">
         <v>45964</v>
@@ -3692,12 +3749,12 @@
         <v>20</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="10" t="n">
         <v>45964</v>
@@ -3730,12 +3787,12 @@
         <v>20</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" s="10" t="n">
         <v>45964</v>
@@ -3768,12 +3825,12 @@
         <v>20</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="10" t="n">
         <v>45964</v>
@@ -3806,12 +3863,12 @@
         <v>20</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="10" t="n">
         <v>45964</v>
@@ -3844,12 +3901,12 @@
         <v>20</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" s="10" t="n">
         <v>45964</v>
@@ -3882,12 +3939,12 @@
         <v>20</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" s="10" t="n">
         <v>45964</v>
@@ -3920,7 +3977,7 @@
         <v>20</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,36 +4091,54 @@
         <v>75</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="B76" s="10" t="n">
+        <v>45974</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H76" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I76" s="9" t="n">
         <f aca="false">G76*H76</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9" t="n">
         <f aca="false">I76+J76</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>45976</v>
+      </c>
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="17"/>
@@ -4083,229 +4158,387 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="H78" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I78" s="9" t="n">
         <f aca="false">G78*H78</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J78" s="9"/>
       <c r="K78" s="9" t="n">
         <f aca="false">I78+J78</f>
-        <v>0</v>
-      </c>
-      <c r="L78" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I79" s="9" t="n">
         <f aca="false">G79*H79</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="9" t="n">
         <f aca="false">I79+J79</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="H80" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I80" s="9" t="n">
         <f aca="false">G80*H80</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9" t="n">
         <f aca="false">I80+J80</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B81" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I81" s="9" t="n">
         <f aca="false">G81*H81</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9" t="n">
         <f aca="false">I81+J81</f>
-        <v>0</v>
-      </c>
-      <c r="L81" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I82" s="9" t="n">
         <f aca="false">G82*H82</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9" t="n">
         <f aca="false">I82+J82</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I83" s="9" t="n">
         <f aca="false">G83*H83</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9" t="n">
         <f aca="false">I83+J83</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I84" s="9" t="n">
         <f aca="false">G84*H84</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9" t="n">
         <f aca="false">I84+J84</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I85" s="9" t="n">
         <f aca="false">G85*H85</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9" t="n">
         <f aca="false">I85+J85</f>
-        <v>0</v>
-      </c>
-      <c r="L85" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45978</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I86" s="9" t="n">
         <f aca="false">G86*H86</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9" t="n">
         <f aca="false">I86+J86</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" s="10" t="n">
-        <v>45976</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+        <v>45978</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I87" s="9" t="n">
         <f aca="false">G87*H87</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9" t="n">
         <f aca="false">I87+J87</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -4327,7 +4560,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -4349,7 +4582,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -4371,7 +4604,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -4393,7 +4626,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
@@ -4415,7 +4648,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -4437,7 +4670,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -4459,7 +4692,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -4481,7 +4714,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
@@ -4503,7 +4736,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
@@ -4525,7 +4758,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
@@ -4547,7 +4780,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
@@ -4569,7 +4802,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
@@ -4591,7 +4824,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
@@ -4613,7 +4846,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
@@ -4723,9 +4956,11 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="B107" s="10" t="n">
+        <v>46006</v>
+      </c>
       <c r="C107" s="11"/>
       <c r="D107" s="12"/>
       <c r="E107" s="17"/>
@@ -4745,7 +4980,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
@@ -4767,7 +5002,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
@@ -4789,7 +5024,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
@@ -4811,9 +5046,11 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B111" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="B111" s="10" t="n">
+        <v>46010</v>
+      </c>
       <c r="C111" s="11"/>
       <c r="D111" s="12"/>
       <c r="E111" s="17"/>
@@ -4831,230 +5068,16 @@
       </c>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9" t="n">
-        <f aca="false">G112*H112</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9" t="n">
-        <f aca="false">I112+J112</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="9"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9" t="n">
-        <f aca="false">G113*H113</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9" t="n">
-        <f aca="false">I113+J113</f>
-        <v>0</v>
-      </c>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9" t="n">
-        <f aca="false">G114*H114</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9" t="n">
-        <f aca="false">I114+J114</f>
-        <v>0</v>
-      </c>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9" t="n">
-        <f aca="false">G115*H115</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9" t="n">
-        <f aca="false">I115+J115</f>
-        <v>0</v>
-      </c>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9" t="n">
-        <f aca="false">G116*H116</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9" t="n">
-        <f aca="false">I116+J116</f>
-        <v>0</v>
-      </c>
-      <c r="L116" s="9"/>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B117" s="10" t="n">
-        <v>46006</v>
-      </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9" t="n">
-        <f aca="false">G117*H117</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9" t="n">
-        <f aca="false">I117+J117</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="9"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9" t="n">
-        <f aca="false">G118*H118</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9" t="n">
-        <f aca="false">I118+J118</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="9"/>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9" t="n">
-        <f aca="false">G119*H119</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9" t="n">
-        <f aca="false">I119+J119</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="9"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9" t="n">
-        <f aca="false">G120*H120</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9" t="n">
-        <f aca="false">I120+J120</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="9"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B121" s="10" t="n">
-        <v>46010</v>
-      </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9" t="n">
-        <f aca="false">G121*H121</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9" t="n">
-        <f aca="false">I121+J121</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="9"/>
-    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="C1:C71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -1241,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="A87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4540,133 +4540,229 @@
       <c r="A88" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="B88" s="10" t="n">
+        <v>45982</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H88" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I88" s="9" t="n">
         <f aca="false">G88*H88</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="n">
         <f aca="false">I88+J88</f>
-        <v>0</v>
-      </c>
-      <c r="L88" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="B89" s="10" t="n">
+        <v>45982</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H89" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I89" s="9" t="n">
         <f aca="false">G89*H89</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9" t="n">
         <f aca="false">I89+J89</f>
-        <v>0</v>
-      </c>
-      <c r="L89" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="B90" s="10" t="n">
+        <v>45982</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H90" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I90" s="9" t="n">
         <f aca="false">G90*H90</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J90" s="9"/>
       <c r="K90" s="9" t="n">
         <f aca="false">I90+J90</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="B91" s="10" t="n">
+        <v>45982</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H91" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I91" s="9" t="n">
         <f aca="false">G91*H91</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9" t="n">
         <f aca="false">I91+J91</f>
-        <v>0</v>
-      </c>
-      <c r="L91" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
+      <c r="B92" s="10" t="n">
+        <v>45982</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I92" s="9" t="n">
         <f aca="false">G92*H92</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9" t="n">
         <f aca="false">I92+J92</f>
-        <v>0</v>
-      </c>
-      <c r="L92" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B93" s="10" t="n">
+        <v>45982</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="H93" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I93" s="9" t="n">
         <f aca="false">G93*H93</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J93" s="9"/>
       <c r="K93" s="9" t="n">
         <f aca="false">I93+J93</f>
-        <v>0</v>
-      </c>
-      <c r="L93" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -1241,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B76" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4766,117 +4766,197 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B94" s="10" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H94" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I94" s="9" t="n">
         <f aca="false">G94*H94</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9" t="n">
         <f aca="false">I94+J94</f>
-        <v>0</v>
-      </c>
-      <c r="L94" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B95" s="10" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="H95" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I95" s="9" t="n">
         <f aca="false">G95*H95</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9" t="n">
         <f aca="false">I95+J95</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B96" s="10" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="H96" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I96" s="9" t="n">
         <f aca="false">G96*H96</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9" t="n">
         <f aca="false">I96+J96</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B97" s="10" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I97" s="9" t="n">
         <f aca="false">G97*H97</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="n">
         <f aca="false">I97+J97</f>
-        <v>0</v>
-      </c>
-      <c r="L97" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B98" s="10" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H98" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I98" s="9" t="n">
         <f aca="false">G98*H98</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J98" s="9"/>
       <c r="K98" s="9" t="n">
         <f aca="false">I98+J98</f>
-        <v>0</v>
-      </c>
-      <c r="L98" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
@@ -5052,11 +5132,9 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B107" s="10" t="n">
-        <v>46006</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B107" s="10"/>
       <c r="C107" s="11"/>
       <c r="D107" s="12"/>
       <c r="E107" s="17"/>
@@ -5076,7 +5154,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
@@ -5098,7 +5176,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
@@ -5120,7 +5198,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
@@ -5142,11 +5220,9 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="10" t="n">
-        <v>46010</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B111" s="10"/>
       <c r="C111" s="11"/>
       <c r="D111" s="12"/>
       <c r="E111" s="17"/>
@@ -5164,12 +5240,142 @@
       </c>
       <c r="L111" s="9"/>
     </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9" t="n">
+        <f aca="false">G112*H112</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9" t="n">
+        <f aca="false">I112+J112</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="n">
+        <f aca="false">G113*H113</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9" t="n">
+        <f aca="false">I113+J113</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="n">
+        <f aca="false">G114*H114</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9" t="n">
+        <f aca="false">I114+J114</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9" t="n">
+        <f aca="false">G115*H115</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9" t="n">
+        <f aca="false">I115+J115</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9" t="n">
+        <f aca="false">G116*H116</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9" t="n">
+        <f aca="false">I116+J116</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="n">
+        <f aca="false">G117*H117</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9" t="n">
+        <f aca="false">I117+J117</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="9"/>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -719,7 +719,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +965,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,7 +1146,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>500</v>
@@ -1241,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B76" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G95" activeCellId="0" sqref="G95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4958,177 +4958,305 @@
       <c r="A99" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="B99" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H99" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I99" s="9" t="n">
         <f aca="false">G99*H99</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9" t="n">
         <f aca="false">I99+J99</f>
-        <v>0</v>
-      </c>
-      <c r="L99" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B100" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H100" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I100" s="9" t="n">
         <f aca="false">G100*H100</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9" t="n">
         <f aca="false">I100+J100</f>
-        <v>0</v>
-      </c>
-      <c r="L100" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B101" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H101" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I101" s="9" t="n">
         <f aca="false">G101*H101</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9" t="n">
         <f aca="false">I101+J101</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B102" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G102" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I102" s="9" t="n">
         <f aca="false">G102*H102</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9" t="n">
         <f aca="false">I102+J102</f>
-        <v>0</v>
-      </c>
-      <c r="L102" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B103" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I103" s="9" t="n">
         <f aca="false">G103*H103</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="n">
         <f aca="false">I103+J103</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B104" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="H104" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I104" s="9" t="n">
         <f aca="false">G104*H104</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="n">
         <f aca="false">I104+J104</f>
-        <v>0</v>
-      </c>
-      <c r="L104" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B105" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I105" s="9" t="n">
         <f aca="false">G105*H105</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9" t="n">
         <f aca="false">I105+J105</f>
-        <v>0</v>
-      </c>
-      <c r="L105" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="B106" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H106" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I106" s="9" t="n">
         <f aca="false">G106*H106</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9" t="n">
         <f aca="false">I106+J106</f>
-        <v>0</v>
-      </c>
-      <c r="L106" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
@@ -5264,11 +5392,9 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B113" s="10" t="n">
-        <v>46006</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="12"/>
       <c r="E113" s="17"/>
@@ -5288,7 +5414,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
@@ -5310,7 +5436,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
@@ -5332,7 +5458,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
@@ -5354,11 +5480,9 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B117" s="10" t="n">
-        <v>46010</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="12"/>
       <c r="E117" s="17"/>
@@ -5376,6 +5500,169 @@
       </c>
       <c r="L117" s="9"/>
     </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9" t="n">
+        <f aca="false">G118*H118</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9" t="n">
+        <f aca="false">I118+J118</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="n">
+        <f aca="false">G119*H119</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9" t="n">
+        <f aca="false">I119+J119</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="n">
+        <f aca="false">G120*H120</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9" t="n">
+        <f aca="false">I120+J120</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9" t="n">
+        <f aca="false">G121*H121</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9" t="n">
+        <f aca="false">I121+J121</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="10"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9" t="n">
+        <f aca="false">G122*H122</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9" t="n">
+        <f aca="false">I122+J122</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9" t="n">
+        <f aca="false">G123*H123</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9" t="n">
+        <f aca="false">I123+J123</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9" t="n">
+        <f aca="false">G124*H124</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9" t="n">
+        <f aca="false">I124+J124</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="9"/>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="91">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">escovas de dentes infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamylla Nascimento</t>
   </si>
   <si>
     <t xml:space="preserve">brinquedos usados</t>
@@ -719,7 +722,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +968,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1239,10 +1242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1746,7 +1749,7 @@
         <v>45959</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
@@ -1773,7 +1776,7 @@
         <v>165</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,7 +1787,7 @@
         <v>45959</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>5</v>
@@ -1811,7 +1814,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +1890,7 @@
         <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,7 +1966,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2167,7 @@
         <v>45960</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
@@ -2191,7 +2194,7 @@
         <v>114</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,7 +2205,7 @@
         <v>45960</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>5</v>
@@ -2229,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,7 +2243,7 @@
         <v>45960</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -2267,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2308,7 @@
         <v>45</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,7 +2346,7 @@
         <v>24</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +2536,7 @@
         <v>27</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,7 +2574,7 @@
         <v>60</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2612,7 @@
         <v>60</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2623,7 @@
         <v>45961</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>5</v>
@@ -2647,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,7 +2661,7 @@
         <v>45961</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>5</v>
@@ -2685,7 +2688,7 @@
         <v>60</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,7 +2699,7 @@
         <v>45961</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>5</v>
@@ -2734,7 +2737,7 @@
         <v>45961</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>5</v>
@@ -2799,7 +2802,7 @@
         <v>63</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,7 +2840,7 @@
         <v>63</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2878,7 @@
         <v>60</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +2916,7 @@
         <v>60</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,7 +2954,7 @@
         <v>60</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +2992,7 @@
         <v>60</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,7 +3030,7 @@
         <v>150</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +3068,7 @@
         <v>60</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,7 +3106,7 @@
         <v>60</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3144,7 @@
         <v>60</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,7 +3182,7 @@
         <v>36</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3220,7 @@
         <v>15</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,7 +3258,7 @@
         <v>20</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,7 +3296,7 @@
         <v>20</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,7 +3372,7 @@
         <v>20</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3448,7 @@
         <v>20</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3483,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3524,7 @@
         <v>20</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,7 +3562,7 @@
         <v>20</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +3600,7 @@
         <v>20</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,7 +3638,7 @@
         <v>20</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,7 +3676,7 @@
         <v>20</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3828,7 @@
         <v>20</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,7 +3904,7 @@
         <v>20</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4094,7 @@
         <v>75</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,12 +4132,12 @@
         <v>45</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="10" t="n">
         <v>45976</v>
@@ -4158,7 +4161,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="10" t="n">
         <v>45978</v>
@@ -4191,12 +4194,12 @@
         <v>54</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="10" t="n">
         <v>45978</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="10" t="n">
         <v>45978</v>
@@ -4267,12 +4270,12 @@
         <v>81</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="10" t="n">
         <v>45978</v>
@@ -4305,12 +4308,12 @@
         <v>10</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="10" t="n">
         <v>45978</v>
@@ -4343,12 +4346,12 @@
         <v>75</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="10" t="n">
         <v>45978</v>
@@ -4381,12 +4384,12 @@
         <v>6</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="10" t="n">
         <v>45978</v>
@@ -4419,12 +4422,12 @@
         <v>6</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="10" t="n">
         <v>45978</v>
@@ -4457,12 +4460,12 @@
         <v>15</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="10" t="n">
         <v>45978</v>
@@ -4495,12 +4498,12 @@
         <v>3</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="10" t="n">
         <v>45978</v>
@@ -4533,12 +4536,12 @@
         <v>6</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="10" t="n">
         <v>45982</v>
@@ -4576,7 +4579,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B89" s="10" t="n">
         <v>45982</v>
@@ -4614,7 +4617,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B90" s="10" t="n">
         <v>45982</v>
@@ -4652,7 +4655,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="10" t="n">
         <v>45982</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B92" s="10" t="n">
         <v>45982</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B93" s="10" t="n">
         <v>45982</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="10" t="n">
         <v>45987</v>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B95" s="10" t="n">
         <v>45987</v>
@@ -4842,7 +4845,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B96" s="10" t="n">
         <v>45987</v>
@@ -4880,7 +4883,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B97" s="10" t="n">
         <v>45987</v>
@@ -4918,7 +4921,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B98" s="10" t="n">
         <v>45987</v>
@@ -4956,7 +4959,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B99" s="10" t="n">
         <v>45989</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B100" s="10" t="n">
         <v>45989</v>
@@ -5032,7 +5035,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B101" s="10" t="n">
         <v>45989</v>
@@ -5070,7 +5073,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B102" s="10" t="n">
         <v>45989</v>
@@ -5108,7 +5111,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B103" s="10" t="n">
         <v>45989</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B104" s="10" t="n">
         <v>45989</v>
@@ -5184,7 +5187,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B105" s="10" t="n">
         <v>45989</v>
@@ -5222,7 +5225,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" s="10" t="n">
         <v>45989</v>
@@ -5260,145 +5263,241 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B107" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H107" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I107" s="9" t="n">
         <f aca="false">G107*H107</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="9" t="n">
         <f aca="false">I107+J107</f>
-        <v>0</v>
-      </c>
-      <c r="L107" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B108" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="H108" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I108" s="9" t="n">
         <f aca="false">G108*H108</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="9" t="n">
         <f aca="false">I108+J108</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B109" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I109" s="9" t="n">
         <f aca="false">G109*H109</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9" t="n">
         <f aca="false">I109+J109</f>
-        <v>0</v>
-      </c>
-      <c r="L109" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B110" s="10" t="n">
+        <v>45989</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G110" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H110" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I110" s="9" t="n">
         <f aca="false">G110*H110</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9" t="n">
         <f aca="false">I110+J110</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B111" s="10" t="n">
+        <v>45993</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="H111" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I111" s="9" t="n">
         <f aca="false">G111*H111</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9" t="n">
         <f aca="false">I111+J111</f>
-        <v>0</v>
-      </c>
-      <c r="L111" s="9"/>
+        <v>165</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="B112" s="10" t="n">
+        <v>45993</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G112" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H112" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I112" s="9" t="n">
         <f aca="false">G112*H112</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9" t="n">
         <f aca="false">I112+J112</f>
-        <v>0</v>
-      </c>
-      <c r="L112" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="12"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9" t="n">
@@ -5414,13 +5513,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="12"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9" t="n">
@@ -5436,13 +5535,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="12"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9" t="n">
@@ -5458,13 +5557,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="12"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9" t="n">
@@ -5480,13 +5579,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="12"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9" t="n">
@@ -5546,11 +5645,9 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B120" s="10" t="n">
-        <v>46006</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="12"/>
       <c r="E120" s="17"/>
@@ -5570,7 +5667,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
@@ -5592,7 +5689,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
@@ -5614,7 +5711,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
@@ -5636,11 +5733,9 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B124" s="10" t="n">
-        <v>46010</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B124" s="10"/>
       <c r="C124" s="11"/>
       <c r="D124" s="12"/>
       <c r="E124" s="17"/>
@@ -5658,15 +5753,252 @@
       </c>
       <c r="L124" s="9"/>
     </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9" t="n">
+        <f aca="false">G125*H125</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9" t="n">
+        <f aca="false">I125+J125</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9" t="n">
+        <f aca="false">G126*H126</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9" t="n">
+        <f aca="false">I126+J126</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="n">
+        <f aca="false">G127*H127</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9" t="n">
+        <f aca="false">I127+J127</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="9"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9" t="n">
+        <f aca="false">G128*H128</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9" t="n">
+        <f aca="false">I128+J128</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="9"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="n">
+        <f aca="false">G129*H129</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9" t="n">
+        <f aca="false">I129+J129</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="9"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="n">
+        <f aca="false">G130*H130</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9" t="n">
+        <f aca="false">I130+J130</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="9"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C131" s="11"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9" t="n">
+        <f aca="false">G131*H131</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9" t="n">
+        <f aca="false">I131+J131</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="9"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B132" s="10"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9" t="n">
+        <f aca="false">G132*H132</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9" t="n">
+        <f aca="false">I132+J132</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="9"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9" t="n">
+        <f aca="false">G133*H133</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9" t="n">
+        <f aca="false">I133+J133</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="9"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9" t="n">
+        <f aca="false">G134*H134</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9" t="n">
+        <f aca="false">I134+J134</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="9"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9" t="n">
+        <f aca="false">G135*H135</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9" t="n">
+        <f aca="false">I135+J135</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -13,7 +13,7 @@
     <sheet name="doacoes_registros" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">doacoes_registros!$C$1:$C$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">doacoes_registros!$C$1:$C$76</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">participantes!$A$1:$B$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="90">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Jorge Nazaré</t>
   </si>
   <si>
-    <t xml:space="preserve">Kamila Nascimento</t>
+    <t xml:space="preserve">Kamylla Nascimento</t>
   </si>
   <si>
     <t xml:space="preserve">Lucas Rodrigues</t>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">escovas de dentes infantil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamylla Nascimento</t>
   </si>
   <si>
     <t xml:space="preserve">brinquedos usados</t>
@@ -438,6 +435,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -468,10 +469,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -844,7 +841,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1244,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1253,9 +1250,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="29.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="2" width="23.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="69.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="13" style="2" width="8.59"/>
@@ -1272,13 +1269,13 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1301,42 +1298,42 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" s="11" t="n">
         <v>45944</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="n">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="n">
         <f aca="false">G2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="n">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="n">
         <f aca="false">I2+J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="10" t="n">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>45957</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -1357,18 +1354,18 @@
         <f aca="false">I3+J3</f>
         <v>220</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="10" t="n">
+      <c r="A4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>45957</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1395,132 +1392,132 @@
         <f aca="false">I4+J4</f>
         <v>96</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="10" t="n">
+      <c r="A5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9" t="n">
+      <c r="H5" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="n">
         <f aca="false">G5*H5</f>
         <v>45</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="n">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="n">
         <f aca="false">I5+J5</f>
         <v>45</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="10" t="n">
+      <c r="A6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9" t="n">
+      <c r="H6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10" t="n">
         <f aca="false">G6*H6</f>
         <v>45</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="n">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="n">
         <f aca="false">I6+J6</f>
         <v>45</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="10" t="n">
+      <c r="A7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9" t="n">
+      <c r="H7" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10" t="n">
         <f aca="false">G7*H7</f>
         <v>45</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9" t="n">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="n">
         <f aca="false">I7+J7</f>
         <v>45</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="10" t="n">
+      <c r="A8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -1532,182 +1529,182 @@
       <c r="F8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9" t="n">
+      <c r="H8" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10" t="n">
         <f aca="false">G8*H8</f>
         <v>45</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="n">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="n">
         <f aca="false">I8+J8</f>
         <v>45</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="10" t="n">
+      <c r="A9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9" t="n">
+      <c r="H9" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10" t="n">
         <f aca="false">G9*H9</f>
         <v>45</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="n">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="n">
         <f aca="false">I9+J9</f>
         <v>45</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10" t="n">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9" t="n">
+      <c r="H10" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10" t="n">
         <f aca="false">G10*H10</f>
         <v>45</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="n">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10" t="n">
         <f aca="false">I10+J10</f>
         <v>45</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="10" t="n">
+      <c r="A11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="H11" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="9" t="n">
+      <c r="H11" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10" t="n">
         <f aca="false">G11*H11</f>
         <v>35</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9" t="n">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10" t="n">
         <f aca="false">I11+J11</f>
         <v>35</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="10" t="n">
+      <c r="A12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <v>45958</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H12" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9" t="n">
+      <c r="H12" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10" t="n">
         <f aca="false">G12*H12</f>
         <v>45</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="n">
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="n">
         <f aca="false">I12+J12</f>
         <v>45</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="10" t="n">
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="11" t="n">
         <v>45958</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -1716,40 +1713,40 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="9" t="n">
+      <c r="H13" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10" t="n">
         <f aca="false">G13*H13</f>
         <v>45</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="n">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="n">
         <f aca="false">I13+J13</f>
         <v>45</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="10" t="n">
+      <c r="A14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>72</v>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>5</v>
@@ -1760,34 +1757,34 @@
       <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="H14" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="9" t="n">
+      <c r="H14" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10" t="n">
         <f aca="false">G14*H14</f>
         <v>165</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9" t="n">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="n">
         <f aca="false">I14+J14</f>
         <v>165</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>73</v>
+      <c r="L14" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="10" t="n">
+      <c r="A15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>72</v>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>5</v>
@@ -1798,33 +1795,33 @@
       <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H15" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" s="9" t="n">
+      <c r="H15" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="10" t="n">
         <f aca="false">G15*H15</f>
         <v>30</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="n">
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="n">
         <f aca="false">I15+J15</f>
         <v>30</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>74</v>
+      <c r="L15" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="10" t="n">
+      <c r="A16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1836,33 +1833,33 @@
       <c r="F16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="9" t="n">
+      <c r="H16" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="10" t="n">
         <f aca="false">G16*H16</f>
         <v>50</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9" t="n">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="n">
         <f aca="false">I16+J16</f>
         <v>50</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="10" t="n">
+      <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1874,33 +1871,33 @@
       <c r="F17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H17" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="9" t="n">
+      <c r="H17" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10" t="n">
         <f aca="false">G17*H17</f>
         <v>30</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9" t="n">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="n">
         <f aca="false">I17+J17</f>
         <v>30</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>73</v>
+      <c r="L17" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="10" t="n">
+      <c r="A18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -1912,33 +1909,33 @@
       <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" s="9" t="n">
+      <c r="G18" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10" t="n">
         <f aca="false">G18*H18</f>
         <v>15</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="n">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="n">
         <f aca="false">I18+J18</f>
         <v>15</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>73</v>
+      <c r="L18" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="10" t="n">
+      <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -1950,33 +1947,33 @@
       <c r="F19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="H19" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" s="9" t="n">
+      <c r="H19" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10" t="n">
         <f aca="false">G19*H19</f>
         <v>57</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="n">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="n">
         <f aca="false">I19+J19</f>
         <v>57</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>73</v>
+      <c r="L19" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="10" t="n">
+      <c r="A20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -1988,33 +1985,33 @@
       <c r="F20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="9" t="n">
+      <c r="H20" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="10" t="n">
         <f aca="false">G20*H20</f>
         <v>5</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="n">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="n">
         <f aca="false">I20+J20</f>
         <v>5</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="10" t="n">
+      <c r="A21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2026,109 +2023,109 @@
       <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="H21" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="9" t="n">
+      <c r="H21" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10" t="n">
         <f aca="false">G21*H21</f>
         <v>33</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="n">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="n">
         <f aca="false">I21+J21</f>
         <v>33</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>73</v>
+      <c r="L21" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="10" t="n">
+      <c r="A22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H22" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" s="9" t="n">
+      <c r="H22" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="10" t="n">
         <f aca="false">G22*H22</f>
         <v>50</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="n">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="n">
         <f aca="false">I22+J22</f>
         <v>50</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="10" t="n">
+      <c r="A23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="11" t="n">
         <v>45959</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="9" t="n">
+      <c r="H23" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="10" t="n">
         <f aca="false">G23*H23</f>
         <v>50</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="n">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="n">
         <f aca="false">I23+J23</f>
         <v>50</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="10" t="n">
+      <c r="A24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2140,34 +2137,34 @@
       <c r="F24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" s="9" t="n">
+      <c r="H24" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10" t="n">
         <f aca="false">G24*H24</f>
         <v>3</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" t="n">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="n">
         <f aca="false">I24+J24</f>
         <v>3</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>73</v>
+      <c r="L24" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="10" t="n">
+      <c r="A25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>72</v>
+      <c r="C25" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
@@ -2178,34 +2175,34 @@
       <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="H25" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" s="9" t="n">
+      <c r="H25" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10" t="n">
         <f aca="false">G25*H25</f>
         <v>114</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" t="n">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="n">
         <f aca="false">I25+J25</f>
         <v>114</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>73</v>
+      <c r="L25" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="10" t="n">
+      <c r="A26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>72</v>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>5</v>
@@ -2216,34 +2213,34 @@
       <c r="F26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H26" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" s="9" t="n">
+      <c r="H26" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10" t="n">
         <f aca="false">G26*H26</f>
         <v>24</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" t="n">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="n">
         <f aca="false">I26+J26</f>
         <v>24</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>74</v>
+      <c r="L26" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="10" t="n">
+      <c r="A27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>72</v>
+      <c r="C27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
@@ -2254,33 +2251,33 @@
       <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H27" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="9" t="n">
+      <c r="H27" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10" t="n">
         <f aca="false">G27*H27</f>
         <v>30</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" t="n">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="n">
         <f aca="false">I27+J27</f>
         <v>30</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>73</v>
+      <c r="L27" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="10" t="n">
+      <c r="A28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2292,33 +2289,33 @@
       <c r="F28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="H28" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" s="9" t="n">
+      <c r="H28" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10" t="n">
         <f aca="false">G28*H28</f>
         <v>45</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" t="n">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="n">
         <f aca="false">I28+J28</f>
         <v>45</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>73</v>
+      <c r="L28" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="10" t="n">
+      <c r="A29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2330,33 +2327,33 @@
       <c r="F29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H29" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" s="9" t="n">
+      <c r="H29" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10" t="n">
         <f aca="false">G29*H29</f>
         <v>24</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" t="n">
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="n">
         <f aca="false">I29+J29</f>
         <v>24</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>73</v>
+      <c r="L29" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="10" t="n">
+      <c r="A30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2368,33 +2365,33 @@
       <c r="F30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H30" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" s="9" t="n">
+      <c r="H30" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="10" t="n">
         <f aca="false">G30*H30</f>
         <v>40</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" t="n">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10" t="n">
         <f aca="false">I30+J30</f>
         <v>40</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="10" t="n">
+      <c r="A31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -2406,33 +2403,33 @@
       <c r="F31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H31" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I31" s="9" t="n">
+      <c r="H31" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="10" t="n">
         <f aca="false">G31*H31</f>
         <v>40</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" t="n">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10" t="n">
         <f aca="false">I31+J31</f>
         <v>40</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="10" t="n">
+      <c r="A32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="11" t="n">
         <v>45960</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2444,30 +2441,30 @@
       <c r="F32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="H32" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I32" s="9" t="n">
+      <c r="H32" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10" t="n">
         <f aca="false">G32*H32</f>
         <v>135</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" t="n">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="n">
         <f aca="false">I32+J32</f>
         <v>135</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="10" t="n">
+      <c r="A33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="11" t="n">
         <v>45961</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2482,33 +2479,33 @@
       <c r="F33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H33" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" s="9" t="n">
+      <c r="G33" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="10" t="n">
         <f aca="false">G33*H33</f>
         <v>15</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" t="n">
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="n">
         <f aca="false">I33+J33</f>
         <v>15</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>73</v>
+      <c r="L33" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="10" t="n">
+      <c r="A34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -2520,33 +2517,33 @@
       <c r="F34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H34" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" s="9" t="n">
+      <c r="H34" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="10" t="n">
         <f aca="false">G34*H34</f>
         <v>27</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9" t="n">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="n">
         <f aca="false">I34+J34</f>
         <v>27</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>73</v>
+      <c r="L34" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="10" t="n">
+      <c r="A35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -2558,33 +2555,33 @@
       <c r="F35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H35" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" s="9" t="n">
+      <c r="G35" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="10" t="n">
         <f aca="false">G35*H35</f>
         <v>60</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" t="n">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="n">
         <f aca="false">I35+J35</f>
         <v>60</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>75</v>
+      <c r="L35" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="10" t="n">
+      <c r="A36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -2596,34 +2593,34 @@
       <c r="F36" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H36" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I36" s="9" t="n">
+      <c r="G36" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H36" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="10" t="n">
         <f aca="false">G36*H36</f>
         <v>60</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="n">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="n">
         <f aca="false">I36+J36</f>
         <v>60</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>75</v>
+      <c r="L36" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="10" t="n">
+      <c r="A37" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>72</v>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>5</v>
@@ -2634,34 +2631,34 @@
       <c r="F37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="G37" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" s="9" t="n">
+      <c r="H37" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="10" t="n">
         <f aca="false">G37*H37</f>
         <v>12</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" t="n">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="n">
         <f aca="false">I37+J37</f>
         <v>12</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>74</v>
+      <c r="L37" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="10" t="n">
+      <c r="A38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>72</v>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>5</v>
@@ -2672,34 +2669,34 @@
       <c r="F38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" s="9" t="n">
+      <c r="G38" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="10" t="n">
         <f aca="false">G38*H38</f>
         <v>60</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9" t="n">
+      <c r="J38" s="10"/>
+      <c r="K38" s="10" t="n">
         <f aca="false">I38+J38</f>
         <v>60</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>73</v>
+      <c r="L38" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="10" t="n">
+      <c r="A39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>72</v>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>5</v>
@@ -2710,34 +2707,34 @@
       <c r="F39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" s="9" t="n">
+      <c r="G39" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" s="10" t="n">
         <f aca="false">G39*H39</f>
         <v>15</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="n">
+      <c r="J39" s="10"/>
+      <c r="K39" s="10" t="n">
         <f aca="false">I39+J39</f>
         <v>15</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="10" t="n">
+      <c r="A40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>72</v>
+      <c r="C40" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>5</v>
@@ -2748,33 +2745,33 @@
       <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="9" t="n">
+      <c r="G40" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H40" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" s="9" t="n">
+      <c r="H40" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="10" t="n">
         <f aca="false">G40*H40</f>
         <v>10</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9" t="n">
+      <c r="J40" s="10"/>
+      <c r="K40" s="10" t="n">
         <f aca="false">I40+J40</f>
         <v>10</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="10" t="n">
+      <c r="A41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="11" t="n">
         <v>45961</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -2786,33 +2783,33 @@
       <c r="F41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="9" t="n">
+      <c r="G41" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="H41" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" s="9" t="n">
+      <c r="H41" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="10" t="n">
         <f aca="false">G41*H41</f>
         <v>63</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9" t="n">
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="n">
         <f aca="false">I41+J41</f>
         <v>63</v>
       </c>
-      <c r="L41" s="9" t="s">
-        <v>73</v>
+      <c r="L41" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="10" t="n">
+      <c r="A42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -2824,33 +2821,33 @@
       <c r="F42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="9" t="n">
+      <c r="G42" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="H42" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I42" s="9" t="n">
+      <c r="H42" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" s="10" t="n">
         <f aca="false">G42*H42</f>
         <v>63</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9" t="n">
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="n">
         <f aca="false">I42+J42</f>
         <v>63</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>73</v>
+      <c r="L42" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="10" t="n">
+      <c r="A43" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -2862,33 +2859,33 @@
       <c r="F43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H43" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" s="9" t="n">
+      <c r="G43" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H43" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="10" t="n">
         <f aca="false">G43*H43</f>
         <v>60</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9" t="n">
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="n">
         <f aca="false">I43+J43</f>
         <v>60</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>76</v>
+      <c r="L43" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="10" t="n">
+      <c r="A44" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -2900,33 +2897,33 @@
       <c r="F44" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H44" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I44" s="9" t="n">
+      <c r="G44" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H44" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="10" t="n">
         <f aca="false">G44*H44</f>
         <v>60</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9" t="n">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="n">
         <f aca="false">I44+J44</f>
         <v>60</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>76</v>
+      <c r="L44" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="10" t="n">
+      <c r="A45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -2938,33 +2935,33 @@
       <c r="F45" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H45" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" s="9" t="n">
+      <c r="G45" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H45" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="10" t="n">
         <f aca="false">G45*H45</f>
         <v>60</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9" t="n">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="n">
         <f aca="false">I45+J45</f>
         <v>60</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>76</v>
+      <c r="L45" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="10" t="n">
+      <c r="A46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -2976,33 +2973,33 @@
       <c r="F46" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H46" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" s="9" t="n">
+      <c r="G46" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H46" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="10" t="n">
         <f aca="false">G46*H46</f>
         <v>60</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9" t="n">
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="n">
         <f aca="false">I46+J46</f>
         <v>60</v>
       </c>
-      <c r="L46" s="9" t="s">
-        <v>76</v>
+      <c r="L46" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="10" t="n">
+      <c r="A47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -3014,33 +3011,33 @@
       <c r="F47" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="G47" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="H47" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" s="9" t="n">
+      <c r="H47" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="10" t="n">
         <f aca="false">G47*H47</f>
         <v>150</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9" t="n">
+      <c r="J47" s="10"/>
+      <c r="K47" s="10" t="n">
         <f aca="false">I47+J47</f>
         <v>150</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>74</v>
+      <c r="L47" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="10" t="n">
+      <c r="A48" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -3052,33 +3049,33 @@
       <c r="F48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H48" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" s="9" t="n">
+      <c r="G48" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="10" t="n">
         <f aca="false">G48*H48</f>
         <v>60</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9" t="n">
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="n">
         <f aca="false">I48+J48</f>
         <v>60</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>76</v>
+      <c r="L48" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="10" t="n">
+      <c r="A49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -3090,33 +3087,33 @@
       <c r="F49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" s="9" t="n">
+      <c r="G49" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H49" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="10" t="n">
         <f aca="false">G49*H49</f>
         <v>60</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9" t="n">
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="n">
         <f aca="false">I49+J49</f>
         <v>60</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>76</v>
+      <c r="L49" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="10" t="n">
+      <c r="A50" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -3128,33 +3125,33 @@
       <c r="F50" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H50" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" s="9" t="n">
+      <c r="G50" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="10" t="n">
         <f aca="false">G50*H50</f>
         <v>60</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9" t="n">
+      <c r="J50" s="10"/>
+      <c r="K50" s="10" t="n">
         <f aca="false">I50+J50</f>
         <v>60</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>77</v>
+      <c r="L50" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="10" t="n">
+      <c r="A51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -3166,33 +3163,33 @@
       <c r="F51" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="9" t="n">
+      <c r="G51" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="H51" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I51" s="9" t="n">
+      <c r="H51" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="10" t="n">
         <f aca="false">G51*H51</f>
         <v>36</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9" t="n">
+      <c r="J51" s="10"/>
+      <c r="K51" s="10" t="n">
         <f aca="false">I51+J51</f>
         <v>36</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>73</v>
+      <c r="L51" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="10" t="n">
+      <c r="A52" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -3204,33 +3201,33 @@
       <c r="F52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H52" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" s="9" t="n">
+      <c r="G52" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" s="10" t="n">
         <f aca="false">G52*H52</f>
         <v>15</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9" t="n">
+      <c r="J52" s="10"/>
+      <c r="K52" s="10" t="n">
         <f aca="false">I52+J52</f>
         <v>15</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>78</v>
+      <c r="L52" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="10" t="n">
+      <c r="A53" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3242,33 +3239,33 @@
       <c r="F53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="9" t="n">
+      <c r="G53" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I53" s="9" t="n">
+      <c r="H53" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I53" s="10" t="n">
         <f aca="false">G53*H53</f>
         <v>20</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9" t="n">
+      <c r="J53" s="10"/>
+      <c r="K53" s="10" t="n">
         <f aca="false">I53+J53</f>
         <v>20</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>78</v>
+      <c r="L53" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="10" t="n">
+      <c r="A54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="14" t="s">
@@ -3280,33 +3277,33 @@
       <c r="F54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="9" t="n">
+      <c r="G54" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H54" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I54" s="9" t="n">
+      <c r="H54" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I54" s="10" t="n">
         <f aca="false">G54*H54</f>
         <v>20</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9" t="n">
+      <c r="J54" s="10"/>
+      <c r="K54" s="10" t="n">
         <f aca="false">I54+J54</f>
         <v>20</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>78</v>
+      <c r="L54" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="10" t="n">
+      <c r="A55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -3318,33 +3315,33 @@
       <c r="F55" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="9" t="n">
+      <c r="G55" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H55" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I55" s="9" t="n">
+      <c r="H55" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I55" s="10" t="n">
         <f aca="false">G55*H55</f>
         <v>20</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9" t="n">
+      <c r="J55" s="10"/>
+      <c r="K55" s="10" t="n">
         <f aca="false">I55+J55</f>
         <v>20</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>78</v>
+      <c r="L55" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="10" t="n">
+      <c r="A56" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -3356,33 +3353,33 @@
       <c r="F56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="9" t="n">
+      <c r="G56" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H56" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I56" s="9" t="n">
+      <c r="H56" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I56" s="10" t="n">
         <f aca="false">G56*H56</f>
         <v>20</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9" t="n">
+      <c r="J56" s="10"/>
+      <c r="K56" s="10" t="n">
         <f aca="false">I56+J56</f>
         <v>20</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>78</v>
+      <c r="L56" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="10" t="n">
+      <c r="A57" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -3394,33 +3391,33 @@
       <c r="F57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="9" t="n">
+      <c r="G57" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H57" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I57" s="9" t="n">
+      <c r="H57" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I57" s="10" t="n">
         <f aca="false">G57*H57</f>
         <v>20</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9" t="n">
+      <c r="J57" s="10"/>
+      <c r="K57" s="10" t="n">
         <f aca="false">I57+J57</f>
         <v>20</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>78</v>
+      <c r="L57" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="10" t="n">
+      <c r="A58" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -3432,33 +3429,33 @@
       <c r="F58" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="9" t="n">
+      <c r="G58" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I58" s="9" t="n">
+      <c r="H58" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I58" s="10" t="n">
         <f aca="false">G58*H58</f>
         <v>20</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9" t="n">
+      <c r="J58" s="10"/>
+      <c r="K58" s="10" t="n">
         <f aca="false">I58+J58</f>
         <v>20</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>78</v>
+      <c r="L58" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="10" t="n">
+      <c r="A59" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="14" t="s">
@@ -3470,30 +3467,30 @@
       <c r="F59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="9" t="n">
+      <c r="G59" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I59" s="9" t="n">
+      <c r="H59" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I59" s="10" t="n">
         <f aca="false">G59*H59</f>
         <v>20</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9" t="n">
+      <c r="J59" s="10"/>
+      <c r="K59" s="10" t="n">
         <f aca="false">I59+J59</f>
         <v>20</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>78</v>
+      <c r="L59" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="10" t="n">
+      <c r="A60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="11" t="n">
         <v>45964</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3508,33 +3505,33 @@
       <c r="F60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="9" t="n">
+      <c r="G60" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H60" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I60" s="9" t="n">
+      <c r="H60" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" s="10" t="n">
         <f aca="false">G60*H60</f>
         <v>20</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9" t="n">
+      <c r="J60" s="10"/>
+      <c r="K60" s="10" t="n">
         <f aca="false">I60+J60</f>
         <v>20</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>78</v>
+      <c r="L60" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="10" t="n">
+      <c r="A61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -3546,33 +3543,33 @@
       <c r="F61" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="9" t="n">
+      <c r="G61" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H61" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I61" s="9" t="n">
+      <c r="H61" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" s="10" t="n">
         <f aca="false">G61*H61</f>
         <v>20</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9" t="n">
+      <c r="J61" s="10"/>
+      <c r="K61" s="10" t="n">
         <f aca="false">I61+J61</f>
         <v>20</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>78</v>
+      <c r="L61" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="10" t="n">
+      <c r="A62" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -3584,33 +3581,33 @@
       <c r="F62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="9" t="n">
+      <c r="G62" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H62" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I62" s="9" t="n">
+      <c r="H62" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I62" s="10" t="n">
         <f aca="false">G62*H62</f>
         <v>20</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9" t="n">
+      <c r="J62" s="10"/>
+      <c r="K62" s="10" t="n">
         <f aca="false">I62+J62</f>
         <v>20</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>78</v>
+      <c r="L62" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="10" t="n">
+      <c r="A63" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -3622,33 +3619,33 @@
       <c r="F63" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="9" t="n">
+      <c r="G63" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H63" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I63" s="9" t="n">
+      <c r="H63" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" s="10" t="n">
         <f aca="false">G63*H63</f>
         <v>20</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9" t="n">
+      <c r="J63" s="10"/>
+      <c r="K63" s="10" t="n">
         <f aca="false">I63+J63</f>
         <v>20</v>
       </c>
-      <c r="L63" s="9" t="s">
-        <v>78</v>
+      <c r="L63" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="10" t="n">
+      <c r="A64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -3660,33 +3657,33 @@
       <c r="F64" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="9" t="n">
+      <c r="G64" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H64" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I64" s="9" t="n">
+      <c r="H64" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I64" s="10" t="n">
         <f aca="false">G64*H64</f>
         <v>20</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9" t="n">
+      <c r="J64" s="10"/>
+      <c r="K64" s="10" t="n">
         <f aca="false">I64+J64</f>
         <v>20</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>78</v>
+      <c r="L64" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="10" t="n">
+      <c r="A65" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -3698,33 +3695,33 @@
       <c r="F65" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="9" t="n">
+      <c r="G65" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I65" s="9" t="n">
+      <c r="H65" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I65" s="10" t="n">
         <f aca="false">G65*H65</f>
         <v>20</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9" t="n">
+      <c r="J65" s="10"/>
+      <c r="K65" s="10" t="n">
         <f aca="false">I65+J65</f>
         <v>20</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>78</v>
+      <c r="L65" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="10" t="n">
+      <c r="A66" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -3736,33 +3733,33 @@
       <c r="F66" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="9" t="n">
+      <c r="G66" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H66" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I66" s="9" t="n">
+      <c r="H66" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" s="10" t="n">
         <f aca="false">G66*H66</f>
         <v>20</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9" t="n">
+      <c r="J66" s="10"/>
+      <c r="K66" s="10" t="n">
         <f aca="false">I66+J66</f>
         <v>20</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>78</v>
+      <c r="L66" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="10" t="n">
+      <c r="A67" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -3774,33 +3771,33 @@
       <c r="F67" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="9" t="n">
+      <c r="G67" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H67" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I67" s="9" t="n">
+      <c r="H67" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I67" s="10" t="n">
         <f aca="false">G67*H67</f>
         <v>20</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9" t="n">
+      <c r="J67" s="10"/>
+      <c r="K67" s="10" t="n">
         <f aca="false">I67+J67</f>
         <v>20</v>
       </c>
-      <c r="L67" s="9" t="s">
-        <v>78</v>
+      <c r="L67" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="10" t="n">
+      <c r="A68" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -3812,30 +3809,30 @@
       <c r="F68" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="9" t="n">
+      <c r="G68" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H68" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I68" s="9" t="n">
+      <c r="H68" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I68" s="10" t="n">
         <f aca="false">G68*H68</f>
         <v>20</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9" t="n">
+      <c r="J68" s="10"/>
+      <c r="K68" s="10" t="n">
         <f aca="false">I68+J68</f>
         <v>20</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>78</v>
+      <c r="L68" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="10" t="n">
+      <c r="A69" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="11" t="n">
         <v>45964</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3850,33 +3847,33 @@
       <c r="F69" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="9" t="n">
+      <c r="G69" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H69" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I69" s="9" t="n">
+      <c r="H69" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I69" s="10" t="n">
         <f aca="false">G69*H69</f>
         <v>20</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9" t="n">
+      <c r="J69" s="10"/>
+      <c r="K69" s="10" t="n">
         <f aca="false">I69+J69</f>
         <v>20</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>78</v>
+      <c r="L69" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="n">
+      <c r="A70" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="14" t="s">
@@ -3888,33 +3885,33 @@
       <c r="F70" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="9" t="n">
+      <c r="G70" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H70" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I70" s="9" t="n">
+      <c r="H70" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I70" s="10" t="n">
         <f aca="false">G70*H70</f>
         <v>20</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9" t="n">
+      <c r="J70" s="10"/>
+      <c r="K70" s="10" t="n">
         <f aca="false">I70+J70</f>
         <v>20</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>78</v>
+      <c r="L70" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="10" t="n">
+      <c r="A71" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11" t="n">
         <v>45964</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="14" t="s">
@@ -3926,30 +3923,30 @@
       <c r="F71" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="9" t="n">
+      <c r="G71" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H71" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I71" s="9" t="n">
+      <c r="H71" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I71" s="10" t="n">
         <f aca="false">G71*H71</f>
         <v>20</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9" t="n">
+      <c r="J71" s="10"/>
+      <c r="K71" s="10" t="n">
         <f aca="false">I71+J71</f>
         <v>20</v>
       </c>
-      <c r="L71" s="9" t="s">
-        <v>78</v>
+      <c r="L71" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="10" t="n">
+      <c r="A72" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="11" t="n">
         <v>45964</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3964,33 +3961,33 @@
       <c r="F72" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="9" t="n">
+      <c r="G72" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H72" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I72" s="9" t="n">
+      <c r="H72" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I72" s="10" t="n">
         <f aca="false">G72*H72</f>
         <v>20</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9" t="n">
+      <c r="J72" s="10"/>
+      <c r="K72" s="10" t="n">
         <f aca="false">I72+J72</f>
         <v>20</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>78</v>
+      <c r="L72" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="10" t="n">
+      <c r="B73" s="11" t="n">
         <v>45965</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -4002,33 +3999,33 @@
       <c r="F73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H73" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I73" s="9" t="n">
+      <c r="G73" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" s="10" t="n">
         <f aca="false">G73*H73</f>
         <v>15</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9" t="n">
+      <c r="J73" s="10"/>
+      <c r="K73" s="10" t="n">
         <f aca="false">I73+J73</f>
         <v>15</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L73" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="10" t="n">
+      <c r="B74" s="11" t="n">
         <v>45965</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -4040,33 +4037,33 @@
       <c r="F74" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G74" s="9" t="n">
+      <c r="G74" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H74" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I74" s="9" t="n">
+      <c r="H74" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" s="10" t="n">
         <f aca="false">G74*H74</f>
         <v>10</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9" t="n">
+      <c r="J74" s="10"/>
+      <c r="K74" s="10" t="n">
         <f aca="false">I74+J74</f>
         <v>10</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>79</v>
+      <c r="L74" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="10" t="n">
+      <c r="B75" s="11" t="n">
         <v>45965</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -4078,33 +4075,33 @@
       <c r="F75" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="9" t="n">
+      <c r="G75" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="H75" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" s="9" t="n">
+      <c r="H75" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" s="10" t="n">
         <f aca="false">G75*H75</f>
         <v>75</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9" t="n">
+      <c r="J75" s="10"/>
+      <c r="K75" s="10" t="n">
         <f aca="false">I75+J75</f>
         <v>75</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>80</v>
+      <c r="L75" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="10" t="n">
+      <c r="B76" s="11" t="n">
         <v>45974</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -4116,57 +4113,57 @@
       <c r="F76" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G76" s="9" t="n">
+      <c r="G76" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="H76" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" s="9" t="n">
+      <c r="H76" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="10" t="n">
         <f aca="false">G76*H76</f>
         <v>45</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9" t="n">
+      <c r="J76" s="10"/>
+      <c r="K76" s="10" t="n">
         <f aca="false">I76+J76</f>
         <v>45</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L76" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="10" t="n">
+      <c r="B77" s="11" t="n">
         <v>45976</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9" t="n">
+      <c r="F77" s="13"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10" t="n">
         <f aca="false">G77*H77</f>
         <v>0</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9" t="n">
+      <c r="J77" s="10"/>
+      <c r="K77" s="10" t="n">
         <f aca="false">I77+J77</f>
         <v>0</v>
       </c>
-      <c r="L77" s="9"/>
+      <c r="L77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="10" t="n">
+      <c r="A78" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -4178,33 +4175,33 @@
       <c r="F78" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="9" t="n">
+      <c r="G78" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="H78" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" s="9" t="n">
+      <c r="H78" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" s="10" t="n">
         <f aca="false">G78*H78</f>
         <v>54</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9" t="n">
+      <c r="J78" s="10"/>
+      <c r="K78" s="10" t="n">
         <f aca="false">I78+J78</f>
         <v>54</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="10" t="n">
+      <c r="B79" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="14" t="s">
@@ -4216,33 +4213,33 @@
       <c r="F79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G79" s="9" t="n">
+      <c r="G79" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H79" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I79" s="9" t="n">
+      <c r="H79" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" s="10" t="n">
         <f aca="false">G79*H79</f>
         <v>30</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9" t="n">
+      <c r="J79" s="10"/>
+      <c r="K79" s="10" t="n">
         <f aca="false">I79+J79</f>
         <v>30</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="10" t="n">
+      <c r="A80" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -4254,33 +4251,33 @@
       <c r="F80" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="9" t="n">
+      <c r="G80" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="H80" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="9" t="n">
+      <c r="H80" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="10" t="n">
         <f aca="false">G80*H80</f>
         <v>81</v>
       </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9" t="n">
+      <c r="J80" s="10"/>
+      <c r="K80" s="10" t="n">
         <f aca="false">I80+J80</f>
         <v>81</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="10" t="n">
+      <c r="B81" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="14" t="s">
@@ -4292,33 +4289,33 @@
       <c r="F81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="9" t="n">
+      <c r="G81" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H81" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I81" s="9" t="n">
+      <c r="H81" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" s="10" t="n">
         <f aca="false">G81*H81</f>
         <v>10</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9" t="n">
+      <c r="J81" s="10"/>
+      <c r="K81" s="10" t="n">
         <f aca="false">I81+J81</f>
         <v>10</v>
       </c>
-      <c r="L81" s="9" t="s">
-        <v>83</v>
+      <c r="L81" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="10" t="n">
+      <c r="A82" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="14" t="s">
@@ -4330,33 +4327,33 @@
       <c r="F82" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G82" s="9" t="n">
+      <c r="G82" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="H82" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" s="9" t="n">
+      <c r="H82" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" s="10" t="n">
         <f aca="false">G82*H82</f>
         <v>75</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9" t="n">
+      <c r="J82" s="10"/>
+      <c r="K82" s="10" t="n">
         <f aca="false">I82+J82</f>
         <v>75</v>
       </c>
-      <c r="L82" s="9" t="s">
-        <v>73</v>
+      <c r="L82" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="10" t="n">
+      <c r="A83" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="14" t="s">
@@ -4368,33 +4365,33 @@
       <c r="F83" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="9" t="n">
+      <c r="G83" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H83" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" s="9" t="n">
+      <c r="H83" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" s="10" t="n">
         <f aca="false">G83*H83</f>
         <v>6</v>
       </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9" t="n">
+      <c r="J83" s="10"/>
+      <c r="K83" s="10" t="n">
         <f aca="false">I83+J83</f>
         <v>6</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>84</v>
+      <c r="L83" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="10" t="n">
+      <c r="A84" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="14" t="s">
@@ -4403,36 +4400,36 @@
       <c r="E84" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F84" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G84" s="9" t="n">
+      <c r="G84" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H84" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" s="9" t="n">
+      <c r="H84" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="10" t="n">
         <f aca="false">G84*H84</f>
         <v>6</v>
       </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9" t="n">
+      <c r="J84" s="10"/>
+      <c r="K84" s="10" t="n">
         <f aca="false">I84+J84</f>
         <v>6</v>
       </c>
-      <c r="L84" s="9" t="s">
-        <v>85</v>
+      <c r="L84" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="10" t="n">
+      <c r="A85" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="14" t="s">
@@ -4441,36 +4438,36 @@
       <c r="E85" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="F85" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H85" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" s="9" t="n">
+      <c r="G85" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" s="10" t="n">
         <f aca="false">G85*H85</f>
         <v>15</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9" t="n">
+      <c r="J85" s="10"/>
+      <c r="K85" s="10" t="n">
         <f aca="false">I85+J85</f>
         <v>15</v>
       </c>
-      <c r="L85" s="9" t="s">
-        <v>86</v>
+      <c r="L85" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="10" t="n">
+      <c r="A86" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="14" t="s">
@@ -4479,36 +4476,36 @@
       <c r="E86" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G86" s="9" t="n">
+      <c r="G86" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H86" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" s="9" t="n">
+      <c r="H86" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="10" t="n">
         <f aca="false">G86*H86</f>
         <v>3</v>
       </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9" t="n">
+      <c r="J86" s="10"/>
+      <c r="K86" s="10" t="n">
         <f aca="false">I86+J86</f>
         <v>3</v>
       </c>
-      <c r="L86" s="9" t="s">
-        <v>87</v>
+      <c r="L86" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="10" t="n">
+      <c r="A87" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="11" t="n">
         <v>45978</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="14" t="s">
@@ -4520,33 +4517,33 @@
       <c r="F87" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G87" s="9" t="n">
+      <c r="G87" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" s="9" t="n">
+      <c r="H87" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" s="10" t="n">
         <f aca="false">G87*H87</f>
         <v>6</v>
       </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9" t="n">
+      <c r="J87" s="10"/>
+      <c r="K87" s="10" t="n">
         <f aca="false">I87+J87</f>
         <v>6</v>
       </c>
-      <c r="L87" s="9" t="s">
-        <v>88</v>
+      <c r="L87" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="10" t="n">
+      <c r="A88" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="11" t="n">
         <v>45982</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="14" t="s">
@@ -4558,33 +4555,33 @@
       <c r="F88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="9" t="n">
+      <c r="G88" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="H88" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" s="9" t="n">
+      <c r="H88" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="10" t="n">
         <f aca="false">G88*H88</f>
         <v>75</v>
       </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9" t="n">
+      <c r="J88" s="10"/>
+      <c r="K88" s="10" t="n">
         <f aca="false">I88+J88</f>
         <v>75</v>
       </c>
-      <c r="L88" s="9" t="s">
+      <c r="L88" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="10" t="n">
+      <c r="A89" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="11" t="n">
         <v>45982</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -4596,33 +4593,33 @@
       <c r="F89" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="9" t="n">
+      <c r="G89" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="H89" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" s="9" t="n">
+      <c r="H89" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" s="10" t="n">
         <f aca="false">G89*H89</f>
         <v>45</v>
       </c>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9" t="n">
+      <c r="J89" s="10"/>
+      <c r="K89" s="10" t="n">
         <f aca="false">I89+J89</f>
         <v>45</v>
       </c>
-      <c r="L89" s="9" t="s">
+      <c r="L89" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="10" t="n">
+      <c r="A90" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="11" t="n">
         <v>45982</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="14" t="s">
@@ -4634,33 +4631,33 @@
       <c r="F90" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G90" s="9" t="n">
+      <c r="G90" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H90" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I90" s="9" t="n">
+      <c r="H90" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" s="10" t="n">
         <f aca="false">G90*H90</f>
         <v>45</v>
       </c>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9" t="n">
+      <c r="J90" s="10"/>
+      <c r="K90" s="10" t="n">
         <f aca="false">I90+J90</f>
         <v>45</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="L90" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B91" s="10" t="n">
+      <c r="A91" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="11" t="n">
         <v>45982</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="14" t="s">
@@ -4672,33 +4669,33 @@
       <c r="F91" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G91" s="9" t="n">
+      <c r="G91" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="H91" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" s="9" t="n">
+      <c r="H91" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I91" s="10" t="n">
         <f aca="false">G91*H91</f>
         <v>51</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9" t="n">
+      <c r="J91" s="10"/>
+      <c r="K91" s="10" t="n">
         <f aca="false">I91+J91</f>
         <v>51</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L91" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="10" t="n">
+      <c r="A92" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="11" t="n">
         <v>45982</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="14" t="s">
@@ -4710,33 +4707,33 @@
       <c r="F92" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G92" s="9" t="n">
+      <c r="G92" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H92" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I92" s="9" t="n">
+      <c r="H92" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" s="10" t="n">
         <f aca="false">G92*H92</f>
         <v>30</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9" t="n">
+      <c r="J92" s="10"/>
+      <c r="K92" s="10" t="n">
         <f aca="false">I92+J92</f>
         <v>30</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="L92" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="10" t="n">
+      <c r="A93" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="11" t="n">
         <v>45982</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="14" t="s">
@@ -4748,33 +4745,33 @@
       <c r="F93" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="9" t="n">
+      <c r="G93" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="H93" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" s="9" t="n">
+      <c r="H93" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" s="10" t="n">
         <f aca="false">G93*H93</f>
         <v>81</v>
       </c>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9" t="n">
+      <c r="J93" s="10"/>
+      <c r="K93" s="10" t="n">
         <f aca="false">I93+J93</f>
         <v>81</v>
       </c>
-      <c r="L93" s="9" t="s">
+      <c r="L93" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="10" t="n">
+      <c r="A94" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="11" t="n">
         <v>45987</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="14" t="s">
@@ -4786,33 +4783,33 @@
       <c r="F94" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="9" t="n">
+      <c r="G94" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="H94" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" s="9" t="n">
+      <c r="H94" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" s="10" t="n">
         <f aca="false">G94*H94</f>
         <v>45</v>
       </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9" t="n">
+      <c r="J94" s="10"/>
+      <c r="K94" s="10" t="n">
         <f aca="false">I94+J94</f>
         <v>45</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="L94" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" s="10" t="n">
+      <c r="A95" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="11" t="n">
         <v>45987</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="14" t="s">
@@ -4824,33 +4821,33 @@
       <c r="F95" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="9" t="n">
+      <c r="G95" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="H95" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" s="9" t="n">
+      <c r="H95" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="10" t="n">
         <f aca="false">G95*H95</f>
         <v>117</v>
       </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9" t="n">
+      <c r="J95" s="10"/>
+      <c r="K95" s="10" t="n">
         <f aca="false">I95+J95</f>
         <v>117</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="L95" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B96" s="10" t="n">
+      <c r="A96" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="11" t="n">
         <v>45987</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="14" t="s">
@@ -4862,33 +4859,33 @@
       <c r="F96" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="9" t="n">
+      <c r="G96" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="H96" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" s="9" t="n">
+      <c r="H96" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="10" t="n">
         <f aca="false">G96*H96</f>
         <v>90</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9" t="n">
+      <c r="J96" s="10"/>
+      <c r="K96" s="10" t="n">
         <f aca="false">I96+J96</f>
         <v>90</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B97" s="10" t="n">
+      <c r="A97" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="11" t="n">
         <v>45987</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="14" t="s">
@@ -4900,33 +4897,33 @@
       <c r="F97" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="9" t="n">
+      <c r="G97" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="H97" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" s="9" t="n">
+      <c r="H97" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" s="10" t="n">
         <f aca="false">G97*H97</f>
         <v>90</v>
       </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9" t="n">
+      <c r="J97" s="10"/>
+      <c r="K97" s="10" t="n">
         <f aca="false">I97+J97</f>
         <v>90</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="L97" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B98" s="10" t="n">
+      <c r="A98" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="11" t="n">
         <v>45987</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="14" t="s">
@@ -4938,33 +4935,33 @@
       <c r="F98" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G98" s="9" t="n">
+      <c r="G98" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="H98" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" s="9" t="n">
+      <c r="H98" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="10" t="n">
         <f aca="false">G98*H98</f>
         <v>36</v>
       </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9" t="n">
+      <c r="J98" s="10"/>
+      <c r="K98" s="10" t="n">
         <f aca="false">I98+J98</f>
         <v>36</v>
       </c>
-      <c r="L98" s="9" t="s">
+      <c r="L98" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="10" t="n">
+      <c r="A99" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="14" t="s">
@@ -4976,33 +4973,33 @@
       <c r="F99" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G99" s="9" t="n">
+      <c r="G99" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="H99" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" s="9" t="n">
+      <c r="H99" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" s="10" t="n">
         <f aca="false">G99*H99</f>
         <v>63</v>
       </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9" t="n">
+      <c r="J99" s="10"/>
+      <c r="K99" s="10" t="n">
         <f aca="false">I99+J99</f>
         <v>63</v>
       </c>
-      <c r="L99" s="9" t="s">
+      <c r="L99" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100" s="10" t="n">
+      <c r="A100" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="14" t="s">
@@ -5014,33 +5011,33 @@
       <c r="F100" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G100" s="9" t="n">
+      <c r="G100" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H100" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="9" t="n">
+      <c r="H100" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="10" t="n">
         <f aca="false">G100*H100</f>
         <v>30</v>
       </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9" t="n">
+      <c r="J100" s="10"/>
+      <c r="K100" s="10" t="n">
         <f aca="false">I100+J100</f>
         <v>30</v>
       </c>
-      <c r="L100" s="9" t="s">
+      <c r="L100" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" s="10" t="n">
+      <c r="A101" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="14" t="s">
@@ -5052,36 +5049,36 @@
       <c r="F101" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="9" t="n">
+      <c r="G101" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="H101" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" s="9" t="n">
+      <c r="H101" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" s="10" t="n">
         <f aca="false">G101*H101</f>
         <v>33</v>
       </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9" t="n">
+      <c r="J101" s="10"/>
+      <c r="K101" s="10" t="n">
         <f aca="false">I101+J101</f>
         <v>33</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="L101" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B102" s="10" t="n">
+      <c r="A102" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="14" t="s">
@@ -5090,36 +5087,36 @@
       <c r="F102" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="9" t="n">
+      <c r="G102" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H102" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" s="9" t="n">
+      <c r="H102" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" s="10" t="n">
         <f aca="false">G102*H102</f>
         <v>12</v>
       </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9" t="n">
+      <c r="J102" s="10"/>
+      <c r="K102" s="10" t="n">
         <f aca="false">I102+J102</f>
         <v>12</v>
       </c>
-      <c r="L102" s="9" t="s">
+      <c r="L102" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B103" s="10" t="n">
+      <c r="A103" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="14" t="s">
@@ -5128,33 +5125,33 @@
       <c r="F103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G103" s="9" t="n">
+      <c r="G103" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H103" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" s="9" t="n">
+      <c r="H103" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" s="10" t="n">
         <f aca="false">G103*H103</f>
         <v>20</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9" t="n">
+      <c r="J103" s="10"/>
+      <c r="K103" s="10" t="n">
         <f aca="false">I103+J103</f>
         <v>20</v>
       </c>
-      <c r="L103" s="9" t="s">
+      <c r="L103" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B104" s="10" t="n">
+      <c r="A104" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="14" t="s">
@@ -5166,33 +5163,33 @@
       <c r="F104" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="9" t="n">
+      <c r="G104" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="H104" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="9" t="n">
+      <c r="H104" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="10" t="n">
         <f aca="false">G104*H104</f>
         <v>99</v>
       </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9" t="n">
+      <c r="J104" s="10"/>
+      <c r="K104" s="10" t="n">
         <f aca="false">I104+J104</f>
         <v>99</v>
       </c>
-      <c r="L104" s="9" t="s">
+      <c r="L104" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105" s="10" t="n">
+      <c r="A105" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -5204,33 +5201,33 @@
       <c r="F105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G105" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H105" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I105" s="9" t="n">
+      <c r="G105" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I105" s="10" t="n">
         <f aca="false">G105*H105</f>
         <v>25</v>
       </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9" t="n">
+      <c r="J105" s="10"/>
+      <c r="K105" s="10" t="n">
         <f aca="false">I105+J105</f>
         <v>25</v>
       </c>
-      <c r="L105" s="9" t="s">
+      <c r="L105" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B106" s="10" t="n">
+      <c r="A106" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="14" t="s">
@@ -5242,30 +5239,30 @@
       <c r="F106" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="9" t="n">
+      <c r="G106" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="H106" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" s="9" t="n">
+      <c r="H106" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" s="10" t="n">
         <f aca="false">G106*H106</f>
         <v>33</v>
       </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9" t="n">
+      <c r="J106" s="10"/>
+      <c r="K106" s="10" t="n">
         <f aca="false">I106+J106</f>
         <v>33</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="L106" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B107" s="10" t="n">
+      <c r="A107" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="11" t="n">
         <v>45989</v>
       </c>
       <c r="C107" s="18" t="s">
@@ -5280,33 +5277,33 @@
       <c r="F107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G107" s="9" t="n">
+      <c r="G107" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H107" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I107" s="9" t="n">
+      <c r="H107" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I107" s="10" t="n">
         <f aca="false">G107*H107</f>
         <v>20</v>
       </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9" t="n">
+      <c r="J107" s="10"/>
+      <c r="K107" s="10" t="n">
         <f aca="false">I107+J107</f>
         <v>20</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" s="10" t="n">
+      <c r="A108" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="14" t="s">
@@ -5318,33 +5315,33 @@
       <c r="F108" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G108" s="9" t="n">
+      <c r="G108" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="H108" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="9" t="n">
+      <c r="H108" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="10" t="n">
         <f aca="false">G108*H108</f>
         <v>78</v>
       </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9" t="n">
+      <c r="J108" s="10"/>
+      <c r="K108" s="10" t="n">
         <f aca="false">I108+J108</f>
         <v>78</v>
       </c>
-      <c r="L108" s="9" t="s">
+      <c r="L108" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" s="10" t="n">
+      <c r="A109" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="14" t="s">
@@ -5356,34 +5353,34 @@
       <c r="F109" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G109" s="9" t="n">
+      <c r="G109" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H109" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" s="9" t="n">
+      <c r="H109" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" s="10" t="n">
         <f aca="false">G109*H109</f>
         <v>3</v>
       </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9" t="n">
+      <c r="J109" s="10"/>
+      <c r="K109" s="10" t="n">
         <f aca="false">I109+J109</f>
         <v>3</v>
       </c>
-      <c r="L109" s="9" t="s">
-        <v>73</v>
+      <c r="L109" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B110" s="10" t="n">
+      <c r="A110" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="11" t="n">
         <v>45989</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>72</v>
+      <c r="C110" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>5</v>
@@ -5394,33 +5391,33 @@
       <c r="F110" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G110" s="9" t="n">
+      <c r="G110" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="H110" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" s="9" t="n">
+      <c r="H110" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" s="10" t="n">
         <f aca="false">G110*H110</f>
         <v>21</v>
       </c>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9" t="n">
+      <c r="J110" s="10"/>
+      <c r="K110" s="10" t="n">
         <f aca="false">I110+J110</f>
         <v>21</v>
       </c>
-      <c r="L110" s="9" t="s">
+      <c r="L110" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B111" s="10" t="n">
+      <c r="A111" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="11" t="n">
         <v>45993</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="14" t="s">
@@ -5432,34 +5429,34 @@
       <c r="F111" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G111" s="9" t="n">
+      <c r="G111" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="H111" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" s="9" t="n">
+      <c r="H111" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" s="10" t="n">
         <f aca="false">G111*H111</f>
         <v>165</v>
       </c>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9" t="n">
+      <c r="J111" s="10"/>
+      <c r="K111" s="10" t="n">
         <f aca="false">I111+J111</f>
         <v>165</v>
       </c>
-      <c r="L111" s="9" t="s">
+      <c r="L111" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" s="10" t="n">
+      <c r="A112" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" s="11" t="n">
         <v>45993</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>72</v>
+      <c r="C112" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>5</v>
@@ -5470,537 +5467,537 @@
       <c r="F112" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G112" s="9" t="n">
+      <c r="G112" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H112" s="9" t="n">
+      <c r="H112" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="I112" s="9" t="n">
+      <c r="I112" s="10" t="n">
         <f aca="false">G112*H112</f>
         <v>16</v>
       </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9" t="n">
+      <c r="J112" s="10"/>
+      <c r="K112" s="10" t="n">
         <f aca="false">I112+J112</f>
         <v>16</v>
       </c>
-      <c r="L112" s="9" t="s">
+      <c r="L112" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="11"/>
+      <c r="A113" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9" t="n">
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10" t="n">
         <f aca="false">G113*H113</f>
         <v>0</v>
       </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9" t="n">
+      <c r="J113" s="10"/>
+      <c r="K113" s="10" t="n">
         <f aca="false">I113+J113</f>
         <v>0</v>
       </c>
-      <c r="L113" s="9"/>
+      <c r="L113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
+      <c r="A114" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9" t="n">
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10" t="n">
         <f aca="false">G114*H114</f>
         <v>0</v>
       </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9" t="n">
+      <c r="J114" s="10"/>
+      <c r="K114" s="10" t="n">
         <f aca="false">I114+J114</f>
         <v>0</v>
       </c>
-      <c r="L114" s="9"/>
+      <c r="L114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="11"/>
+      <c r="A115" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9" t="n">
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10" t="n">
         <f aca="false">G115*H115</f>
         <v>0</v>
       </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9" t="n">
+      <c r="J115" s="10"/>
+      <c r="K115" s="10" t="n">
         <f aca="false">I115+J115</f>
         <v>0</v>
       </c>
-      <c r="L115" s="9"/>
+      <c r="L115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
+      <c r="A116" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9" t="n">
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10" t="n">
         <f aca="false">G116*H116</f>
         <v>0</v>
       </c>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9" t="n">
+      <c r="J116" s="10"/>
+      <c r="K116" s="10" t="n">
         <f aca="false">I116+J116</f>
         <v>0</v>
       </c>
-      <c r="L116" s="9"/>
+      <c r="L116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="11"/>
+      <c r="A117" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9" t="n">
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10" t="n">
         <f aca="false">G117*H117</f>
         <v>0</v>
       </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9" t="n">
+      <c r="J117" s="10"/>
+      <c r="K117" s="10" t="n">
         <f aca="false">I117+J117</f>
         <v>0</v>
       </c>
-      <c r="L117" s="9"/>
+      <c r="L117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="12"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="13"/>
       <c r="E118" s="17"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9" t="n">
+      <c r="F118" s="13"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10" t="n">
         <f aca="false">G118*H118</f>
         <v>0</v>
       </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9" t="n">
+      <c r="J118" s="10"/>
+      <c r="K118" s="10" t="n">
         <f aca="false">I118+J118</f>
         <v>0</v>
       </c>
-      <c r="L118" s="9"/>
+      <c r="L118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="12"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="13"/>
       <c r="E119" s="17"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9" t="n">
+      <c r="F119" s="13"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10" t="n">
         <f aca="false">G119*H119</f>
         <v>0</v>
       </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9" t="n">
+      <c r="J119" s="10"/>
+      <c r="K119" s="10" t="n">
         <f aca="false">I119+J119</f>
         <v>0</v>
       </c>
-      <c r="L119" s="9"/>
+      <c r="L119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="17"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9" t="n">
+      <c r="F120" s="13"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10" t="n">
         <f aca="false">G120*H120</f>
         <v>0</v>
       </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9" t="n">
+      <c r="J120" s="10"/>
+      <c r="K120" s="10" t="n">
         <f aca="false">I120+J120</f>
         <v>0</v>
       </c>
-      <c r="L120" s="9"/>
+      <c r="L120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="12"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="13"/>
       <c r="E121" s="17"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9" t="n">
+      <c r="F121" s="13"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10" t="n">
         <f aca="false">G121*H121</f>
         <v>0</v>
       </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9" t="n">
+      <c r="J121" s="10"/>
+      <c r="K121" s="10" t="n">
         <f aca="false">I121+J121</f>
         <v>0</v>
       </c>
-      <c r="L121" s="9"/>
+      <c r="L121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="12"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13"/>
       <c r="E122" s="17"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9" t="n">
+      <c r="F122" s="13"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10" t="n">
         <f aca="false">G122*H122</f>
         <v>0</v>
       </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9" t="n">
+      <c r="J122" s="10"/>
+      <c r="K122" s="10" t="n">
         <f aca="false">I122+J122</f>
         <v>0</v>
       </c>
-      <c r="L122" s="9"/>
+      <c r="L122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="12"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
       <c r="E123" s="17"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9" t="n">
+      <c r="F123" s="13"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10" t="n">
         <f aca="false">G123*H123</f>
         <v>0</v>
       </c>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9" t="n">
+      <c r="J123" s="10"/>
+      <c r="K123" s="10" t="n">
         <f aca="false">I123+J123</f>
         <v>0</v>
       </c>
-      <c r="L123" s="9"/>
+      <c r="L123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="12"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="13"/>
       <c r="E124" s="17"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9" t="n">
+      <c r="F124" s="13"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10" t="n">
         <f aca="false">G124*H124</f>
         <v>0</v>
       </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9" t="n">
+      <c r="J124" s="10"/>
+      <c r="K124" s="10" t="n">
         <f aca="false">I124+J124</f>
         <v>0</v>
       </c>
-      <c r="L124" s="9"/>
+      <c r="L124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="12"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="13"/>
       <c r="E125" s="17"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9" t="n">
+      <c r="F125" s="13"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10" t="n">
         <f aca="false">G125*H125</f>
         <v>0</v>
       </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9" t="n">
+      <c r="J125" s="10"/>
+      <c r="K125" s="10" t="n">
         <f aca="false">I125+J125</f>
         <v>0</v>
       </c>
-      <c r="L125" s="9"/>
+      <c r="L125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="17"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9" t="n">
+      <c r="F126" s="13"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10" t="n">
         <f aca="false">G126*H126</f>
         <v>0</v>
       </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9" t="n">
+      <c r="J126" s="10"/>
+      <c r="K126" s="10" t="n">
         <f aca="false">I126+J126</f>
         <v>0</v>
       </c>
-      <c r="L126" s="9"/>
+      <c r="L126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="12"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="13"/>
       <c r="E127" s="17"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9" t="n">
+      <c r="F127" s="13"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10" t="n">
         <f aca="false">G127*H127</f>
         <v>0</v>
       </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9" t="n">
+      <c r="J127" s="10"/>
+      <c r="K127" s="10" t="n">
         <f aca="false">I127+J127</f>
         <v>0</v>
       </c>
-      <c r="L127" s="9"/>
+      <c r="L127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="12"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13"/>
       <c r="E128" s="17"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9" t="n">
+      <c r="F128" s="13"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10" t="n">
         <f aca="false">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9" t="n">
+      <c r="J128" s="10"/>
+      <c r="K128" s="10" t="n">
         <f aca="false">I128+J128</f>
         <v>0</v>
       </c>
-      <c r="L128" s="9"/>
+      <c r="L128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="12"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="13"/>
       <c r="E129" s="17"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9" t="n">
+      <c r="F129" s="13"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10" t="n">
         <f aca="false">G129*H129</f>
         <v>0</v>
       </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9" t="n">
+      <c r="J129" s="10"/>
+      <c r="K129" s="10" t="n">
         <f aca="false">I129+J129</f>
         <v>0</v>
       </c>
-      <c r="L129" s="9"/>
+      <c r="L129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="12"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="13"/>
       <c r="E130" s="17"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9" t="n">
+      <c r="F130" s="13"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10" t="n">
         <f aca="false">G130*H130</f>
         <v>0</v>
       </c>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9" t="n">
+      <c r="J130" s="10"/>
+      <c r="K130" s="10" t="n">
         <f aca="false">I130+J130</f>
         <v>0</v>
       </c>
-      <c r="L130" s="9"/>
+      <c r="L130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B131" s="10" t="n">
+      <c r="A131" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" s="11" t="n">
         <v>46006</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="13"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9" t="n">
+      <c r="F131" s="13"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10" t="n">
         <f aca="false">G131*H131</f>
         <v>0</v>
       </c>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9" t="n">
+      <c r="J131" s="10"/>
+      <c r="K131" s="10" t="n">
         <f aca="false">I131+J131</f>
         <v>0</v>
       </c>
-      <c r="L131" s="9"/>
+      <c r="L131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="12"/>
+      <c r="A132" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="13"/>
       <c r="E132" s="17"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9" t="n">
+      <c r="F132" s="13"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10" t="n">
         <f aca="false">G132*H132</f>
         <v>0</v>
       </c>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9" t="n">
+      <c r="J132" s="10"/>
+      <c r="K132" s="10" t="n">
         <f aca="false">I132+J132</f>
         <v>0</v>
       </c>
-      <c r="L132" s="9"/>
+      <c r="L132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="12"/>
+      <c r="A133" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13"/>
       <c r="E133" s="17"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9" t="n">
+      <c r="F133" s="13"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10" t="n">
         <f aca="false">G133*H133</f>
         <v>0</v>
       </c>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9" t="n">
+      <c r="J133" s="10"/>
+      <c r="K133" s="10" t="n">
         <f aca="false">I133+J133</f>
         <v>0</v>
       </c>
-      <c r="L133" s="9"/>
+      <c r="L133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="12"/>
+      <c r="A134" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="13"/>
       <c r="E134" s="17"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9" t="n">
+      <c r="F134" s="13"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10" t="n">
         <f aca="false">G134*H134</f>
         <v>0</v>
       </c>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9" t="n">
+      <c r="J134" s="10"/>
+      <c r="K134" s="10" t="n">
         <f aca="false">I134+J134</f>
         <v>0</v>
       </c>
-      <c r="L134" s="9"/>
+      <c r="L134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B135" s="10" t="n">
+      <c r="A135" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="11" t="n">
         <v>46010</v>
       </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="13"/>
       <c r="E135" s="17"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9" t="n">
+      <c r="F135" s="13"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10" t="n">
         <f aca="false">G135*H135</f>
         <v>0</v>
       </c>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9" t="n">
+      <c r="J135" s="10"/>
+      <c r="K135" s="10" t="n">
         <f aca="false">I135+J135</f>
         <v>0</v>
       </c>
-      <c r="L135" s="9"/>
+      <c r="L135" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C71"/>
+  <autoFilter ref="C1:C76"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="93">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t xml:space="preserve">Outros – travesseiros de criança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – feijão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – flocão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – amido de milho</t>
   </si>
   <si>
     <t xml:space="preserve">3ºSPRINT</t>
@@ -435,10 +444,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,6 +474,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -719,7 +728,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -841,7 +850,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1239,10 +1248,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,9 +1259,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="29.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="24.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="29.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="2" width="23.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="69.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="13" style="2" width="8.59"/>
@@ -1269,13 +1278,13 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1298,42 +1307,42 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="10" t="n">
         <v>45944</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="n">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="n">
         <f aca="false">G2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="n">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9" t="n">
         <f aca="false">I2+J2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="11" t="n">
+      <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>45957</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -1354,18 +1363,18 @@
         <f aca="false">I3+J3</f>
         <v>220</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="11" t="n">
+      <c r="A4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>45957</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1392,132 +1401,132 @@
         <f aca="false">I4+J4</f>
         <v>96</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="11" t="n">
+      <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H5" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10" t="n">
+      <c r="H5" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9" t="n">
         <f aca="false">G5*H5</f>
         <v>45</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="n">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="n">
         <f aca="false">I5+J5</f>
         <v>45</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="11" t="n">
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" s="10" t="n">
+      <c r="H6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9" t="n">
         <f aca="false">G6*H6</f>
         <v>45</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="n">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="n">
         <f aca="false">I6+J6</f>
         <v>45</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="11" t="n">
+      <c r="A7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H7" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10" t="n">
+      <c r="H7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9" t="n">
         <f aca="false">G7*H7</f>
         <v>45</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="n">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="n">
         <f aca="false">I7+J7</f>
         <v>45</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="11" t="n">
+      <c r="A8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -1529,182 +1538,182 @@
       <c r="F8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H8" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10" t="n">
+      <c r="H8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9" t="n">
         <f aca="false">G8*H8</f>
         <v>45</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="n">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="n">
         <f aca="false">I8+J8</f>
         <v>45</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="11" t="n">
+      <c r="A9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H9" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="10" t="n">
+      <c r="H9" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="9" t="n">
         <f aca="false">G9*H9</f>
         <v>45</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="n">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="n">
         <f aca="false">I9+J9</f>
         <v>45</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="11" t="n">
+      <c r="A10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10" t="n">
+      <c r="H10" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9" t="n">
         <f aca="false">G10*H10</f>
         <v>45</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="n">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="n">
         <f aca="false">I10+J10</f>
         <v>45</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="11" t="n">
+      <c r="A11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H11" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10" t="n">
+      <c r="H11" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="9" t="n">
         <f aca="false">G11*H11</f>
         <v>35</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="n">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="n">
         <f aca="false">I11+J11</f>
         <v>35</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="11" t="n">
+      <c r="A12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>45958</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H12" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="10" t="n">
+      <c r="H12" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9" t="n">
         <f aca="false">G12*H12</f>
         <v>45</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="n">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="n">
         <f aca="false">I12+J12</f>
         <v>45</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="11" t="n">
+      <c r="A13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="10" t="n">
         <v>45958</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -1713,39 +1722,39 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10" t="n">
+      <c r="H13" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="9" t="n">
         <f aca="false">G13*H13</f>
         <v>45</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="n">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="n">
         <f aca="false">I13+J13</f>
         <v>45</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="11" t="n">
+      <c r="A14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1757,33 +1766,33 @@
       <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="H14" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10" t="n">
+      <c r="H14" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="9" t="n">
         <f aca="false">G14*H14</f>
         <v>165</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="n">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="n">
         <f aca="false">I14+J14</f>
         <v>165</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="11" t="n">
+      <c r="A15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1795,33 +1804,33 @@
       <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H15" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10" t="n">
+      <c r="H15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="9" t="n">
         <f aca="false">G15*H15</f>
         <v>30</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="n">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="n">
         <f aca="false">I15+J15</f>
         <v>30</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="11" t="n">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -1833,33 +1842,33 @@
       <c r="F16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H16" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="10" t="n">
+      <c r="H16" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9" t="n">
         <f aca="false">G16*H16</f>
         <v>50</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="n">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="n">
         <f aca="false">I16+J16</f>
         <v>50</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="11" t="n">
+      <c r="A17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1871,33 +1880,33 @@
       <c r="F17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H17" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="10" t="n">
+      <c r="H17" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="9" t="n">
         <f aca="false">G17*H17</f>
         <v>30</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="n">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="n">
         <f aca="false">I17+J17</f>
         <v>30</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="11" t="n">
+      <c r="A18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -1909,33 +1918,33 @@
       <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" s="10" t="n">
+      <c r="G18" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9" t="n">
         <f aca="false">G18*H18</f>
         <v>15</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="n">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="n">
         <f aca="false">I18+J18</f>
         <v>15</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="11" t="n">
+      <c r="A19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -1947,33 +1956,33 @@
       <c r="F19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G19" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H19" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" s="10" t="n">
+      <c r="H19" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="9" t="n">
         <f aca="false">G19*H19</f>
         <v>57</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="n">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="n">
         <f aca="false">I19+J19</f>
         <v>57</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="11" t="n">
+      <c r="A20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -1985,33 +1994,33 @@
       <c r="F20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G20" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="10" t="n">
+      <c r="H20" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9" t="n">
         <f aca="false">G20*H20</f>
         <v>5</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="n">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="n">
         <f aca="false">I20+J20</f>
         <v>5</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="11" t="n">
+      <c r="A21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2023,109 +2032,109 @@
       <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G21" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H21" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="10" t="n">
+      <c r="H21" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="9" t="n">
         <f aca="false">G21*H21</f>
         <v>33</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="n">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="n">
         <f aca="false">I21+J21</f>
         <v>33</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="11" t="n">
+      <c r="A22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G22" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H22" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" s="10" t="n">
+      <c r="H22" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9" t="n">
         <f aca="false">G22*H22</f>
         <v>50</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="n">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="n">
         <f aca="false">I22+J22</f>
         <v>50</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="11" t="n">
+      <c r="A23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="10" t="n">
         <v>45959</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G23" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I23" s="10" t="n">
+      <c r="H23" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9" t="n">
         <f aca="false">G23*H23</f>
         <v>50</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="n">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9" t="n">
         <f aca="false">I23+J23</f>
         <v>50</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="11" t="n">
+      <c r="A24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2137,33 +2146,33 @@
       <c r="F24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G24" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" s="10" t="n">
+      <c r="H24" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9" t="n">
         <f aca="false">G24*H24</f>
         <v>3</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10" t="n">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="n">
         <f aca="false">I24+J24</f>
         <v>3</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11" t="n">
+      <c r="A25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -2175,33 +2184,33 @@
       <c r="F25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G25" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="H25" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" s="10" t="n">
+      <c r="H25" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="9" t="n">
         <f aca="false">G25*H25</f>
         <v>114</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10" t="n">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="n">
         <f aca="false">I25+J25</f>
         <v>114</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="11" t="n">
+      <c r="A26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -2213,33 +2222,33 @@
       <c r="F26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G26" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H26" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" s="10" t="n">
+      <c r="H26" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9" t="n">
         <f aca="false">G26*H26</f>
         <v>24</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="n">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="n">
         <f aca="false">I26+J26</f>
         <v>24</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="11" t="n">
+      <c r="A27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -2251,33 +2260,33 @@
       <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G27" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H27" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="10" t="n">
+      <c r="H27" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="9" t="n">
         <f aca="false">G27*H27</f>
         <v>30</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10" t="n">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="n">
         <f aca="false">I27+J27</f>
         <v>30</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="11" t="n">
+      <c r="A28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2289,33 +2298,33 @@
       <c r="F28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G28" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H28" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" s="10" t="n">
+      <c r="H28" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9" t="n">
         <f aca="false">G28*H28</f>
         <v>45</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10" t="n">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="n">
         <f aca="false">I28+J28</f>
         <v>45</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="11" t="n">
+      <c r="A29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2327,33 +2336,33 @@
       <c r="F29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H29" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" s="10" t="n">
+      <c r="H29" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="9" t="n">
         <f aca="false">G29*H29</f>
         <v>24</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10" t="n">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9" t="n">
         <f aca="false">I29+J29</f>
         <v>24</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="11" t="n">
+      <c r="A30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2365,33 +2374,33 @@
       <c r="F30" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G30" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H30" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" s="10" t="n">
+      <c r="H30" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" s="9" t="n">
         <f aca="false">G30*H30</f>
         <v>40</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="n">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9" t="n">
         <f aca="false">I30+J30</f>
         <v>40</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="11" t="n">
+      <c r="A31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -2403,33 +2412,33 @@
       <c r="F31" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H31" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I31" s="10" t="n">
+      <c r="H31" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="9" t="n">
         <f aca="false">G31*H31</f>
         <v>40</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="n">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9" t="n">
         <f aca="false">I31+J31</f>
         <v>40</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="11" t="n">
+      <c r="A32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="10" t="n">
         <v>45960</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2441,30 +2450,30 @@
       <c r="F32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G32" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H32" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I32" s="10" t="n">
+      <c r="H32" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" s="9" t="n">
         <f aca="false">G32*H32</f>
         <v>135</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="n">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9" t="n">
         <f aca="false">I32+J32</f>
         <v>135</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="11" t="n">
+      <c r="A33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="10" t="n">
         <v>45961</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2479,33 +2488,33 @@
       <c r="F33" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H33" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" s="10" t="n">
+      <c r="G33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="9" t="n">
         <f aca="false">G33*H33</f>
         <v>15</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="n">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="n">
         <f aca="false">I33+J33</f>
         <v>15</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="11" t="n">
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -2517,33 +2526,33 @@
       <c r="F34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="G34" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H34" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" s="10" t="n">
+      <c r="H34" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="9" t="n">
         <f aca="false">G34*H34</f>
         <v>27</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10" t="n">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9" t="n">
         <f aca="false">I34+J34</f>
         <v>27</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="11" t="n">
+      <c r="A35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -2555,33 +2564,33 @@
       <c r="F35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H35" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" s="10" t="n">
+      <c r="G35" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="9" t="n">
         <f aca="false">G35*H35</f>
         <v>60</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="n">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9" t="n">
         <f aca="false">I35+J35</f>
         <v>60</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="11" t="n">
+      <c r="A36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -2593,33 +2602,33 @@
       <c r="F36" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I36" s="10" t="n">
+      <c r="G36" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="9" t="n">
         <f aca="false">G36*H36</f>
         <v>60</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="n">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="n">
         <f aca="false">I36+J36</f>
         <v>60</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="11" t="n">
+      <c r="A37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -2631,33 +2640,33 @@
       <c r="F37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="10" t="n">
+      <c r="G37" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" s="10" t="n">
+      <c r="H37" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="9" t="n">
         <f aca="false">G37*H37</f>
         <v>12</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="n">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9" t="n">
         <f aca="false">I37+J37</f>
         <v>12</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="11" t="n">
+      <c r="A38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -2669,33 +2678,33 @@
       <c r="F38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H38" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" s="10" t="n">
+      <c r="G38" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="9" t="n">
         <f aca="false">G38*H38</f>
         <v>60</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10" t="n">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="n">
         <f aca="false">I38+J38</f>
         <v>60</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="11" t="n">
+      <c r="A39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -2707,33 +2716,33 @@
       <c r="F39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" s="10" t="n">
+      <c r="G39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" s="9" t="n">
         <f aca="false">G39*H39</f>
         <v>15</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10" t="n">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="n">
         <f aca="false">I39+J39</f>
         <v>15</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="11" t="n">
+      <c r="A40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -2745,33 +2754,33 @@
       <c r="F40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="10" t="n">
+      <c r="G40" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H40" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" s="10" t="n">
+      <c r="H40" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" s="9" t="n">
         <f aca="false">G40*H40</f>
         <v>10</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="n">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="n">
         <f aca="false">I40+J40</f>
         <v>10</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="11" t="n">
+      <c r="A41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="10" t="n">
         <v>45961</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -2783,33 +2792,33 @@
       <c r="F41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G41" s="10" t="n">
+      <c r="G41" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H41" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I41" s="10" t="n">
+      <c r="H41" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="9" t="n">
         <f aca="false">G41*H41</f>
         <v>63</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="n">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9" t="n">
         <f aca="false">I41+J41</f>
         <v>63</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="11" t="n">
+      <c r="A42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -2821,33 +2830,33 @@
       <c r="F42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="10" t="n">
+      <c r="G42" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H42" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I42" s="10" t="n">
+      <c r="H42" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" s="9" t="n">
         <f aca="false">G42*H42</f>
         <v>63</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="n">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9" t="n">
         <f aca="false">I42+J42</f>
         <v>63</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="11" t="n">
+      <c r="A43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -2859,33 +2868,33 @@
       <c r="F43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H43" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I43" s="10" t="n">
+      <c r="G43" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H43" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="9" t="n">
         <f aca="false">G43*H43</f>
         <v>60</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10" t="n">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9" t="n">
         <f aca="false">I43+J43</f>
         <v>60</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="11" t="n">
+      <c r="A44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -2897,33 +2906,33 @@
       <c r="F44" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H44" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I44" s="10" t="n">
+      <c r="G44" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="9" t="n">
         <f aca="false">G44*H44</f>
         <v>60</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10" t="n">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9" t="n">
         <f aca="false">I44+J44</f>
         <v>60</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="11" t="n">
+      <c r="A45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -2935,33 +2944,33 @@
       <c r="F45" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H45" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" s="10" t="n">
+      <c r="G45" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="9" t="n">
         <f aca="false">G45*H45</f>
         <v>60</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10" t="n">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9" t="n">
         <f aca="false">I45+J45</f>
         <v>60</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="11" t="n">
+      <c r="A46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -2973,33 +2982,33 @@
       <c r="F46" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H46" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" s="10" t="n">
+      <c r="G46" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="9" t="n">
         <f aca="false">G46*H46</f>
         <v>60</v>
       </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10" t="n">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9" t="n">
         <f aca="false">I46+J46</f>
         <v>60</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="11" t="n">
+      <c r="A47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -3011,33 +3020,33 @@
       <c r="F47" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="10" t="n">
+      <c r="G47" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="H47" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" s="10" t="n">
+      <c r="H47" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="9" t="n">
         <f aca="false">G47*H47</f>
         <v>150</v>
       </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10" t="n">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9" t="n">
         <f aca="false">I47+J47</f>
         <v>150</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="11" t="n">
+      <c r="A48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -3049,33 +3058,33 @@
       <c r="F48" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H48" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I48" s="10" t="n">
+      <c r="G48" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="9" t="n">
         <f aca="false">G48*H48</f>
         <v>60</v>
       </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10" t="n">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="n">
         <f aca="false">I48+J48</f>
         <v>60</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="11" t="n">
+      <c r="A49" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -3087,33 +3096,33 @@
       <c r="F49" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H49" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I49" s="10" t="n">
+      <c r="G49" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="9" t="n">
         <f aca="false">G49*H49</f>
         <v>60</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10" t="n">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="n">
         <f aca="false">I49+J49</f>
         <v>60</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="11" t="n">
+      <c r="A50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -3125,33 +3134,33 @@
       <c r="F50" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H50" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" s="10" t="n">
+      <c r="G50" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="9" t="n">
         <f aca="false">G50*H50</f>
         <v>60</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10" t="n">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="n">
         <f aca="false">I50+J50</f>
         <v>60</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="11" t="n">
+      <c r="A51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -3163,33 +3172,33 @@
       <c r="F51" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G51" s="10" t="n">
+      <c r="G51" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="H51" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I51" s="10" t="n">
+      <c r="H51" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="9" t="n">
         <f aca="false">G51*H51</f>
         <v>36</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10" t="n">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9" t="n">
         <f aca="false">I51+J51</f>
         <v>36</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="11" t="n">
+      <c r="A52" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -3201,33 +3210,33 @@
       <c r="F52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G52" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H52" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" s="10" t="n">
+      <c r="G52" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" s="9" t="n">
         <f aca="false">G52*H52</f>
         <v>15</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10" t="n">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9" t="n">
         <f aca="false">I52+J52</f>
         <v>15</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="11" t="n">
+      <c r="A53" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3239,33 +3248,33 @@
       <c r="F53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="10" t="n">
+      <c r="G53" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I53" s="10" t="n">
+      <c r="H53" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I53" s="9" t="n">
         <f aca="false">G53*H53</f>
         <v>20</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10" t="n">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9" t="n">
         <f aca="false">I53+J53</f>
         <v>20</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="11" t="n">
+      <c r="A54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="14" t="s">
@@ -3277,33 +3286,33 @@
       <c r="F54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="10" t="n">
+      <c r="G54" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H54" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I54" s="10" t="n">
+      <c r="H54" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I54" s="9" t="n">
         <f aca="false">G54*H54</f>
         <v>20</v>
       </c>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10" t="n">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9" t="n">
         <f aca="false">I54+J54</f>
         <v>20</v>
       </c>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="11" t="n">
+      <c r="A55" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -3315,33 +3324,33 @@
       <c r="F55" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="10" t="n">
+      <c r="G55" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H55" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I55" s="10" t="n">
+      <c r="H55" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I55" s="9" t="n">
         <f aca="false">G55*H55</f>
         <v>20</v>
       </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10" t="n">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9" t="n">
         <f aca="false">I55+J55</f>
         <v>20</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="11" t="n">
+      <c r="A56" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -3353,33 +3362,33 @@
       <c r="F56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G56" s="10" t="n">
+      <c r="G56" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H56" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I56" s="10" t="n">
+      <c r="H56" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I56" s="9" t="n">
         <f aca="false">G56*H56</f>
         <v>20</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10" t="n">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9" t="n">
         <f aca="false">I56+J56</f>
         <v>20</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="11" t="n">
+      <c r="A57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -3391,33 +3400,33 @@
       <c r="F57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="10" t="n">
+      <c r="G57" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H57" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I57" s="10" t="n">
+      <c r="H57" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I57" s="9" t="n">
         <f aca="false">G57*H57</f>
         <v>20</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10" t="n">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9" t="n">
         <f aca="false">I57+J57</f>
         <v>20</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="11" t="n">
+      <c r="A58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -3429,33 +3438,33 @@
       <c r="F58" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="10" t="n">
+      <c r="G58" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I58" s="10" t="n">
+      <c r="H58" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I58" s="9" t="n">
         <f aca="false">G58*H58</f>
         <v>20</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10" t="n">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9" t="n">
         <f aca="false">I58+J58</f>
         <v>20</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="11" t="n">
+      <c r="A59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="14" t="s">
@@ -3467,30 +3476,30 @@
       <c r="F59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="10" t="n">
+      <c r="G59" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I59" s="10" t="n">
+      <c r="H59" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I59" s="9" t="n">
         <f aca="false">G59*H59</f>
         <v>20</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10" t="n">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9" t="n">
         <f aca="false">I59+J59</f>
         <v>20</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="11" t="n">
+      <c r="A60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="10" t="n">
         <v>45964</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3505,33 +3514,33 @@
       <c r="F60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G60" s="10" t="n">
+      <c r="G60" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H60" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I60" s="10" t="n">
+      <c r="H60" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" s="9" t="n">
         <f aca="false">G60*H60</f>
         <v>20</v>
       </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10" t="n">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9" t="n">
         <f aca="false">I60+J60</f>
         <v>20</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="11" t="n">
+      <c r="A61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -3543,33 +3552,33 @@
       <c r="F61" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="10" t="n">
+      <c r="G61" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H61" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I61" s="10" t="n">
+      <c r="H61" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" s="9" t="n">
         <f aca="false">G61*H61</f>
         <v>20</v>
       </c>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10" t="n">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9" t="n">
         <f aca="false">I61+J61</f>
         <v>20</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="11" t="n">
+      <c r="A62" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -3581,33 +3590,33 @@
       <c r="F62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G62" s="10" t="n">
+      <c r="G62" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H62" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I62" s="10" t="n">
+      <c r="H62" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I62" s="9" t="n">
         <f aca="false">G62*H62</f>
         <v>20</v>
       </c>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10" t="n">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9" t="n">
         <f aca="false">I62+J62</f>
         <v>20</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="11" t="n">
+      <c r="A63" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -3619,33 +3628,33 @@
       <c r="F63" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G63" s="10" t="n">
+      <c r="G63" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H63" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I63" s="10" t="n">
+      <c r="H63" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I63" s="9" t="n">
         <f aca="false">G63*H63</f>
         <v>20</v>
       </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10" t="n">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9" t="n">
         <f aca="false">I63+J63</f>
         <v>20</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="11" t="n">
+      <c r="A64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -3657,33 +3666,33 @@
       <c r="F64" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="10" t="n">
+      <c r="G64" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H64" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I64" s="10" t="n">
+      <c r="H64" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I64" s="9" t="n">
         <f aca="false">G64*H64</f>
         <v>20</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10" t="n">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9" t="n">
         <f aca="false">I64+J64</f>
         <v>20</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="11" t="n">
+      <c r="A65" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -3695,33 +3704,33 @@
       <c r="F65" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="10" t="n">
+      <c r="G65" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I65" s="10" t="n">
+      <c r="H65" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I65" s="9" t="n">
         <f aca="false">G65*H65</f>
         <v>20</v>
       </c>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10" t="n">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9" t="n">
         <f aca="false">I65+J65</f>
         <v>20</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="11" t="n">
+      <c r="A66" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -3733,33 +3742,33 @@
       <c r="F66" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="10" t="n">
+      <c r="G66" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H66" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I66" s="10" t="n">
+      <c r="H66" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" s="9" t="n">
         <f aca="false">G66*H66</f>
         <v>20</v>
       </c>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10" t="n">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9" t="n">
         <f aca="false">I66+J66</f>
         <v>20</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="11" t="n">
+      <c r="A67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -3771,33 +3780,33 @@
       <c r="F67" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="10" t="n">
+      <c r="G67" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H67" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I67" s="10" t="n">
+      <c r="H67" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I67" s="9" t="n">
         <f aca="false">G67*H67</f>
         <v>20</v>
       </c>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10" t="n">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9" t="n">
         <f aca="false">I67+J67</f>
         <v>20</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="11" t="n">
+      <c r="A68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -3809,30 +3818,30 @@
       <c r="F68" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="10" t="n">
+      <c r="G68" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H68" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I68" s="10" t="n">
+      <c r="H68" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I68" s="9" t="n">
         <f aca="false">G68*H68</f>
         <v>20</v>
       </c>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10" t="n">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9" t="n">
         <f aca="false">I68+J68</f>
         <v>20</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="11" t="n">
+      <c r="A69" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="10" t="n">
         <v>45964</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3847,33 +3856,33 @@
       <c r="F69" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G69" s="10" t="n">
+      <c r="G69" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H69" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I69" s="10" t="n">
+      <c r="H69" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I69" s="9" t="n">
         <f aca="false">G69*H69</f>
         <v>20</v>
       </c>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10" t="n">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9" t="n">
         <f aca="false">I69+J69</f>
         <v>20</v>
       </c>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11" t="n">
+      <c r="A70" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="14" t="s">
@@ -3885,33 +3894,33 @@
       <c r="F70" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G70" s="10" t="n">
+      <c r="G70" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H70" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I70" s="10" t="n">
+      <c r="H70" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I70" s="9" t="n">
         <f aca="false">G70*H70</f>
         <v>20</v>
       </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10" t="n">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9" t="n">
         <f aca="false">I70+J70</f>
         <v>20</v>
       </c>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="11" t="n">
+      <c r="A71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="10" t="n">
         <v>45964</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="14" t="s">
@@ -3923,30 +3932,30 @@
       <c r="F71" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="10" t="n">
+      <c r="G71" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H71" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I71" s="10" t="n">
+      <c r="H71" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I71" s="9" t="n">
         <f aca="false">G71*H71</f>
         <v>20</v>
       </c>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10" t="n">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9" t="n">
         <f aca="false">I71+J71</f>
         <v>20</v>
       </c>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="11" t="n">
+      <c r="A72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="10" t="n">
         <v>45964</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3961,33 +3970,33 @@
       <c r="F72" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G72" s="10" t="n">
+      <c r="G72" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H72" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I72" s="10" t="n">
+      <c r="H72" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I72" s="9" t="n">
         <f aca="false">G72*H72</f>
         <v>20</v>
       </c>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10" t="n">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9" t="n">
         <f aca="false">I72+J72</f>
         <v>20</v>
       </c>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="11" t="n">
+      <c r="B73" s="10" t="n">
         <v>45965</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -3999,33 +4008,33 @@
       <c r="F73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H73" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I73" s="10" t="n">
+      <c r="G73" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" s="9" t="n">
         <f aca="false">G73*H73</f>
         <v>15</v>
       </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10" t="n">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9" t="n">
         <f aca="false">I73+J73</f>
         <v>15</v>
       </c>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="11" t="n">
+      <c r="B74" s="10" t="n">
         <v>45965</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -4037,33 +4046,33 @@
       <c r="F74" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G74" s="10" t="n">
+      <c r="G74" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H74" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I74" s="10" t="n">
+      <c r="H74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" s="9" t="n">
         <f aca="false">G74*H74</f>
         <v>10</v>
       </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10" t="n">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9" t="n">
         <f aca="false">I74+J74</f>
         <v>10</v>
       </c>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="11" t="n">
+      <c r="B75" s="10" t="n">
         <v>45965</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -4075,33 +4084,33 @@
       <c r="F75" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G75" s="10" t="n">
+      <c r="G75" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H75" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I75" s="10" t="n">
+      <c r="H75" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" s="9" t="n">
         <f aca="false">G75*H75</f>
         <v>75</v>
       </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10" t="n">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9" t="n">
         <f aca="false">I75+J75</f>
         <v>75</v>
       </c>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="11" t="n">
+      <c r="B76" s="10" t="n">
         <v>45974</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -4113,57 +4122,57 @@
       <c r="F76" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G76" s="10" t="n">
+      <c r="G76" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H76" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I76" s="10" t="n">
+      <c r="H76" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="9" t="n">
         <f aca="false">G76*H76</f>
         <v>45</v>
       </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10" t="n">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9" t="n">
         <f aca="false">I76+J76</f>
         <v>45</v>
       </c>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="11" t="n">
+      <c r="B77" s="10" t="n">
         <v>45976</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10" t="n">
+      <c r="F77" s="12"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="n">
         <f aca="false">G77*H77</f>
         <v>0</v>
       </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10" t="n">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9" t="n">
         <f aca="false">I77+J77</f>
         <v>0</v>
       </c>
-      <c r="L77" s="10"/>
+      <c r="L77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="11" t="n">
+      <c r="B78" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -4175,33 +4184,33 @@
       <c r="F78" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="10" t="n">
+      <c r="G78" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="H78" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" s="10" t="n">
+      <c r="H78" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" s="9" t="n">
         <f aca="false">G78*H78</f>
         <v>54</v>
       </c>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10" t="n">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9" t="n">
         <f aca="false">I78+J78</f>
         <v>54</v>
       </c>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="14" t="s">
@@ -4213,33 +4222,33 @@
       <c r="F79" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G79" s="10" t="n">
+      <c r="G79" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="H79" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I79" s="10" t="n">
+      <c r="H79" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" s="9" t="n">
         <f aca="false">G79*H79</f>
         <v>30</v>
       </c>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10" t="n">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9" t="n">
         <f aca="false">I79+J79</f>
         <v>30</v>
       </c>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="11" t="n">
+      <c r="B80" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -4251,33 +4260,33 @@
       <c r="F80" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="10" t="n">
+      <c r="G80" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H80" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="10" t="n">
+      <c r="H80" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="9" t="n">
         <f aca="false">G80*H80</f>
         <v>81</v>
       </c>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10" t="n">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9" t="n">
         <f aca="false">I80+J80</f>
         <v>81</v>
       </c>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="11" t="n">
+      <c r="B81" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="14" t="s">
@@ -4289,33 +4298,33 @@
       <c r="F81" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="10" t="n">
+      <c r="G81" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H81" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I81" s="10" t="n">
+      <c r="H81" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" s="9" t="n">
         <f aca="false">G81*H81</f>
         <v>10</v>
       </c>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10" t="n">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9" t="n">
         <f aca="false">I81+J81</f>
         <v>10</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B82" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="14" t="s">
@@ -4327,33 +4336,33 @@
       <c r="F82" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G82" s="10" t="n">
+      <c r="G82" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H82" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" s="10" t="n">
+      <c r="H82" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" s="9" t="n">
         <f aca="false">G82*H82</f>
         <v>75</v>
       </c>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10" t="n">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9" t="n">
         <f aca="false">I82+J82</f>
         <v>75</v>
       </c>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="11" t="n">
+      <c r="B83" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="14" t="s">
@@ -4365,33 +4374,33 @@
       <c r="F83" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="10" t="n">
+      <c r="G83" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H83" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" s="10" t="n">
+      <c r="H83" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" s="9" t="n">
         <f aca="false">G83*H83</f>
         <v>6</v>
       </c>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10" t="n">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9" t="n">
         <f aca="false">I83+J83</f>
         <v>6</v>
       </c>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="11" t="n">
+      <c r="B84" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="14" t="s">
@@ -4400,36 +4409,36 @@
       <c r="E84" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="F84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G84" s="10" t="n">
+      <c r="G84" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H84" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" s="10" t="n">
+      <c r="H84" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="9" t="n">
         <f aca="false">G84*H84</f>
         <v>6</v>
       </c>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10" t="n">
+      <c r="J84" s="9"/>
+      <c r="K84" s="9" t="n">
         <f aca="false">I84+J84</f>
         <v>6</v>
       </c>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="11" t="n">
+      <c r="B85" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="14" t="s">
@@ -4438,36 +4447,36 @@
       <c r="E85" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G85" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H85" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" s="10" t="n">
+      <c r="G85" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" s="9" t="n">
         <f aca="false">G85*H85</f>
         <v>15</v>
       </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10" t="n">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9" t="n">
         <f aca="false">I85+J85</f>
         <v>15</v>
       </c>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="11" t="n">
+      <c r="B86" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="14" t="s">
@@ -4476,36 +4485,36 @@
       <c r="E86" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="F86" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G86" s="10" t="n">
+      <c r="G86" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H86" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" s="10" t="n">
+      <c r="H86" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="9" t="n">
         <f aca="false">G86*H86</f>
         <v>3</v>
       </c>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10" t="n">
+      <c r="J86" s="9"/>
+      <c r="K86" s="9" t="n">
         <f aca="false">I86+J86</f>
         <v>3</v>
       </c>
-      <c r="L86" s="10" t="s">
+      <c r="L86" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="11" t="n">
+      <c r="B87" s="10" t="n">
         <v>45978</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="14" t="s">
@@ -4517,33 +4526,33 @@
       <c r="F87" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G87" s="10" t="n">
+      <c r="G87" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" s="10" t="n">
+      <c r="H87" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" s="9" t="n">
         <f aca="false">G87*H87</f>
         <v>6</v>
       </c>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10" t="n">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9" t="n">
         <f aca="false">I87+J87</f>
         <v>6</v>
       </c>
-      <c r="L87" s="10" t="s">
+      <c r="L87" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="11" t="n">
+      <c r="B88" s="10" t="n">
         <v>45982</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="14" t="s">
@@ -4555,33 +4564,33 @@
       <c r="F88" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="10" t="n">
+      <c r="G88" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H88" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" s="10" t="n">
+      <c r="H88" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="9" t="n">
         <f aca="false">G88*H88</f>
         <v>75</v>
       </c>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10" t="n">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9" t="n">
         <f aca="false">I88+J88</f>
         <v>75</v>
       </c>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="11" t="n">
+      <c r="B89" s="10" t="n">
         <v>45982</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -4593,33 +4602,33 @@
       <c r="F89" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="10" t="n">
+      <c r="G89" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H89" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" s="10" t="n">
+      <c r="H89" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" s="9" t="n">
         <f aca="false">G89*H89</f>
         <v>45</v>
       </c>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10" t="n">
+      <c r="J89" s="9"/>
+      <c r="K89" s="9" t="n">
         <f aca="false">I89+J89</f>
         <v>45</v>
       </c>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="11" t="n">
+      <c r="B90" s="10" t="n">
         <v>45982</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="14" t="s">
@@ -4631,33 +4640,33 @@
       <c r="F90" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G90" s="10" t="n">
+      <c r="G90" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H90" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I90" s="10" t="n">
+      <c r="H90" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" s="9" t="n">
         <f aca="false">G90*H90</f>
         <v>45</v>
       </c>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10" t="n">
+      <c r="J90" s="9"/>
+      <c r="K90" s="9" t="n">
         <f aca="false">I90+J90</f>
         <v>45</v>
       </c>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="11" t="n">
+      <c r="B91" s="10" t="n">
         <v>45982</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="14" t="s">
@@ -4669,33 +4678,33 @@
       <c r="F91" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G91" s="10" t="n">
+      <c r="G91" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H91" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" s="10" t="n">
+      <c r="H91" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I91" s="9" t="n">
         <f aca="false">G91*H91</f>
         <v>51</v>
       </c>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10" t="n">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9" t="n">
         <f aca="false">I91+J91</f>
         <v>51</v>
       </c>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="11" t="n">
+      <c r="B92" s="10" t="n">
         <v>45982</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="14" t="s">
@@ -4707,33 +4716,33 @@
       <c r="F92" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G92" s="10" t="n">
+      <c r="G92" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="H92" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I92" s="10" t="n">
+      <c r="H92" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" s="9" t="n">
         <f aca="false">G92*H92</f>
         <v>30</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10" t="n">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9" t="n">
         <f aca="false">I92+J92</f>
         <v>30</v>
       </c>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B93" s="11" t="n">
+      <c r="B93" s="10" t="n">
         <v>45982</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="14" t="s">
@@ -4745,33 +4754,33 @@
       <c r="F93" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G93" s="10" t="n">
+      <c r="G93" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H93" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" s="10" t="n">
+      <c r="H93" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" s="9" t="n">
         <f aca="false">G93*H93</f>
         <v>81</v>
       </c>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10" t="n">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9" t="n">
         <f aca="false">I93+J93</f>
         <v>81</v>
       </c>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B94" s="11" t="n">
+      <c r="B94" s="10" t="n">
         <v>45987</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="14" t="s">
@@ -4783,33 +4792,33 @@
       <c r="F94" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G94" s="10" t="n">
+      <c r="G94" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H94" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" s="10" t="n">
+      <c r="H94" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" s="9" t="n">
         <f aca="false">G94*H94</f>
         <v>45</v>
       </c>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10" t="n">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9" t="n">
         <f aca="false">I94+J94</f>
         <v>45</v>
       </c>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="11" t="n">
+      <c r="B95" s="10" t="n">
         <v>45987</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="14" t="s">
@@ -4821,33 +4830,33 @@
       <c r="F95" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G95" s="10" t="n">
+      <c r="G95" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H95" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" s="10" t="n">
+      <c r="H95" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="9" t="n">
         <f aca="false">G95*H95</f>
         <v>117</v>
       </c>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10" t="n">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9" t="n">
         <f aca="false">I95+J95</f>
         <v>117</v>
       </c>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="11" t="n">
+      <c r="B96" s="10" t="n">
         <v>45987</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="14" t="s">
@@ -4859,33 +4868,33 @@
       <c r="F96" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G96" s="10" t="n">
+      <c r="G96" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="H96" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" s="10" t="n">
+      <c r="H96" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="9" t="n">
         <f aca="false">G96*H96</f>
         <v>90</v>
       </c>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10" t="n">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9" t="n">
         <f aca="false">I96+J96</f>
         <v>90</v>
       </c>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="11" t="n">
+      <c r="B97" s="10" t="n">
         <v>45987</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="14" t="s">
@@ -4897,33 +4906,33 @@
       <c r="F97" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G97" s="10" t="n">
+      <c r="G97" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="H97" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I97" s="10" t="n">
+      <c r="H97" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" s="9" t="n">
         <f aca="false">G97*H97</f>
         <v>90</v>
       </c>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10" t="n">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9" t="n">
         <f aca="false">I97+J97</f>
         <v>90</v>
       </c>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="11" t="n">
+      <c r="B98" s="10" t="n">
         <v>45987</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="14" t="s">
@@ -4935,33 +4944,33 @@
       <c r="F98" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G98" s="10" t="n">
+      <c r="G98" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="H98" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" s="10" t="n">
+      <c r="H98" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="9" t="n">
         <f aca="false">G98*H98</f>
         <v>36</v>
       </c>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10" t="n">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9" t="n">
         <f aca="false">I98+J98</f>
         <v>36</v>
       </c>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="11" t="n">
+      <c r="B99" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="14" t="s">
@@ -4973,33 +4982,33 @@
       <c r="F99" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G99" s="10" t="n">
+      <c r="G99" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H99" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" s="10" t="n">
+      <c r="H99" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" s="9" t="n">
         <f aca="false">G99*H99</f>
         <v>63</v>
       </c>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10" t="n">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9" t="n">
         <f aca="false">I99+J99</f>
         <v>63</v>
       </c>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B100" s="11" t="n">
+      <c r="B100" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="14" t="s">
@@ -5011,33 +5020,33 @@
       <c r="F100" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G100" s="10" t="n">
+      <c r="G100" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="H100" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I100" s="10" t="n">
+      <c r="H100" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="9" t="n">
         <f aca="false">G100*H100</f>
         <v>30</v>
       </c>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10" t="n">
+      <c r="J100" s="9"/>
+      <c r="K100" s="9" t="n">
         <f aca="false">I100+J100</f>
         <v>30</v>
       </c>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="11" t="n">
+      <c r="B101" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="14" t="s">
@@ -5049,36 +5058,36 @@
       <c r="F101" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="10" t="n">
+      <c r="G101" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H101" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I101" s="10" t="n">
+      <c r="H101" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" s="9" t="n">
         <f aca="false">G101*H101</f>
         <v>33</v>
       </c>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10" t="n">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9" t="n">
         <f aca="false">I101+J101</f>
         <v>33</v>
       </c>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="11" t="n">
+      <c r="B102" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="14" t="s">
@@ -5087,36 +5096,36 @@
       <c r="F102" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G102" s="10" t="n">
+      <c r="G102" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H102" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" s="10" t="n">
+      <c r="H102" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" s="9" t="n">
         <f aca="false">G102*H102</f>
         <v>12</v>
       </c>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10" t="n">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9" t="n">
         <f aca="false">I102+J102</f>
         <v>12</v>
       </c>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="11" t="n">
+      <c r="B103" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="14" t="s">
@@ -5125,33 +5134,33 @@
       <c r="F103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G103" s="10" t="n">
+      <c r="G103" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H103" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I103" s="10" t="n">
+      <c r="H103" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I103" s="9" t="n">
         <f aca="false">G103*H103</f>
         <v>20</v>
       </c>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10" t="n">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9" t="n">
         <f aca="false">I103+J103</f>
         <v>20</v>
       </c>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="11" t="n">
+      <c r="B104" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="14" t="s">
@@ -5163,33 +5172,33 @@
       <c r="F104" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G104" s="10" t="n">
+      <c r="G104" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H104" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="10" t="n">
+      <c r="H104" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="9" t="n">
         <f aca="false">G104*H104</f>
         <v>99</v>
       </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10" t="n">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9" t="n">
         <f aca="false">I104+J104</f>
         <v>99</v>
       </c>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B105" s="11" t="n">
+      <c r="B105" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -5201,33 +5210,33 @@
       <c r="F105" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G105" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H105" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I105" s="10" t="n">
+      <c r="G105" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I105" s="9" t="n">
         <f aca="false">G105*H105</f>
         <v>25</v>
       </c>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10" t="n">
+      <c r="J105" s="9"/>
+      <c r="K105" s="9" t="n">
         <f aca="false">I105+J105</f>
         <v>25</v>
       </c>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="11" t="n">
+      <c r="B106" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="14" t="s">
@@ -5239,30 +5248,30 @@
       <c r="F106" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="10" t="n">
+      <c r="G106" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H106" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I106" s="10" t="n">
+      <c r="H106" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" s="9" t="n">
         <f aca="false">G106*H106</f>
         <v>33</v>
       </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10" t="n">
+      <c r="J106" s="9"/>
+      <c r="K106" s="9" t="n">
         <f aca="false">I106+J106</f>
         <v>33</v>
       </c>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="11" t="n">
+      <c r="B107" s="10" t="n">
         <v>45989</v>
       </c>
       <c r="C107" s="18" t="s">
@@ -5277,33 +5286,33 @@
       <c r="F107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G107" s="10" t="n">
+      <c r="G107" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H107" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I107" s="10" t="n">
+      <c r="H107" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I107" s="9" t="n">
         <f aca="false">G107*H107</f>
         <v>20</v>
       </c>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10" t="n">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9" t="n">
         <f aca="false">I107+J107</f>
         <v>20</v>
       </c>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B108" s="11" t="n">
+      <c r="B108" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="14" t="s">
@@ -5315,33 +5324,33 @@
       <c r="F108" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G108" s="10" t="n">
+      <c r="G108" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="H108" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="10" t="n">
+      <c r="H108" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="9" t="n">
         <f aca="false">G108*H108</f>
         <v>78</v>
       </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10" t="n">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9" t="n">
         <f aca="false">I108+J108</f>
         <v>78</v>
       </c>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="11" t="n">
+      <c r="B109" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="14" t="s">
@@ -5353,33 +5362,33 @@
       <c r="F109" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G109" s="10" t="n">
+      <c r="G109" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H109" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I109" s="10" t="n">
+      <c r="H109" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" s="9" t="n">
         <f aca="false">G109*H109</f>
         <v>3</v>
       </c>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10" t="n">
+      <c r="J109" s="9"/>
+      <c r="K109" s="9" t="n">
         <f aca="false">I109+J109</f>
         <v>3</v>
       </c>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="11" t="n">
+      <c r="B110" s="10" t="n">
         <v>45989</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="14" t="s">
@@ -5391,33 +5400,33 @@
       <c r="F110" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G110" s="10" t="n">
+      <c r="G110" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H110" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" s="10" t="n">
+      <c r="H110" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" s="9" t="n">
         <f aca="false">G110*H110</f>
         <v>21</v>
       </c>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10" t="n">
+      <c r="J110" s="9"/>
+      <c r="K110" s="9" t="n">
         <f aca="false">I110+J110</f>
         <v>21</v>
       </c>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="11" t="n">
+      <c r="B111" s="10" t="n">
         <v>45993</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="14" t="s">
@@ -5429,572 +5438,842 @@
       <c r="F111" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G111" s="10" t="n">
+      <c r="G111" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="H111" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I111" s="10" t="n">
+      <c r="H111" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" s="9" t="n">
         <f aca="false">G111*H111</f>
         <v>165</v>
       </c>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10" t="n">
+      <c r="J111" s="9"/>
+      <c r="K111" s="9" t="n">
         <f aca="false">I111+J111</f>
         <v>165</v>
       </c>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="11" t="n">
+      <c r="B112" s="10" t="n">
         <v>45993</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G112" s="10" t="n">
+      <c r="G112" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="H112" s="10" t="n">
+      <c r="H112" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="I112" s="10" t="n">
+      <c r="I112" s="9" t="n">
         <f aca="false">G112*H112</f>
         <v>16</v>
       </c>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10" t="n">
+      <c r="J112" s="9"/>
+      <c r="K112" s="9" t="n">
         <f aca="false">I112+J112</f>
         <v>16</v>
       </c>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10" t="n">
+      <c r="B113" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H113" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" s="9" t="n">
         <f aca="false">G113*H113</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9" t="n">
         <f aca="false">I113+J113</f>
-        <v>0</v>
-      </c>
-      <c r="L113" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10" t="n">
+      <c r="B114" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H114" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" s="9" t="n">
         <f aca="false">G114*H114</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9" t="n">
         <f aca="false">I114+J114</f>
-        <v>0</v>
-      </c>
-      <c r="L114" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10" t="n">
+      <c r="B115" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" s="9" t="n">
         <f aca="false">G115*H115</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9" t="n">
         <f aca="false">I115+J115</f>
-        <v>0</v>
-      </c>
-      <c r="L115" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="L115" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10" t="n">
+      <c r="B116" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H116" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" s="9" t="n">
         <f aca="false">G116*H116</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9" t="n">
         <f aca="false">I116+J116</f>
-        <v>0</v>
-      </c>
-      <c r="L116" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10" t="n">
+      <c r="B117" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H117" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" s="9" t="n">
         <f aca="false">G117*H117</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9" t="n">
         <f aca="false">I117+J117</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10" t="n">
+      <c r="A118" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C118" s="11"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9" t="n">
         <f aca="false">G118*H118</f>
         <v>0</v>
       </c>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10" t="n">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9" t="n">
         <f aca="false">I118+J118</f>
         <v>0</v>
       </c>
-      <c r="L118" s="10"/>
+      <c r="L118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10" t="n">
+      <c r="A119" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C119" s="11"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="n">
         <f aca="false">G119*H119</f>
         <v>0</v>
       </c>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10" t="n">
+      <c r="J119" s="9"/>
+      <c r="K119" s="9" t="n">
         <f aca="false">I119+J119</f>
         <v>0</v>
       </c>
-      <c r="L119" s="10"/>
+      <c r="L119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10" t="n">
+      <c r="A120" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9" t="n">
         <f aca="false">G120*H120</f>
         <v>0</v>
       </c>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10" t="n">
+      <c r="J120" s="9"/>
+      <c r="K120" s="9" t="n">
         <f aca="false">I120+J120</f>
         <v>0</v>
       </c>
-      <c r="L120" s="10"/>
+      <c r="L120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10" t="n">
+      <c r="A121" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9" t="n">
         <f aca="false">G121*H121</f>
         <v>0</v>
       </c>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10" t="n">
+      <c r="J121" s="9"/>
+      <c r="K121" s="9" t="n">
         <f aca="false">I121+J121</f>
         <v>0</v>
       </c>
-      <c r="L121" s="10"/>
+      <c r="L121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10" t="n">
+      <c r="A122" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C122" s="11"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9" t="n">
         <f aca="false">G122*H122</f>
         <v>0</v>
       </c>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10" t="n">
+      <c r="J122" s="9"/>
+      <c r="K122" s="9" t="n">
         <f aca="false">I122+J122</f>
         <v>0</v>
       </c>
-      <c r="L122" s="10"/>
+      <c r="L122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10" t="n">
+      <c r="A123" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9" t="n">
         <f aca="false">G123*H123</f>
         <v>0</v>
       </c>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10" t="n">
+      <c r="J123" s="9"/>
+      <c r="K123" s="9" t="n">
         <f aca="false">I123+J123</f>
         <v>0</v>
       </c>
-      <c r="L123" s="10"/>
+      <c r="L123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10" t="n">
+      <c r="A124" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="10" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9" t="n">
         <f aca="false">G124*H124</f>
         <v>0</v>
       </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10" t="n">
+      <c r="J124" s="9"/>
+      <c r="K124" s="9" t="n">
         <f aca="false">I124+J124</f>
         <v>0</v>
       </c>
-      <c r="L124" s="10"/>
+      <c r="L124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10" t="n">
+      <c r="A125" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9" t="n">
         <f aca="false">G125*H125</f>
         <v>0</v>
       </c>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10" t="n">
+      <c r="J125" s="9"/>
+      <c r="K125" s="9" t="n">
         <f aca="false">I125+J125</f>
         <v>0</v>
       </c>
-      <c r="L125" s="10"/>
+      <c r="L125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="17"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10" t="n">
+      <c r="F126" s="12"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9" t="n">
         <f aca="false">G126*H126</f>
         <v>0</v>
       </c>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10" t="n">
+      <c r="J126" s="9"/>
+      <c r="K126" s="9" t="n">
         <f aca="false">I126+J126</f>
         <v>0</v>
       </c>
-      <c r="L126" s="10"/>
+      <c r="L126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="12"/>
       <c r="E127" s="17"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10" t="n">
+      <c r="F127" s="12"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9" t="n">
         <f aca="false">G127*H127</f>
         <v>0</v>
       </c>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10" t="n">
+      <c r="J127" s="9"/>
+      <c r="K127" s="9" t="n">
         <f aca="false">I127+J127</f>
         <v>0</v>
       </c>
-      <c r="L127" s="10"/>
+      <c r="L127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="12"/>
       <c r="E128" s="17"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10" t="n">
+      <c r="F128" s="12"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9" t="n">
         <f aca="false">G128*H128</f>
         <v>0</v>
       </c>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10" t="n">
+      <c r="J128" s="9"/>
+      <c r="K128" s="9" t="n">
         <f aca="false">I128+J128</f>
         <v>0</v>
       </c>
-      <c r="L128" s="10"/>
+      <c r="L128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="12"/>
       <c r="E129" s="17"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10" t="n">
+      <c r="F129" s="12"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9" t="n">
         <f aca="false">G129*H129</f>
         <v>0</v>
       </c>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10" t="n">
+      <c r="J129" s="9"/>
+      <c r="K129" s="9" t="n">
         <f aca="false">I129+J129</f>
         <v>0</v>
       </c>
-      <c r="L129" s="10"/>
+      <c r="L129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="12"/>
       <c r="E130" s="17"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10" t="n">
+      <c r="F130" s="12"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9" t="n">
         <f aca="false">G130*H130</f>
         <v>0</v>
       </c>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10" t="n">
+      <c r="J130" s="9"/>
+      <c r="K130" s="9" t="n">
         <f aca="false">I130+J130</f>
         <v>0</v>
       </c>
-      <c r="L130" s="10"/>
+      <c r="L130" s="9"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B131" s="11" t="n">
-        <v>46006</v>
-      </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
+      <c r="A131" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="12"/>
       <c r="E131" s="17"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10" t="n">
+      <c r="F131" s="12"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9" t="n">
         <f aca="false">G131*H131</f>
         <v>0</v>
       </c>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10" t="n">
+      <c r="J131" s="9"/>
+      <c r="K131" s="9" t="n">
         <f aca="false">I131+J131</f>
         <v>0</v>
       </c>
-      <c r="L131" s="10"/>
+      <c r="L131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
+      <c r="A132" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="10"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="12"/>
       <c r="E132" s="17"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10" t="n">
+      <c r="F132" s="12"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9" t="n">
         <f aca="false">G132*H132</f>
         <v>0</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10" t="n">
+      <c r="J132" s="9"/>
+      <c r="K132" s="9" t="n">
         <f aca="false">I132+J132</f>
         <v>0</v>
       </c>
-      <c r="L132" s="10"/>
+      <c r="L132" s="9"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
+      <c r="A133" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="12"/>
       <c r="E133" s="17"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10" t="n">
+      <c r="F133" s="12"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9" t="n">
         <f aca="false">G133*H133</f>
         <v>0</v>
       </c>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10" t="n">
+      <c r="J133" s="9"/>
+      <c r="K133" s="9" t="n">
         <f aca="false">I133+J133</f>
         <v>0</v>
       </c>
-      <c r="L133" s="10"/>
+      <c r="L133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
+      <c r="A134" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="12"/>
       <c r="E134" s="17"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10" t="n">
+      <c r="F134" s="12"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9" t="n">
         <f aca="false">G134*H134</f>
         <v>0</v>
       </c>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10" t="n">
+      <c r="J134" s="9"/>
+      <c r="K134" s="9" t="n">
         <f aca="false">I134+J134</f>
         <v>0</v>
       </c>
-      <c r="L134" s="10"/>
+      <c r="L134" s="9"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135" s="11" t="n">
-        <v>46010</v>
-      </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
+      <c r="A135" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="12"/>
       <c r="E135" s="17"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10" t="n">
+      <c r="F135" s="12"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9" t="n">
         <f aca="false">G135*H135</f>
         <v>0</v>
       </c>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10" t="n">
+      <c r="J135" s="9"/>
+      <c r="K135" s="9" t="n">
         <f aca="false">I135+J135</f>
         <v>0</v>
       </c>
-      <c r="L135" s="10"/>
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="10"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9" t="n">
+        <f aca="false">G136*H136</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9" t="n">
+        <f aca="false">I136+J136</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="9"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9" t="n">
+        <f aca="false">G137*H137</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9" t="n">
+        <f aca="false">I137+J137</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="9"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9" t="n">
+        <f aca="false">G138*H138</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9" t="n">
+        <f aca="false">I138+J138</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="9"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9" t="n">
+        <f aca="false">G139*H139</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9" t="n">
+        <f aca="false">I139+J139</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="9"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9" t="n">
+        <f aca="false">G140*H140</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9" t="n">
+        <f aca="false">I140+J140</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="9"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="n">
+        <f aca="false">G141*H141</f>
+        <v>0</v>
+      </c>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9" t="n">
+        <f aca="false">I141+J141</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="9"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9" t="n">
+        <f aca="false">G142*H142</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9" t="n">
+        <f aca="false">I142+J142</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="9"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B143" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9" t="n">
+        <f aca="false">G143*H143</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9" t="n">
+        <f aca="false">I143+J143</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C76"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="95">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t xml:space="preserve">Alimentos – amido de milho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos-arroz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos-macarrão</t>
   </si>
   <si>
     <t xml:space="preserve">3ºSPRINT</t>
@@ -1250,8 +1256,8 @@
   </sheetPr>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5690,56 +5696,82 @@
         <v>81</v>
       </c>
       <c r="B118" s="10" t="n">
-        <v>45999</v>
-      </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+        <v>46002</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="H118" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I118" s="9" t="n">
         <f aca="false">G118*H118</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J118" s="9"/>
       <c r="K118" s="9" t="n">
         <f aca="false">I118+J118</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B119" s="10" t="n">
-        <v>45999</v>
-      </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+        <v>46002</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H119" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I119" s="9" t="n">
         <f aca="false">G119*H119</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J119" s="9"/>
       <c r="K119" s="9" t="n">
         <f aca="false">I119+J119</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B120" s="10" t="n">
-        <v>45999</v>
-      </c>
+      <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
@@ -5761,9 +5793,7 @@
       <c r="A121" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B121" s="10" t="n">
-        <v>45999</v>
-      </c>
+      <c r="B121" s="10"/>
       <c r="C121" s="11"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
@@ -5785,9 +5815,7 @@
       <c r="A122" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B122" s="10" t="n">
-        <v>45999</v>
-      </c>
+      <c r="B122" s="10"/>
       <c r="C122" s="11"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
@@ -5809,9 +5837,7 @@
       <c r="A123" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B123" s="10" t="n">
-        <v>45999</v>
-      </c>
+      <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
@@ -5833,9 +5859,7 @@
       <c r="A124" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B124" s="10" t="n">
-        <v>45999</v>
-      </c>
+      <c r="B124" s="10"/>
       <c r="C124" s="11"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
@@ -6163,7 +6187,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B139" s="10" t="n">
         <v>46006</v>
@@ -6187,7 +6211,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
@@ -6209,7 +6233,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
@@ -6231,7 +6255,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
@@ -6253,7 +6277,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B143" s="10" t="n">
         <v>46010</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="participantes" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="96">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wanderson Saldanha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Max Pereira</t>
   </si>
   <si>
     <t xml:space="preserve">Categoria</t>
@@ -731,10 +734,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,6 +960,14 @@
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -995,30 +1006,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5</v>
@@ -1027,7 +1038,7 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>50</v>
@@ -1035,10 +1046,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3</v>
@@ -1047,7 +1058,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>50</v>
@@ -1055,10 +1066,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3</v>
@@ -1067,7 +1078,7 @@
         <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>40</v>
@@ -1075,10 +1086,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -1087,7 +1098,7 @@
         <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>40</v>
@@ -1095,10 +1106,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4</v>
@@ -1107,7 +1118,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>60</v>
@@ -1115,10 +1126,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>10</v>
@@ -1127,7 +1138,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>60</v>
@@ -1135,10 +1146,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2</v>
@@ -1147,7 +1158,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>20</v>
@@ -1155,10 +1166,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>60</v>
@@ -1167,7 +1178,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>20</v>
@@ -1175,10 +1186,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4</v>
@@ -1187,7 +1198,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>30</v>
@@ -1195,10 +1206,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6</v>
@@ -1207,7 +1218,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>30</v>
@@ -1215,10 +1226,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>20</v>
@@ -1229,10 +1240,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3</v>
@@ -1256,7 +1267,7 @@
   </sheetPr>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="A120"/>
     </sheetView>
   </sheetViews>
@@ -1276,10 +1287,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1288,33 +1299,33 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>45944</v>
@@ -1337,7 +1348,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>45957</v>
@@ -1349,10 +1360,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="15" t="n">
         <v>44</v>
@@ -1370,12 +1381,12 @@
         <v>220</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>45957</v>
@@ -1387,10 +1398,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>24</v>
@@ -1408,12 +1419,12 @@
         <v>96</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>45958</v>
@@ -1425,10 +1436,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>9</v>
@@ -1446,12 +1457,12 @@
         <v>45</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>45958</v>
@@ -1463,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>9</v>
@@ -1484,12 +1495,12 @@
         <v>45</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>45958</v>
@@ -1501,10 +1512,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="n">
         <v>9</v>
@@ -1522,12 +1533,12 @@
         <v>45</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>45958</v>
@@ -1539,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9" t="n">
         <v>9</v>
@@ -1560,12 +1571,12 @@
         <v>45</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>45958</v>
@@ -1577,10 +1588,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>9</v>
@@ -1598,12 +1609,12 @@
         <v>45</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>45958</v>
@@ -1615,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>9</v>
@@ -1636,12 +1647,12 @@
         <v>45</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="10" t="n">
         <v>45958</v>
@@ -1653,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>7</v>
@@ -1674,12 +1685,12 @@
         <v>35</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>45958</v>
@@ -1691,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>9</v>
@@ -1712,12 +1723,12 @@
         <v>45</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>45958</v>
@@ -1729,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="9" t="n">
         <v>9</v>
@@ -1750,12 +1761,12 @@
         <v>45</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>45959</v>
@@ -1767,10 +1778,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="9" t="n">
         <v>55</v>
@@ -1788,12 +1799,12 @@
         <v>165</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" s="10" t="n">
         <v>45959</v>
@@ -1805,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>10</v>
@@ -1826,12 +1837,12 @@
         <v>30</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="10" t="n">
         <v>45959</v>
@@ -1843,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>10</v>
@@ -1864,12 +1875,12 @@
         <v>50</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="10" t="n">
         <v>45959</v>
@@ -1881,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>10</v>
@@ -1902,12 +1913,12 @@
         <v>30</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>45959</v>
@@ -1919,10 +1930,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="9" t="n">
         <v>5</v>
@@ -1940,12 +1951,12 @@
         <v>15</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="10" t="n">
         <v>45959</v>
@@ -1957,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="9" t="n">
         <v>19</v>
@@ -1978,12 +1989,12 @@
         <v>57</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="10" t="n">
         <v>45959</v>
@@ -1995,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>1</v>
@@ -2016,12 +2027,12 @@
         <v>5</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="10" t="n">
         <v>45959</v>
@@ -2033,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>11</v>
@@ -2054,12 +2065,12 @@
         <v>33</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="10" t="n">
         <v>45959</v>
@@ -2071,10 +2082,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>10</v>
@@ -2092,12 +2103,12 @@
         <v>50</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="10" t="n">
         <v>45959</v>
@@ -2109,10 +2120,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="9" t="n">
         <v>10</v>
@@ -2130,12 +2141,12 @@
         <v>50</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="10" t="n">
         <v>45960</v>
@@ -2147,10 +2158,10 @@
         <v>3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" s="9" t="n">
         <v>1</v>
@@ -2168,12 +2179,12 @@
         <v>3</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>45960</v>
@@ -2185,10 +2196,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>38</v>
@@ -2206,12 +2217,12 @@
         <v>114</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="10" t="n">
         <v>45960</v>
@@ -2223,10 +2234,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="9" t="n">
         <v>8</v>
@@ -2244,12 +2255,12 @@
         <v>24</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="10" t="n">
         <v>45960</v>
@@ -2261,10 +2272,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" s="9" t="n">
         <v>10</v>
@@ -2282,12 +2293,12 @@
         <v>30</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="10" t="n">
         <v>45960</v>
@@ -2299,10 +2310,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>15</v>
@@ -2320,12 +2331,12 @@
         <v>45</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="10" t="n">
         <v>45960</v>
@@ -2337,10 +2348,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>8</v>
@@ -2358,12 +2369,12 @@
         <v>24</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="10" t="n">
         <v>45960</v>
@@ -2375,10 +2386,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G30" s="9" t="n">
         <v>8</v>
@@ -2396,12 +2407,12 @@
         <v>40</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="10" t="n">
         <v>45960</v>
@@ -2413,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" s="9" t="n">
         <v>8</v>
@@ -2434,12 +2445,12 @@
         <v>40</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>45960</v>
@@ -2451,10 +2462,10 @@
         <v>5</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" s="9" t="n">
         <v>27</v>
@@ -2472,12 +2483,12 @@
         <v>135</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="10" t="n">
         <v>45961</v>
@@ -2489,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" s="9" t="n">
         <v>5</v>
@@ -2510,12 +2521,12 @@
         <v>15</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>45961</v>
@@ -2527,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" s="9" t="n">
         <v>9</v>
@@ -2548,12 +2559,12 @@
         <v>27</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="10" t="n">
         <v>45961</v>
@@ -2565,10 +2576,10 @@
         <v>3</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="9" t="n">
         <v>20</v>
@@ -2586,12 +2597,12 @@
         <v>60</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="10" t="n">
         <v>45961</v>
@@ -2603,10 +2614,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" s="9" t="n">
         <v>20</v>
@@ -2624,12 +2635,12 @@
         <v>60</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="10" t="n">
         <v>45961</v>
@@ -2641,10 +2652,10 @@
         <v>5</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" s="9" t="n">
         <v>4</v>
@@ -2662,12 +2673,12 @@
         <v>12</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="10" t="n">
         <v>45961</v>
@@ -2679,10 +2690,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>20</v>
@@ -2700,12 +2711,12 @@
         <v>60</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>45961</v>
@@ -2717,10 +2728,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>5</v>
@@ -2738,12 +2749,12 @@
         <v>15</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="10" t="n">
         <v>45961</v>
@@ -2755,10 +2766,10 @@
         <v>5</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>2</v>
@@ -2776,12 +2787,12 @@
         <v>10</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="10" t="n">
         <v>45961</v>
@@ -2793,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" s="9" t="n">
         <v>21</v>
@@ -2814,12 +2825,12 @@
         <v>63</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="10" t="n">
         <v>45964</v>
@@ -2831,10 +2842,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="9" t="n">
         <v>21</v>
@@ -2852,12 +2863,12 @@
         <v>63</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="10" t="n">
         <v>45964</v>
@@ -2869,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>20</v>
@@ -2890,12 +2901,12 @@
         <v>60</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="10" t="n">
         <v>45964</v>
@@ -2907,10 +2918,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>20</v>
@@ -2928,12 +2939,12 @@
         <v>60</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="10" t="n">
         <v>45964</v>
@@ -2945,10 +2956,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>20</v>
@@ -2966,12 +2977,12 @@
         <v>60</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="10" t="n">
         <v>45964</v>
@@ -2983,10 +2994,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46" s="9" t="n">
         <v>20</v>
@@ -3004,12 +3015,12 @@
         <v>60</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="10" t="n">
         <v>45964</v>
@@ -3021,10 +3032,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" s="9" t="n">
         <v>50</v>
@@ -3042,12 +3053,12 @@
         <v>150</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="10" t="n">
         <v>45964</v>
@@ -3059,10 +3070,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>20</v>
@@ -3080,12 +3091,12 @@
         <v>60</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="10" t="n">
         <v>45964</v>
@@ -3097,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>20</v>
@@ -3118,12 +3129,12 @@
         <v>60</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="10" t="n">
         <v>45964</v>
@@ -3135,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>20</v>
@@ -3156,12 +3167,12 @@
         <v>60</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" s="10" t="n">
         <v>45964</v>
@@ -3173,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51" s="9" t="n">
         <v>12</v>
@@ -3194,12 +3205,12 @@
         <v>36</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="10" t="n">
         <v>45964</v>
@@ -3211,10 +3222,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G52" s="9" t="n">
         <v>3</v>
@@ -3232,12 +3243,12 @@
         <v>15</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="10" t="n">
         <v>45964</v>
@@ -3249,10 +3260,10 @@
         <v>5</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" s="9" t="n">
         <v>1</v>
@@ -3270,12 +3281,12 @@
         <v>20</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="10" t="n">
         <v>45964</v>
@@ -3287,10 +3298,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G54" s="9" t="n">
         <v>1</v>
@@ -3308,12 +3319,12 @@
         <v>20</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" s="10" t="n">
         <v>45964</v>
@@ -3325,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G55" s="9" t="n">
         <v>1</v>
@@ -3346,12 +3357,12 @@
         <v>20</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" s="10" t="n">
         <v>45964</v>
@@ -3363,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G56" s="9" t="n">
         <v>1</v>
@@ -3384,12 +3395,12 @@
         <v>20</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="10" t="n">
         <v>45964</v>
@@ -3401,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="9" t="n">
         <v>1</v>
@@ -3422,12 +3433,12 @@
         <v>20</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="10" t="n">
         <v>45964</v>
@@ -3439,10 +3450,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G58" s="9" t="n">
         <v>1</v>
@@ -3460,12 +3471,12 @@
         <v>20</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" s="10" t="n">
         <v>45964</v>
@@ -3477,10 +3488,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G59" s="9" t="n">
         <v>1</v>
@@ -3498,12 +3509,12 @@
         <v>20</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="10" t="n">
         <v>45964</v>
@@ -3515,10 +3526,10 @@
         <v>5</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G60" s="9" t="n">
         <v>1</v>
@@ -3536,12 +3547,12 @@
         <v>20</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="10" t="n">
         <v>45964</v>
@@ -3553,10 +3564,10 @@
         <v>5</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G61" s="9" t="n">
         <v>1</v>
@@ -3574,12 +3585,12 @@
         <v>20</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" s="10" t="n">
         <v>45964</v>
@@ -3591,10 +3602,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G62" s="9" t="n">
         <v>1</v>
@@ -3612,12 +3623,12 @@
         <v>20</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="10" t="n">
         <v>45964</v>
@@ -3629,10 +3640,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G63" s="9" t="n">
         <v>1</v>
@@ -3650,12 +3661,12 @@
         <v>20</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="10" t="n">
         <v>45964</v>
@@ -3667,10 +3678,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G64" s="9" t="n">
         <v>1</v>
@@ -3688,12 +3699,12 @@
         <v>20</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="10" t="n">
         <v>45964</v>
@@ -3705,10 +3716,10 @@
         <v>10</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G65" s="9" t="n">
         <v>1</v>
@@ -3726,12 +3737,12 @@
         <v>20</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="10" t="n">
         <v>45964</v>
@@ -3743,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G66" s="9" t="n">
         <v>1</v>
@@ -3764,12 +3775,12 @@
         <v>20</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" s="10" t="n">
         <v>45964</v>
@@ -3781,10 +3792,10 @@
         <v>10</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G67" s="9" t="n">
         <v>1</v>
@@ -3802,12 +3813,12 @@
         <v>20</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="10" t="n">
         <v>45964</v>
@@ -3819,10 +3830,10 @@
         <v>5</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G68" s="9" t="n">
         <v>1</v>
@@ -3840,12 +3851,12 @@
         <v>20</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" s="10" t="n">
         <v>45964</v>
@@ -3857,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G69" s="9" t="n">
         <v>1</v>
@@ -3878,12 +3889,12 @@
         <v>20</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="10" t="n">
         <v>45964</v>
@@ -3895,10 +3906,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G70" s="9" t="n">
         <v>1</v>
@@ -3916,12 +3927,12 @@
         <v>20</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="10" t="n">
         <v>45964</v>
@@ -3933,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G71" s="9" t="n">
         <v>1</v>
@@ -3954,12 +3965,12 @@
         <v>20</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" s="10" t="n">
         <v>45964</v>
@@ -3971,10 +3982,10 @@
         <v>5</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G72" s="9" t="n">
         <v>1</v>
@@ -3992,12 +4003,12 @@
         <v>20</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" s="10" t="n">
         <v>45965</v>
@@ -4009,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G73" s="9" t="n">
         <v>3</v>
@@ -4030,12 +4041,12 @@
         <v>15</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74" s="10" t="n">
         <v>45965</v>
@@ -4047,10 +4058,10 @@
         <v>3</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G74" s="9" t="n">
         <v>2</v>
@@ -4068,12 +4079,12 @@
         <v>10</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75" s="10" t="n">
         <v>45965</v>
@@ -4085,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G75" s="9" t="n">
         <v>25</v>
@@ -4106,12 +4117,12 @@
         <v>75</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" s="10" t="n">
         <v>45974</v>
@@ -4123,10 +4134,10 @@
         <v>3</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G76" s="9" t="n">
         <v>15</v>
@@ -4144,12 +4155,12 @@
         <v>45</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="10" t="n">
         <v>45976</v>
@@ -4173,7 +4184,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="10" t="n">
         <v>45978</v>
@@ -4185,10 +4196,10 @@
         <v>10</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G78" s="9" t="n">
         <v>18</v>
@@ -4206,12 +4217,12 @@
         <v>54</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="10" t="n">
         <v>45978</v>
@@ -4223,10 +4234,10 @@
         <v>10</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79" s="9" t="n">
         <v>6</v>
@@ -4244,12 +4255,12 @@
         <v>30</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="10" t="n">
         <v>45978</v>
@@ -4261,10 +4272,10 @@
         <v>10</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" s="9" t="n">
         <v>27</v>
@@ -4282,12 +4293,12 @@
         <v>81</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="10" t="n">
         <v>45978</v>
@@ -4299,10 +4310,10 @@
         <v>10</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G81" s="9" t="n">
         <v>2</v>
@@ -4320,12 +4331,12 @@
         <v>10</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="10" t="n">
         <v>45978</v>
@@ -4337,10 +4348,10 @@
         <v>5</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" s="9" t="n">
         <v>25</v>
@@ -4358,12 +4369,12 @@
         <v>75</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="10" t="n">
         <v>45978</v>
@@ -4375,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G83" s="9" t="n">
         <v>2</v>
@@ -4396,12 +4407,12 @@
         <v>6</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="10" t="n">
         <v>45978</v>
@@ -4413,10 +4424,10 @@
         <v>10</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G84" s="9" t="n">
         <v>2</v>
@@ -4434,12 +4445,12 @@
         <v>6</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="10" t="n">
         <v>45978</v>
@@ -4451,10 +4462,10 @@
         <v>10</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G85" s="9" t="n">
         <v>5</v>
@@ -4472,12 +4483,12 @@
         <v>15</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="10" t="n">
         <v>45978</v>
@@ -4489,10 +4500,10 @@
         <v>10</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G86" s="9" t="n">
         <v>1</v>
@@ -4510,12 +4521,12 @@
         <v>3</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="10" t="n">
         <v>45978</v>
@@ -4527,10 +4538,10 @@
         <v>10</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G87" s="9" t="n">
         <v>2</v>
@@ -4548,12 +4559,12 @@
         <v>6</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="10" t="n">
         <v>45982</v>
@@ -4565,10 +4576,10 @@
         <v>3</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G88" s="9" t="n">
         <v>25</v>
@@ -4586,12 +4597,12 @@
         <v>75</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B89" s="10" t="n">
         <v>45982</v>
@@ -4603,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89" s="9" t="n">
         <v>15</v>
@@ -4624,12 +4635,12 @@
         <v>45</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B90" s="10" t="n">
         <v>45982</v>
@@ -4641,10 +4652,10 @@
         <v>3</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G90" s="9" t="n">
         <v>9</v>
@@ -4662,12 +4673,12 @@
         <v>45</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="10" t="n">
         <v>45982</v>
@@ -4679,10 +4690,10 @@
         <v>3</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" s="9" t="n">
         <v>17</v>
@@ -4700,12 +4711,12 @@
         <v>51</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B92" s="10" t="n">
         <v>45982</v>
@@ -4717,10 +4728,10 @@
         <v>3</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G92" s="9" t="n">
         <v>6</v>
@@ -4738,12 +4749,12 @@
         <v>30</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B93" s="10" t="n">
         <v>45982</v>
@@ -4755,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G93" s="9" t="n">
         <v>27</v>
@@ -4776,12 +4787,12 @@
         <v>81</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="10" t="n">
         <v>45987</v>
@@ -4793,10 +4804,10 @@
         <v>5</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" s="9" t="n">
         <v>15</v>
@@ -4814,12 +4825,12 @@
         <v>45</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B95" s="10" t="n">
         <v>45987</v>
@@ -4831,10 +4842,10 @@
         <v>3</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G95" s="9" t="n">
         <v>39</v>
@@ -4852,12 +4863,12 @@
         <v>117</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B96" s="10" t="n">
         <v>45987</v>
@@ -4869,10 +4880,10 @@
         <v>5</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G96" s="9" t="n">
         <v>30</v>
@@ -4890,12 +4901,12 @@
         <v>90</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B97" s="10" t="n">
         <v>45987</v>
@@ -4907,10 +4918,10 @@
         <v>5</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97" s="9" t="n">
         <v>30</v>
@@ -4928,12 +4939,12 @@
         <v>90</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B98" s="10" t="n">
         <v>45987</v>
@@ -4945,10 +4956,10 @@
         <v>5</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" s="9" t="n">
         <v>12</v>
@@ -4966,12 +4977,12 @@
         <v>36</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B99" s="10" t="n">
         <v>45989</v>
@@ -4983,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99" s="9" t="n">
         <v>21</v>
@@ -5004,12 +5015,12 @@
         <v>63</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B100" s="10" t="n">
         <v>45989</v>
@@ -5021,10 +5032,10 @@
         <v>3</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" s="9" t="n">
         <v>10</v>
@@ -5042,12 +5053,12 @@
         <v>30</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B101" s="10" t="n">
         <v>45989</v>
@@ -5059,10 +5070,10 @@
         <v>3</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101" s="9" t="n">
         <v>11</v>
@@ -5080,12 +5091,12 @@
         <v>33</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B102" s="10" t="n">
         <v>45989</v>
@@ -5097,10 +5108,10 @@
         <v>5</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102" s="9" t="n">
         <v>4</v>
@@ -5118,12 +5129,12 @@
         <v>12</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B103" s="10" t="n">
         <v>45989</v>
@@ -5135,10 +5146,10 @@
         <v>5</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G103" s="9" t="n">
         <v>4</v>
@@ -5156,12 +5167,12 @@
         <v>20</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B104" s="10" t="n">
         <v>45989</v>
@@ -5173,10 +5184,10 @@
         <v>3</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104" s="9" t="n">
         <v>33</v>
@@ -5194,12 +5205,12 @@
         <v>99</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B105" s="10" t="n">
         <v>45989</v>
@@ -5211,10 +5222,10 @@
         <v>3</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G105" s="9" t="n">
         <v>5</v>
@@ -5232,12 +5243,12 @@
         <v>25</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" s="10" t="n">
         <v>45989</v>
@@ -5249,10 +5260,10 @@
         <v>10</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106" s="9" t="n">
         <v>11</v>
@@ -5270,12 +5281,12 @@
         <v>33</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B107" s="10" t="n">
         <v>45989</v>
@@ -5287,10 +5298,10 @@
         <v>10</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G107" s="9" t="n">
         <v>4</v>
@@ -5308,12 +5319,12 @@
         <v>20</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B108" s="10" t="n">
         <v>45989</v>
@@ -5325,10 +5336,10 @@
         <v>10</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" s="9" t="n">
         <v>26</v>
@@ -5346,12 +5357,12 @@
         <v>78</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B109" s="10" t="n">
         <v>45989</v>
@@ -5363,10 +5374,10 @@
         <v>5</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G109" s="9" t="n">
         <v>1</v>
@@ -5384,12 +5395,12 @@
         <v>3</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B110" s="10" t="n">
         <v>45989</v>
@@ -5401,10 +5412,10 @@
         <v>5</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" s="9" t="n">
         <v>7</v>
@@ -5422,12 +5433,12 @@
         <v>21</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B111" s="10" t="n">
         <v>45993</v>
@@ -5439,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" s="9" t="n">
         <v>55</v>
@@ -5460,12 +5471,12 @@
         <v>165</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B112" s="10" t="n">
         <v>45993</v>
@@ -5477,10 +5488,10 @@
         <v>5</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G112" s="9" t="n">
         <v>8</v>
@@ -5498,12 +5509,12 @@
         <v>16</v>
       </c>
       <c r="L112" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B113" s="10" t="n">
         <v>45999</v>
@@ -5515,10 +5526,10 @@
         <v>10</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G113" s="9" t="n">
         <v>25</v>
@@ -5536,12 +5547,12 @@
         <v>50</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B114" s="10" t="n">
         <v>45999</v>
@@ -5553,10 +5564,10 @@
         <v>10</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G114" s="9" t="n">
         <v>5.5</v>
@@ -5574,12 +5585,12 @@
         <v>11</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B115" s="10" t="n">
         <v>45999</v>
@@ -5591,10 +5602,10 @@
         <v>10</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G115" s="9" t="n">
         <v>1</v>
@@ -5612,12 +5623,12 @@
         <v>2</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B116" s="10" t="n">
         <v>45999</v>
@@ -5629,10 +5640,10 @@
         <v>3</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G116" s="9" t="n">
         <v>7</v>
@@ -5650,12 +5661,12 @@
         <v>21</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B117" s="10" t="n">
         <v>45999</v>
@@ -5667,10 +5678,10 @@
         <v>5</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G117" s="9" t="n">
         <v>11</v>
@@ -5688,12 +5699,12 @@
         <v>33</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B118" s="10" t="n">
         <v>46002</v>
@@ -5705,10 +5716,10 @@
         <v>5</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G118" s="9" t="n">
         <v>90</v>
@@ -5726,12 +5737,12 @@
         <v>180</v>
       </c>
       <c r="L118" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B119" s="10" t="n">
         <v>46002</v>
@@ -5743,10 +5754,10 @@
         <v>5</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G119" s="9" t="n">
         <v>15</v>
@@ -5764,12 +5775,12 @@
         <v>30</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
@@ -5791,7 +5802,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
@@ -5813,7 +5824,7 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
@@ -5835,7 +5846,7 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
@@ -5857,7 +5868,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
@@ -5879,7 +5890,7 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
@@ -5901,7 +5912,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
@@ -5923,7 +5934,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
@@ -5945,7 +5956,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
@@ -5967,7 +5978,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
@@ -5989,7 +6000,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
@@ -6011,7 +6022,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
@@ -6033,7 +6044,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
@@ -6055,7 +6066,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
@@ -6077,7 +6088,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
@@ -6099,7 +6110,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
@@ -6121,7 +6132,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
@@ -6143,7 +6154,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
@@ -6165,7 +6176,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
@@ -6187,7 +6198,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B139" s="10" t="n">
         <v>46006</v>
@@ -6211,7 +6222,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
@@ -6233,7 +6244,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
@@ -6255,7 +6266,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
@@ -6277,7 +6288,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B143" s="10" t="n">
         <v>46010</v>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="participantes" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="106">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -311,6 +311,36 @@
   </si>
   <si>
     <t xml:space="preserve">3ºSPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas- feminino – infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas - masculino - infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas – feminino – adulto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapatos – feminino – adulto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapatos – feminino – infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapatos – masculino – infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas – masculino – adulto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapatos – masculino – adulto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas de cama – lençol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas de cama – fronha</t>
   </si>
   <si>
     <t xml:space="preserve">ENCERRAMENTO</t>
@@ -736,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -991,7 +1021,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1265,10 +1295,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A120" activeCellId="0" sqref="A120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B153" activeCellId="0" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5780,421 +5810,727 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B120" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H120" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I120" s="9" t="n">
         <f aca="false">G120*H120</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J120" s="9"/>
       <c r="K120" s="9" t="n">
         <f aca="false">I120+J120</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B121" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I121" s="9" t="n">
         <f aca="false">G121*H121</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J121" s="9"/>
       <c r="K121" s="9" t="n">
         <f aca="false">I121+J121</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B122" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="H122" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I122" s="9" t="n">
         <f aca="false">G122*H122</f>
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="9" t="n">
         <f aca="false">I122+J122</f>
-        <v>0</v>
-      </c>
-      <c r="L122" s="9"/>
+        <v>309</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B123" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="9" t="n">
+        <f aca="false">60+25</f>
+        <v>85</v>
+      </c>
+      <c r="H123" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I123" s="9" t="n">
         <f aca="false">G123*H123</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J123" s="9"/>
       <c r="K123" s="9" t="n">
         <f aca="false">I123+J123</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="9"/>
+        <v>255</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B124" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="9" t="n">
+        <f aca="false">10+10+10+60+10+10+10+10+10+10+10+57</f>
+        <v>217</v>
+      </c>
+      <c r="H124" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I124" s="9" t="n">
         <f aca="false">G124*H124</f>
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="J124" s="9"/>
       <c r="K124" s="9" t="n">
         <f aca="false">I124+J124</f>
-        <v>0</v>
-      </c>
-      <c r="L124" s="9"/>
+        <v>651</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B125" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="H125" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I125" s="9" t="n">
         <f aca="false">G125*H125</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="J125" s="9"/>
       <c r="K125" s="9" t="n">
         <f aca="false">I125+J125</f>
-        <v>0</v>
-      </c>
-      <c r="L125" s="9"/>
+        <v>180</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B126" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G126" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="H126" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I126" s="9" t="n">
         <f aca="false">G126*H126</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J126" s="9"/>
       <c r="K126" s="9" t="n">
         <f aca="false">I126+J126</f>
-        <v>0</v>
-      </c>
-      <c r="L126" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B127" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H127" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I127" s="9" t="n">
         <f aca="false">G127*H127</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9" t="n">
         <f aca="false">I127+J127</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B128" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="H128" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I128" s="9" t="n">
         <f aca="false">G128*H128</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J128" s="9"/>
       <c r="K128" s="9" t="n">
         <f aca="false">I128+J128</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B129" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H129" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I129" s="9" t="n">
         <f aca="false">G129*H129</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J129" s="9"/>
       <c r="K129" s="9" t="n">
         <f aca="false">I129+J129</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B130" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H130" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I130" s="9" t="n">
         <f aca="false">G130*H130</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J130" s="9"/>
       <c r="K130" s="9" t="n">
         <f aca="false">I130+J130</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="L130" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B131" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="H131" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I131" s="9" t="n">
         <f aca="false">G131*H131</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="9" t="n">
         <f aca="false">I131+J131</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B132" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="H132" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I132" s="9" t="n">
         <f aca="false">G132*H132</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="9" t="n">
         <f aca="false">I132+J132</f>
-        <v>0</v>
-      </c>
-      <c r="L132" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="L132" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B133" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="H133" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I133" s="9" t="n">
         <f aca="false">G133*H133</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="9" t="n">
         <f aca="false">I133+J133</f>
-        <v>0</v>
-      </c>
-      <c r="L133" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B134" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H134" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I134" s="9" t="n">
         <f aca="false">G134*H134</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="9" t="n">
         <f aca="false">I134+J134</f>
-        <v>0</v>
-      </c>
-      <c r="L134" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B135" s="10"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B135" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H135" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I135" s="9" t="n">
         <f aca="false">G135*H135</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="9" t="n">
         <f aca="false">I135+J135</f>
-        <v>0</v>
-      </c>
-      <c r="L135" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B136" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H136" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I136" s="9" t="n">
         <f aca="false">G136*H136</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="9" t="n">
         <f aca="false">I136+J136</f>
-        <v>0</v>
-      </c>
-      <c r="L136" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="L136" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B137" s="10"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B137" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="H137" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I137" s="9" t="n">
         <f aca="false">G137*H137</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J137" s="9"/>
       <c r="K137" s="9" t="n">
         <f aca="false">I137+J137</f>
-        <v>0</v>
-      </c>
-      <c r="L137" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B138" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I138" s="9" t="n">
         <f aca="false">G138*H138</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="9" t="n">
         <f aca="false">I138+J138</f>
-        <v>0</v>
-      </c>
-      <c r="L138" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
@@ -6203,113 +6539,668 @@
       <c r="B139" s="10" t="n">
         <v>46006</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="C139" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="H139" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I139" s="9" t="n">
         <f aca="false">G139*H139</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J139" s="9"/>
       <c r="K139" s="9" t="n">
         <f aca="false">I139+J139</f>
-        <v>0</v>
-      </c>
-      <c r="L139" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="B140" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H140" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I140" s="9" t="n">
         <f aca="false">G140*H140</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J140" s="9"/>
       <c r="K140" s="9" t="n">
         <f aca="false">I140+J140</f>
-        <v>0</v>
-      </c>
-      <c r="L140" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="L140" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="B141" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H141" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I141" s="9" t="n">
         <f aca="false">G141*H141</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J141" s="9"/>
       <c r="K141" s="9" t="n">
         <f aca="false">I141+J141</f>
-        <v>0</v>
-      </c>
-      <c r="L141" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
+      <c r="B142" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H142" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I142" s="9" t="n">
         <f aca="false">G142*H142</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J142" s="9"/>
       <c r="K142" s="9" t="n">
         <f aca="false">I142+J142</f>
-        <v>0</v>
-      </c>
-      <c r="L142" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B143" s="10" t="n">
-        <v>46010</v>
-      </c>
-      <c r="C143" s="11"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
+        <v>46006</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H143" s="9" t="n">
+        <v>5</v>
+      </c>
       <c r="I143" s="9" t="n">
         <f aca="false">G143*H143</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="9" t="n">
         <f aca="false">I143+J143</f>
+        <v>20</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I144" s="9" t="n">
+        <f aca="false">G144*H144</f>
+        <v>5</v>
+      </c>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9" t="n">
+        <f aca="false">I144+J144</f>
+        <v>5</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B145" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H145" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I145" s="9" t="n">
+        <f aca="false">G145*H145</f>
+        <v>45</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9" t="n">
+        <f aca="false">I145+J145</f>
+        <v>45</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B146" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H146" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I146" s="9" t="n">
+        <f aca="false">G146*H146</f>
+        <v>65</v>
+      </c>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9" t="n">
+        <f aca="false">I146+J146</f>
+        <v>65</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I147" s="9" t="n">
+        <f aca="false">G147*H147</f>
+        <v>5</v>
+      </c>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9" t="n">
+        <f aca="false">I147+J147</f>
+        <v>5</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B148" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I148" s="9" t="n">
+        <f aca="false">G148*H148</f>
+        <v>9</v>
+      </c>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9" t="n">
+        <f aca="false">I148+J148</f>
+        <v>9</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H149" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I149" s="9" t="n">
+        <f aca="false">G149*H149</f>
+        <v>60</v>
+      </c>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9" t="n">
+        <f aca="false">I149+J149</f>
+        <v>60</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B150" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G150" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" s="9" t="n">
+        <f aca="false">G150*H150</f>
+        <v>3</v>
+      </c>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9" t="n">
+        <f aca="false">I150+J150</f>
+        <v>3</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B151" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I151" s="9" t="n">
+        <f aca="false">G151*H151</f>
+        <v>60</v>
+      </c>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9" t="n">
+        <f aca="false">I151+J151</f>
+        <v>60</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152" s="10" t="n">
+        <v>46006</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I152" s="9" t="n">
+        <f aca="false">G152*H152</f>
+        <v>30</v>
+      </c>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9" t="n">
+        <f aca="false">I152+J152</f>
+        <v>30</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9" t="n">
+        <f aca="false">G153*H153</f>
         <v>0</v>
       </c>
-      <c r="L143" s="9"/>
-    </row>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9" t="n">
+        <f aca="false">I153+J153</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="9"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" s="10"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9" t="n">
+        <f aca="false">G154*H154</f>
+        <v>0</v>
+      </c>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9" t="n">
+        <f aca="false">I154+J154</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="9"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B155" s="10"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9" t="n">
+        <f aca="false">G155*H155</f>
+        <v>0</v>
+      </c>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9" t="n">
+        <f aca="false">I155+J155</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="9"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B156" s="10"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9" t="n">
+        <f aca="false">G156*H156</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9" t="n">
+        <f aca="false">I156+J156</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="9"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B157" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9" t="n">
+        <f aca="false">G157*H157</f>
+        <v>0</v>
+      </c>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9" t="n">
+        <f aca="false">I157+J157</f>
+        <v>0</v>
+      </c>
+      <c r="L157" s="9"/>
+    </row>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="C1:C76"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="106">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -1297,8 +1297,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B153" activeCellId="0" sqref="B153"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A153" activeCellId="0" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7068,23 +7068,39 @@
       <c r="A153" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B153" s="10"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
+      <c r="B153" s="10" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H153" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I153" s="9" t="n">
         <f aca="false">G153*H153</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J153" s="9"/>
       <c r="K153" s="9" t="n">
         <f aca="false">I153+J153</f>
-        <v>0</v>
-      </c>
-      <c r="L153" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="108">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t xml:space="preserve">Roupas de cama – fronha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – arros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – cesta básica</t>
   </si>
   <si>
     <t xml:space="preserve">ENCERRAMENTO</t>
@@ -767,7 +773,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="B162:B163 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,7 +1027,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B162:B163 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1297,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A153" activeCellId="0" sqref="A153"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162:B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7106,101 +7112,418 @@
       <c r="A154" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B154" s="10"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
+      <c r="B154" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="H154" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I154" s="9" t="n">
         <f aca="false">G154*H154</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="n">
         <f aca="false">I154+J154</f>
-        <v>0</v>
-      </c>
-      <c r="L154" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B155" s="10"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
+      <c r="B155" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H155" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I155" s="9" t="n">
         <f aca="false">G155*H155</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9" t="n">
         <f aca="false">I155+J155</f>
-        <v>0</v>
-      </c>
-      <c r="L155" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
+      <c r="B156" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G156" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I156" s="9" t="n">
         <f aca="false">G156*H156</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9" t="n">
         <f aca="false">I156+J156</f>
-        <v>0</v>
-      </c>
-      <c r="L156" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B157" s="10" t="n">
-        <v>46010</v>
-      </c>
-      <c r="C157" s="11"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
+        <v>46008</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H157" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I157" s="9" t="n">
         <f aca="false">G157*H157</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9" t="n">
         <f aca="false">I157+J157</f>
+        <v>75</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G158" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I158" s="9" t="n">
+        <f aca="false">G158*H158</f>
+        <v>60</v>
+      </c>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9" t="n">
+        <f aca="false">I158+J158</f>
+        <v>60</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H159" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I159" s="9" t="n">
+        <f aca="false">G159*H159</f>
+        <v>180</v>
+      </c>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9" t="n">
+        <f aca="false">I159+J159</f>
+        <v>180</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B160" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G160" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I160" s="9" t="n">
+        <f aca="false">G160*H160</f>
+        <v>60</v>
+      </c>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9" t="n">
+        <f aca="false">I160+J160</f>
+        <v>60</v>
+      </c>
+      <c r="L160" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B161" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I161" s="9" t="n">
+        <f aca="false">G161*H161</f>
+        <v>60</v>
+      </c>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9" t="n">
+        <f aca="false">I161+J161</f>
+        <v>60</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B162" s="10"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9" t="n">
+        <f aca="false">G162*H162</f>
         <v>0</v>
       </c>
-      <c r="L157" s="9"/>
-    </row>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9" t="n">
+        <f aca="false">I162+J162</f>
+        <v>0</v>
+      </c>
+      <c r="L162" s="9"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B163" s="10"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9" t="n">
+        <f aca="false">G163*H163</f>
+        <v>0</v>
+      </c>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9" t="n">
+        <f aca="false">I163+J163</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="9"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="n">
+        <f aca="false">G164*H164</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9" t="n">
+        <f aca="false">I164+J164</f>
+        <v>0</v>
+      </c>
+      <c r="L164" s="9"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B165" s="10"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9" t="n">
+        <f aca="false">G165*H165</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="9"/>
+      <c r="K165" s="9" t="n">
+        <f aca="false">I165+J165</f>
+        <v>0</v>
+      </c>
+      <c r="L165" s="9"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B166" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C166" s="11"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9" t="n">
+        <f aca="false">G166*H166</f>
+        <v>0</v>
+      </c>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9" t="n">
+        <f aca="false">I166+J166</f>
+        <v>0</v>
+      </c>
+      <c r="L166" s="9"/>
+    </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Roupas de cama – fronha</t>
   </si>
   <si>
-    <t xml:space="preserve">Alimentos – arros</t>
+    <t xml:space="preserve">Alimentos – arroz</t>
   </si>
   <si>
     <t xml:space="preserve">Alimentos – cesta básica</t>
@@ -773,7 +773,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="B162:B163 A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="B162:B163 B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162:B163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C145" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L156" activeCellId="0" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C145" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L156" activeCellId="0" sqref="L156"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C138" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L155" activeCellId="0" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="108">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C138" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L155" activeCellId="0" sqref="L155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7416,23 +7416,39 @@
       <c r="A162" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B162" s="10"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
+      <c r="B162" s="10" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G162" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" s="9" t="n">
+        <v>60</v>
+      </c>
       <c r="I162" s="9" t="n">
         <f aca="false">G162*H162</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="n">
         <f aca="false">I162+J162</f>
-        <v>0</v>
-      </c>
-      <c r="L162" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="L162" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="116">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -343,10 +343,34 @@
     <t xml:space="preserve">Roupas de cama – fronha</t>
   </si>
   <si>
+    <t xml:space="preserve">Roupas de cama – cobertas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapatos – adulto – feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapatos – infantil – masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapatos – infantil – feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapatos – adulto – masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roupas – infantil – masculino</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alimentos – arroz</t>
   </si>
   <si>
     <t xml:space="preserve">Alimentos – cesta básica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sapatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brinquedos </t>
   </si>
   <si>
     <t xml:space="preserve">ENCERRAMENTO</t>
@@ -1301,10 +1325,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="H182" activeCellId="0" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7113,13 +7137,13 @@
         <v>94</v>
       </c>
       <c r="B154" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>42</v>
@@ -7128,22 +7152,22 @@
         <v>43</v>
       </c>
       <c r="G154" s="9" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H154" s="9" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I154" s="9" t="n">
         <f aca="false">G154*H154</f>
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="J154" s="9"/>
       <c r="K154" s="9" t="n">
         <f aca="false">I154+J154</f>
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="L154" s="9" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,37 +7175,37 @@
         <v>94</v>
       </c>
       <c r="B155" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G155" s="9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H155" s="9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I155" s="9" t="n">
         <f aca="false">G155*H155</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9" t="n">
         <f aca="false">I155+J155</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,37 +7213,37 @@
         <v>94</v>
       </c>
       <c r="B156" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G156" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H156" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156" s="9" t="n">
         <f aca="false">G156*H156</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J156" s="9"/>
       <c r="K156" s="9" t="n">
         <f aca="false">I156+J156</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L156" s="9" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,37 +7251,37 @@
         <v>94</v>
       </c>
       <c r="B157" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G157" s="9" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H157" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I157" s="9" t="n">
         <f aca="false">G157*H157</f>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J157" s="9"/>
       <c r="K157" s="9" t="n">
         <f aca="false">I157+J157</f>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7265,7 +7289,7 @@
         <v>94</v>
       </c>
       <c r="B158" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>23</v>
@@ -7274,16 +7298,16 @@
         <v>10</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G158" s="9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H158" s="9" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="I158" s="9" t="n">
         <f aca="false">G158*H158</f>
@@ -7295,7 +7319,7 @@
         <v>60</v>
       </c>
       <c r="L158" s="9" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,37 +7327,37 @@
         <v>94</v>
       </c>
       <c r="B159" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D159" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G159" s="9" t="n">
         <v>3</v>
       </c>
       <c r="H159" s="9" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I159" s="9" t="n">
         <f aca="false">G159*H159</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="J159" s="9"/>
       <c r="K159" s="9" t="n">
         <f aca="false">I159+J159</f>
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="L159" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,37 +7365,37 @@
         <v>94</v>
       </c>
       <c r="B160" s="10" t="n">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D160" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G160" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" s="9" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I160" s="9" t="n">
         <f aca="false">G160*H160</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="n">
         <f aca="false">I160+J160</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L160" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7379,37 +7403,37 @@
         <v>94</v>
       </c>
       <c r="B161" s="10" t="n">
-        <v>46008</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>28</v>
+        <v>46007</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D161" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G161" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" s="9" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I161" s="9" t="n">
         <f aca="false">G161*H161</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J161" s="9"/>
       <c r="K161" s="9" t="n">
         <f aca="false">I161+J161</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7417,34 +7441,34 @@
         <v>94</v>
       </c>
       <c r="B162" s="10" t="n">
-        <v>46009</v>
+        <v>46007</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G162" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H162" s="9" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I162" s="9" t="n">
         <f aca="false">G162*H162</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="n">
         <f aca="false">I162+J162</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="L162" s="9" t="s">
         <v>106</v>
@@ -7454,108 +7478,698 @@
       <c r="A163" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B163" s="10"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
+      <c r="B163" s="10" t="n">
+        <v>46007</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H163" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I163" s="9" t="n">
         <f aca="false">G163*H163</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="9" t="n">
         <f aca="false">I163+J163</f>
-        <v>0</v>
-      </c>
-      <c r="L163" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
+      <c r="B164" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="H164" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I164" s="9" t="n">
         <f aca="false">G164*H164</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J164" s="9"/>
       <c r="K164" s="9" t="n">
         <f aca="false">I164+J164</f>
-        <v>0</v>
-      </c>
-      <c r="L164" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B165" s="10"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
+      <c r="B165" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H165" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I165" s="9" t="n">
         <f aca="false">G165*H165</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J165" s="9"/>
       <c r="K165" s="9" t="n">
         <f aca="false">I165+J165</f>
-        <v>0</v>
-      </c>
-      <c r="L165" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B166" s="10" t="n">
-        <v>46010</v>
-      </c>
-      <c r="C166" s="11"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
+        <v>46008</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G166" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="I166" s="9" t="n">
         <f aca="false">G166*H166</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" s="9"/>
       <c r="K166" s="9" t="n">
         <f aca="false">I166+J166</f>
+        <v>2</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B167" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H167" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I167" s="9" t="n">
+        <f aca="false">G167*H167</f>
+        <v>75</v>
+      </c>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9" t="n">
+        <f aca="false">I167+J167</f>
+        <v>75</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B168" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G168" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I168" s="9" t="n">
+        <f aca="false">G168*H168</f>
+        <v>60</v>
+      </c>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9" t="n">
+        <f aca="false">I168+J168</f>
+        <v>60</v>
+      </c>
+      <c r="L168" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B169" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G169" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H169" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I169" s="9" t="n">
+        <f aca="false">G169*H169</f>
+        <v>180</v>
+      </c>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9" t="n">
+        <f aca="false">I169+J169</f>
+        <v>180</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I170" s="9" t="n">
+        <f aca="false">G170*H170</f>
+        <v>60</v>
+      </c>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9" t="n">
+        <f aca="false">I170+J170</f>
+        <v>60</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B171" s="10" t="n">
+        <v>46008</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G171" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I171" s="9" t="n">
+        <f aca="false">G171*H171</f>
+        <v>60</v>
+      </c>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9" t="n">
+        <f aca="false">I171+J171</f>
+        <v>60</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B172" s="10" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G172" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I172" s="9" t="n">
+        <f aca="false">G172*H172</f>
+        <v>60</v>
+      </c>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9" t="n">
+        <f aca="false">I172+J172</f>
+        <v>60</v>
+      </c>
+      <c r="L172" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" s="10" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H173" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I173" s="9" t="n">
+        <f aca="false">G173*H173</f>
+        <v>33</v>
+      </c>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9" t="n">
+        <f aca="false">I173+J173</f>
+        <v>33</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B174" s="10" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I174" s="9" t="n">
+        <f aca="false">G174*H174</f>
+        <v>10</v>
+      </c>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9" t="n">
+        <f aca="false">I174+J174</f>
+        <v>10</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B175" s="10" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="H175" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I175" s="9" t="n">
+        <f aca="false">G175*H175</f>
+        <v>66</v>
+      </c>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9" t="n">
+        <f aca="false">I175+J175</f>
+        <v>66</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B176" s="10" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H176" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I176" s="9" t="n">
+        <f aca="false">G176*H176</f>
+        <v>45</v>
+      </c>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9" t="n">
+        <f aca="false">I176+J176</f>
+        <v>45</v>
+      </c>
+      <c r="L176" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="9"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="9"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="9"/>
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="9"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="9"/>
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="9"/>
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="9"/>
+      <c r="L185" s="9"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B187" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C187" s="11"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9" t="n">
+        <f aca="false">G187*H187</f>
         <v>0</v>
       </c>
-      <c r="L166" s="9"/>
-    </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9" t="n">
+        <f aca="false">I187+J187</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="9"/>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C76"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/planilha_gincana_solidaria.xlsx
+++ b/planilha_gincana_solidaria.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="120">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t xml:space="preserve">ENCERRAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – sal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – maisena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentos – farinha de mandioca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brinquedos – bolas</t>
   </si>
 </sst>
 </file>
@@ -1325,10 +1337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H182" activeCellId="0" sqref="H182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A190" activeCellId="0" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8007,144 +8019,385 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
+      <c r="A177" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B177" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G177" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="H177" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" s="9" t="n">
+        <f aca="false">G177*H177</f>
+        <v>204</v>
+      </c>
       <c r="J177" s="9"/>
-      <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
+      <c r="K177" s="9" t="n">
+        <f aca="false">I177+J177</f>
+        <v>204</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
+      <c r="A178" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B178" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G178" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H178" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I178" s="9" t="n">
+        <f aca="false">G178*H178</f>
+        <v>48</v>
+      </c>
       <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
+      <c r="K178" s="9" t="n">
+        <f aca="false">I178+J178</f>
+        <v>48</v>
+      </c>
+      <c r="L178" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
+      <c r="A179" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B179" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G179" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="H179" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" s="9" t="n">
+        <f aca="false">G179*H179</f>
+        <v>130</v>
+      </c>
       <c r="J179" s="9"/>
-      <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
+      <c r="K179" s="9" t="n">
+        <f aca="false">I179+J179</f>
+        <v>130</v>
+      </c>
+      <c r="L179" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
+      <c r="A180" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B180" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G180" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H180" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" s="9" t="n">
+        <f aca="false">G180*H180</f>
+        <v>6</v>
+      </c>
       <c r="J180" s="9"/>
-      <c r="K180" s="9"/>
-      <c r="L180" s="9"/>
+      <c r="K180" s="9" t="n">
+        <f aca="false">I180+J180</f>
+        <v>6</v>
+      </c>
+      <c r="L180" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="9"/>
+      <c r="A181" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B181" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G181" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H181" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I181" s="9" t="n">
+        <f aca="false">G181*H181</f>
+        <v>14</v>
+      </c>
       <c r="J181" s="9"/>
-      <c r="K181" s="9"/>
-      <c r="L181" s="9"/>
+      <c r="K181" s="9" t="n">
+        <f aca="false">I181+J181</f>
+        <v>14</v>
+      </c>
+      <c r="L181" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
+      <c r="A182" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B182" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G182" s="9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H182" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I182" s="9" t="n">
+        <f aca="false">G182*H182</f>
+        <v>7.8</v>
+      </c>
       <c r="J182" s="9"/>
-      <c r="K182" s="9"/>
-      <c r="L182" s="9"/>
+      <c r="K182" s="9" t="n">
+        <f aca="false">I182+J182</f>
+        <v>7.8</v>
+      </c>
+      <c r="L182" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
+      <c r="A183" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B183" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G183" s="9" t="n">
+        <f aca="false">24+30+11+4</f>
+        <v>69</v>
+      </c>
+      <c r="H183" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I183" s="9" t="n">
+        <f aca="false">G183*H183</f>
+        <v>207</v>
+      </c>
       <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
+      <c r="K183" s="9" t="n">
+        <f aca="false">I183+J183</f>
+        <v>207</v>
+      </c>
+      <c r="L183" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9"/>
+      <c r="A184" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B184" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G184" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I184" s="9" t="n">
+        <f aca="false">G184*H184</f>
+        <v>120</v>
+      </c>
       <c r="J184" s="9"/>
-      <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
+      <c r="K184" s="9" t="n">
+        <f aca="false">I184+J184</f>
+        <v>120</v>
+      </c>
+      <c r="L184" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9"/>
+      <c r="A185" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B185" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G185" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H185" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I185" s="9" t="n">
+        <f aca="false">G185*H185</f>
+        <v>45</v>
+      </c>
       <c r="J185" s="9"/>
-      <c r="K185" s="9"/>
-      <c r="L185" s="9"/>
+      <c r="K185" s="9" t="n">
+        <f aca="false">I185+J185</f>
+        <v>45</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-      <c r="I186" s="9"/>
+      <c r="A186" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B186" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G186" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H186" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I186" s="9" t="n">
+        <f aca="false">G186*H186</f>
+        <v>20</v>
+      </c>
       <c r="J186" s="9"/>
-      <c r="K186" s="9"/>
-      <c r="L186" s="9"/>
+      <c r="K186" s="9" t="n">
+        <f aca="false">I186+J186</f>
+        <v>20</v>
+      </c>
+      <c r="L186" s="9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="s">
@@ -8153,22 +8406,216 @@
       <c r="B187" s="10" t="n">
         <v>46010</v>
       </c>
-      <c r="C187" s="11"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
+      <c r="C187" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G187" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="H187" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="I187" s="9" t="n">
         <f aca="false">G187*H187</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9" t="n">
         <f aca="false">I187+J187</f>
+        <v>153</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B188" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G188" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H188" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I188" s="9" t="n">
+        <f aca="false">G188*H188</f>
+        <v>35</v>
+      </c>
+      <c r="J188" s="9"/>
+      <c r="K188" s="9" t="n">
+        <f aca="false">I188+J188</f>
+        <v>35</v>
+      </c>
+      <c r="L188" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B189" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G189" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H189" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I189" s="9" t="n">
+        <f aca="false">G189*H189</f>
+        <v>15</v>
+      </c>
+      <c r="J189" s="9"/>
+      <c r="K189" s="9" t="n">
+        <f aca="false">I189+J189</f>
+        <v>15</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B190" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G190" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H190" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I190" s="9" t="n">
+        <f aca="false">G190*H190</f>
+        <v>10</v>
+      </c>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9" t="n">
+        <f aca="false">I190+J190</f>
+        <v>10</v>
+      </c>
+      <c r="L190" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B191" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C191" s="11"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9" t="n">
+        <f aca="false">G191*H191</f>
         <v>0</v>
       </c>
-      <c r="L187" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9" t="n">
+        <f aca="false">I191+J191</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="9"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B192" s="10" t="n">
+        <v>46010</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9" t="n">
+        <f aca="false">G192*H192</f>
+        <v>0</v>
+      </c>
+      <c r="J192" s="9"/>
+      <c r="K192" s="9" t="n">
+        <f aca="false">I192+J192</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="9"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="11"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9" t="n">
+        <f aca="false">G193*H193</f>
+        <v>0</v>
+      </c>
+      <c r="J193" s="9"/>
+      <c r="K193" s="9" t="n">
+        <f aca="false">I193+J193</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C76"/>
